--- a/output_files/cl1.xlsx
+++ b/output_files/cl1.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/output_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7E9E2-492A-7F42-B3B8-EDA84EBC8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample CL_1_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -772,11 +791,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,13 +859,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -884,7 +911,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -918,6 +945,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -952,9 +980,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1127,14 +1156,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="IJ1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="HN19" sqref="HN19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="24" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="25" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="23" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="15" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="45" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="21" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="18" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="20" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="17" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="24" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="20" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="23" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="22" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="23" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="22" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="21" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="35" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="37" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="34" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="194" max="195" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="34" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="34" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="31" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="32" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="39" bestFit="1" customWidth="1"/>
+    <col min="229" max="230" width="41" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="39" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="44" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:254">
+    <row r="1" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +2182,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:254">
+    <row r="2" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -1909,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>43693.72847222222</v>
+        <v>43693.728472222218</v>
       </c>
       <c r="E2" s="2">
-        <v>43693.72847222222</v>
+        <v>43693.728472222218</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1945,43 +2229,43 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.07646192701667991</v>
+        <v>7.6461927016679906E-2</v>
       </c>
       <c r="V2">
         <v>2.711509217188699</v>
       </c>
       <c r="W2">
-        <v>3.655452701767192</v>
+        <v>3.6554527017671918</v>
       </c>
       <c r="X2">
-        <v>1.50921158047555</v>
+        <v>1.5092115804755499</v>
       </c>
       <c r="Y2">
-        <v>3.2987069678508</v>
+        <v>3.2987069678508001</v>
       </c>
       <c r="Z2">
-        <v>3.82292621234631</v>
+        <v>3.8229262123463101</v>
       </c>
       <c r="AA2">
-        <v>4.34714545684182</v>
+        <v>4.3471454568418197</v>
       </c>
       <c r="AB2">
-        <v>0.5892224087892998</v>
+        <v>0.58922240878929977</v>
       </c>
       <c r="AC2">
-        <v>27.50238888888889</v>
+        <v>27.502388888888891</v>
       </c>
       <c r="AD2">
-        <v>2.371408143427564</v>
+        <v>2.3714081434275638</v>
       </c>
       <c r="AE2">
-        <v>0.7943568058518458</v>
+        <v>0.79435680585184576</v>
       </c>
       <c r="AF2">
-        <v>2.332492596537619</v>
+        <v>2.3324925965376191</v>
       </c>
       <c r="AG2">
-        <v>0.8848148907290087</v>
+        <v>0.88481489072900865</v>
       </c>
       <c r="AH2">
         <v>1.606399256558579</v>
@@ -1990,37 +2274,37 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.395401935661784</v>
+        <v>3.3954019356617842</v>
       </c>
       <c r="AK2">
         <v>2.922541305224033</v>
       </c>
       <c r="AL2">
-        <v>0.9767270723778032</v>
+        <v>0.97672707237780321</v>
       </c>
       <c r="AM2">
         <v>1.594168944</v>
       </c>
       <c r="AN2">
-        <v>0.7371220902277534</v>
+        <v>0.73712209022775343</v>
       </c>
       <c r="AO2">
         <v>2.510111429603334</v>
       </c>
       <c r="AP2">
-        <v>4.620325449509554</v>
+        <v>4.6203254495095543</v>
       </c>
       <c r="AQ2">
-        <v>3.153946655498166</v>
+        <v>3.1539466554981659</v>
       </c>
       <c r="AR2">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS2">
-        <v>1.490640433560826</v>
+        <v>1.4906404335608261</v>
       </c>
       <c r="AT2">
-        <v>1.834438693803483</v>
+        <v>1.8344386938034829</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2029,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV2">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW2">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX2">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY2">
         <v>400</v>
@@ -2047,7 +2331,7 @@
         <v>200</v>
       </c>
       <c r="CA2">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -2056,37 +2340,37 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE2">
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG2">
         <v>16.68548916611951</v>
       </c>
       <c r="CH2">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI2">
         <v>0</v>
       </c>
       <c r="CJ2">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK2">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL2">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM2">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN2">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO2">
         <v>0</v>
@@ -2155,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="EK2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -2167,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="EO2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2">
         <v>0</v>
@@ -2203,34 +2487,34 @@
         <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.07646192701667991</v>
+        <v>7.6461927016679906E-2</v>
       </c>
       <c r="FB2">
         <v>2.711509217188699</v>
       </c>
       <c r="FC2">
-        <v>3.655452701767191</v>
+        <v>3.6554527017671909</v>
       </c>
       <c r="FD2">
-        <v>1.50921158047555</v>
+        <v>1.5092115804755499</v>
       </c>
       <c r="FE2">
-        <v>0.5892224087892998</v>
+        <v>0.58922240878929977</v>
       </c>
       <c r="FF2">
-        <v>27.50238888888889</v>
+        <v>27.502388888888891</v>
       </c>
       <c r="FG2">
-        <v>2.371408143427564</v>
+        <v>2.3714081434275638</v>
       </c>
       <c r="FH2">
-        <v>0.7943568058518458</v>
+        <v>0.79435680585184576</v>
       </c>
       <c r="FI2">
-        <v>2.332492596537619</v>
+        <v>2.3324925965376191</v>
       </c>
       <c r="FJ2">
-        <v>0.8848148907290088</v>
+        <v>0.88481489072900876</v>
       </c>
       <c r="FK2">
         <v>1.606399256558579</v>
@@ -2239,37 +2523,37 @@
         <v>0</v>
       </c>
       <c r="FM2">
-        <v>3.395401935661784</v>
+        <v>3.3954019356617842</v>
       </c>
       <c r="FN2">
         <v>2.922541305224033</v>
       </c>
       <c r="FO2">
-        <v>0.9767270723778032</v>
+        <v>0.97672707237780321</v>
       </c>
       <c r="FP2">
         <v>1.594168944</v>
       </c>
       <c r="FQ2">
-        <v>0.7371220902277534</v>
+        <v>0.73712209022775343</v>
       </c>
       <c r="FR2">
         <v>2.510111429603334</v>
       </c>
       <c r="FS2">
-        <v>4.620325449509554</v>
+        <v>4.6203254495095543</v>
       </c>
       <c r="FT2">
-        <v>3.153946655498166</v>
+        <v>3.1539466554981659</v>
       </c>
       <c r="FU2">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="FV2">
-        <v>1.490640433560826</v>
+        <v>1.4906404335608261</v>
       </c>
       <c r="FW2">
-        <v>1.834438693803483</v>
+        <v>1.8344386938034829</v>
       </c>
       <c r="FX2">
         <v>0</v>
@@ -2281,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:254">
+    <row r="3" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -2292,10 +2576,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>43694.72361111111</v>
+        <v>43694.723611111112</v>
       </c>
       <c r="E3" s="2">
-        <v>43694.72361111111</v>
+        <v>43694.723611111112</v>
       </c>
       <c r="F3">
         <v>1.5</v>
@@ -2307,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="J3">
-        <v>0.005474747474747521</v>
+        <v>5.4747474747475211E-3</v>
       </c>
       <c r="K3">
-        <v>0.5474747474747476</v>
+        <v>0.54747474747474756</v>
       </c>
       <c r="L3">
         <v>99</v>
@@ -2322,7 +2606,7 @@
         <v>7.39</v>
       </c>
       <c r="P3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="S3">
         <v>349</v>
@@ -2331,58 +2615,58 @@
         <v>1.083781353393962</v>
       </c>
       <c r="U3">
-        <v>0.1959537492430319</v>
+        <v>0.19595374924303191</v>
       </c>
       <c r="V3">
-        <v>2.72891405189121</v>
+        <v>2.7289140518912101</v>
       </c>
       <c r="W3">
-        <v>3.693778084407416</v>
+        <v>3.6937780844074162</v>
       </c>
       <c r="X3">
-        <v>1.577128607487276</v>
+        <v>1.5771286074872759</v>
       </c>
       <c r="Y3">
-        <v>3.32604077506947</v>
+        <v>3.3260407750694698</v>
       </c>
       <c r="Z3">
         <v>3.83687963579436</v>
       </c>
       <c r="AA3">
-        <v>4.34771849651925</v>
+        <v>4.3477184965192501</v>
       </c>
       <c r="AB3">
-        <v>0.5531449074864612</v>
+        <v>0.55314490748646117</v>
       </c>
       <c r="AC3">
-        <v>25.42654724293911</v>
+        <v>25.426547242939112</v>
       </c>
       <c r="AD3">
         <v>1.972562092036156</v>
       </c>
       <c r="AE3">
-        <v>0.9015199165761112</v>
+        <v>0.90151991657611119</v>
       </c>
       <c r="AF3">
-        <v>2.390347128074563</v>
+        <v>2.3903471280745632</v>
       </c>
       <c r="AG3">
-        <v>0.8644691605677238</v>
+        <v>0.86446916056772383</v>
       </c>
       <c r="AH3">
         <v>1.611342568343306</v>
       </c>
       <c r="AI3">
-        <v>2.93072746316411</v>
+        <v>2.9307274631641098</v>
       </c>
       <c r="AJ3">
-        <v>3.379283237561511</v>
+        <v>3.3792832375615109</v>
       </c>
       <c r="AK3">
         <v>2.941890124947228</v>
       </c>
       <c r="AL3">
-        <v>0.9687324086108193</v>
+        <v>0.96873240861081933</v>
       </c>
       <c r="AM3">
         <v>2.101163203</v>
@@ -2391,16 +2675,16 @@
         <v>0.7424783462900566</v>
       </c>
       <c r="AO3">
-        <v>2.513410287009852</v>
+        <v>2.5134102870098518</v>
       </c>
       <c r="AP3">
-        <v>4.596407572721212</v>
+        <v>4.5964075727212119</v>
       </c>
       <c r="AQ3">
-        <v>3.222477404624691</v>
+        <v>3.2224774046246911</v>
       </c>
       <c r="AR3">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS3">
         <v>1.539198047885167</v>
@@ -2415,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV3">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW3">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX3">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY3">
         <v>400</v>
@@ -2433,7 +2717,7 @@
         <v>200</v>
       </c>
       <c r="CA3">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -2442,37 +2726,37 @@
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG3">
         <v>16.68548916611951</v>
       </c>
       <c r="CH3">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK3">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL3">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM3">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN3">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO3">
         <v>0</v>
@@ -2484,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.9951388888888889</v>
+        <v>0.99513888888888891</v>
       </c>
       <c r="DR3">
-        <v>23.88333333333333</v>
+        <v>23.883333333333329</v>
       </c>
       <c r="DS3">
         <v>73</v>
@@ -2496,142 +2780,142 @@
         <v>71.5</v>
       </c>
       <c r="DV3">
-        <v>9.410033333333333</v>
+        <v>9.4100333333333328</v>
       </c>
       <c r="DW3">
-        <v>21.608</v>
+        <v>21.608000000000001</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.07911603879775925</v>
+        <v>7.9116038797759247E-2</v>
       </c>
       <c r="DZ3">
-        <v>-0.008722903022523694</v>
+        <v>-8.7229030225236936E-3</v>
       </c>
       <c r="EA3">
-        <v>-0.001270552933283284</v>
+        <v>-1.2705529332832841E-3</v>
       </c>
       <c r="EB3">
-        <v>-0.002797752932736387</v>
+        <v>-2.797752932736387E-3</v>
       </c>
       <c r="EC3">
-        <v>-0.004957942971856028</v>
+        <v>-4.9579429718560279E-3</v>
       </c>
       <c r="ED3">
-        <v>0.002633657595107223</v>
+        <v>2.6336575951072228E-3</v>
       </c>
       <c r="EE3">
         <v>0.1515364401543336</v>
       </c>
       <c r="EF3">
-        <v>0.02911576175157282</v>
+        <v>2.9115761751572818E-2</v>
       </c>
       <c r="EG3">
-        <v>-0.007822907082871375</v>
+        <v>-7.8229070828713752E-3</v>
       </c>
       <c r="EH3">
-        <v>-0.004223380802196971</v>
+        <v>-4.2233808021969708E-3</v>
       </c>
       <c r="EI3">
-        <v>0.001485238301773798</v>
+        <v>1.4852383017737981E-3</v>
       </c>
       <c r="EJ3">
-        <v>-0.0003608617602850614</v>
+        <v>-3.6086176028506139E-4</v>
       </c>
       <c r="EK3">
-        <v>0.2139431048109801</v>
+        <v>0.21394310481098011</v>
       </c>
       <c r="EL3">
-        <v>0.00117666496132</v>
+        <v>1.17666496132E-3</v>
       </c>
       <c r="EM3">
-        <v>-0.001412463839793162</v>
+        <v>-1.412463839793162E-3</v>
       </c>
       <c r="EN3">
-        <v>0.0005836104549898237</v>
+        <v>5.8361045498982373E-4</v>
       </c>
       <c r="EO3">
-        <v>0.03701058090699999</v>
+        <v>3.701058090699999E-2</v>
       </c>
       <c r="EP3">
-        <v>-0.0003910066925481317</v>
+        <v>-3.9100669254813169E-4</v>
       </c>
       <c r="EQ3">
-        <v>-0.0002408165906757631</v>
+        <v>-2.4081659067576311E-4</v>
       </c>
       <c r="ER3">
-        <v>0.001746005005549023</v>
+        <v>1.746005005549023E-3</v>
       </c>
       <c r="ES3">
-        <v>-0.005002744686236326</v>
+        <v>-5.0027446862363264E-3</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>-0.003544705845676916</v>
+        <v>-3.5447058456769161E-3</v>
       </c>
       <c r="EV3">
-        <v>-0.0008401956433341695</v>
+        <v>-8.4019564333416953E-4</v>
       </c>
       <c r="EW3">
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>-0.01515985726285633</v>
+        <v>-1.5159857262856329E-2</v>
       </c>
       <c r="EY3">
-        <v>0.01312782062161996</v>
+        <v>1.312782062161996E-2</v>
       </c>
       <c r="EZ3">
-        <v>0.05399214566992756</v>
+        <v>5.3992145669927563E-2</v>
       </c>
       <c r="FA3">
-        <v>0.1959537492430319</v>
+        <v>0.19595374924303191</v>
       </c>
       <c r="FB3">
-        <v>2.72891405189121</v>
+        <v>2.7289140518912101</v>
       </c>
       <c r="FC3">
-        <v>3.693778084407417</v>
+        <v>3.6937780844074171</v>
       </c>
       <c r="FD3">
-        <v>1.577128607487276</v>
+        <v>1.5771286074872759</v>
       </c>
       <c r="FE3">
-        <v>0.5531449074864612</v>
+        <v>0.55314490748646117</v>
       </c>
       <c r="FF3">
-        <v>25.42654724293911</v>
+        <v>25.426547242939112</v>
       </c>
       <c r="FG3">
         <v>1.972562092036156</v>
       </c>
       <c r="FH3">
-        <v>0.9015199165761112</v>
+        <v>0.90151991657611119</v>
       </c>
       <c r="FI3">
-        <v>2.390347128074563</v>
+        <v>2.3903471280745632</v>
       </c>
       <c r="FJ3">
-        <v>0.8644691605677238</v>
+        <v>0.86446916056772383</v>
       </c>
       <c r="FK3">
         <v>1.611342568343306</v>
       </c>
       <c r="FL3">
-        <v>2.93072746316411</v>
+        <v>2.9307274631641098</v>
       </c>
       <c r="FM3">
-        <v>3.379283237561511</v>
+        <v>3.3792832375615109</v>
       </c>
       <c r="FN3">
         <v>2.941890124947228</v>
       </c>
       <c r="FO3">
-        <v>0.9687324086108194</v>
+        <v>0.96873240861081944</v>
       </c>
       <c r="FP3">
         <v>2.101163203</v>
@@ -2640,16 +2924,16 @@
         <v>0.7424783462900566</v>
       </c>
       <c r="FR3">
-        <v>2.513410287009852</v>
+        <v>2.5134102870098518</v>
       </c>
       <c r="FS3">
-        <v>4.596407572721212</v>
+        <v>4.5964075727212119</v>
       </c>
       <c r="FT3">
-        <v>3.222477404624691</v>
+        <v>3.2224774046246911</v>
       </c>
       <c r="FU3">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="FV3">
         <v>1.539198047885167</v>
@@ -2664,220 +2948,220 @@
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.03145578655406819</v>
+        <v>3.1455786554068187E-2</v>
       </c>
       <c r="GC3">
-        <v>0.03203758550002454</v>
+        <v>3.2037585500024543E-2</v>
       </c>
       <c r="GD3">
-        <v>0.0005817989459563574</v>
+        <v>5.8179894595635742E-4</v>
       </c>
       <c r="GE3">
         <v>0.1151729558231068</v>
       </c>
       <c r="GF3">
-        <v>-0.01269834207739455</v>
+        <v>-1.269834207739455E-2</v>
       </c>
       <c r="GG3">
-        <v>-0.00184960393719938</v>
+        <v>-1.84960393719938E-3</v>
       </c>
       <c r="GH3">
-        <v>-0.004072821134911793</v>
+        <v>-4.0728211349117926E-3</v>
       </c>
       <c r="GI3">
-        <v>-0.007217511841445097</v>
+        <v>-7.217511841445097E-3</v>
       </c>
       <c r="GJ3">
-        <v>0.003833939798602061</v>
+        <v>3.833939798602061E-3</v>
       </c>
       <c r="GK3">
         <v>0.2205987558616273</v>
       </c>
       <c r="GL3">
-        <v>0.04238519006926031</v>
+        <v>4.2385190069260309E-2</v>
       </c>
       <c r="GM3">
-        <v>-0.01138817546423131</v>
+        <v>-1.138817546423131E-2</v>
       </c>
       <c r="GN3">
-        <v>-0.006148174983823451</v>
+        <v>-6.1481749838234508E-3</v>
       </c>
       <c r="GO3">
-        <v>0.002162131571756909</v>
+        <v>2.162131571756909E-3</v>
       </c>
       <c r="GP3">
-        <v>-0.000525323514765467</v>
+        <v>-5.2532351476546697E-4</v>
       </c>
       <c r="GQ3">
-        <v>0.3114470862480945</v>
+        <v>0.31144708624809447</v>
       </c>
       <c r="GR3">
-        <v>0.001712926780309738</v>
+        <v>1.7129267803097381E-3</v>
       </c>
       <c r="GS3">
-        <v>-0.00205619034893897</v>
+        <v>-2.05619034893897E-3</v>
       </c>
       <c r="GT3">
-        <v>0.0008495893142763101</v>
+        <v>8.4958931427631015E-4</v>
       </c>
       <c r="GU3">
-        <v>0.05387805133527687</v>
+        <v>5.3878051335276872E-2</v>
       </c>
       <c r="GV3">
-        <v>-0.0005692069169754808</v>
+        <v>-5.6920691697548084E-4</v>
       </c>
       <c r="GW3">
-        <v>-0.0003505680893639027</v>
+        <v>-3.5056808936390272E-4</v>
       </c>
       <c r="GX3">
-        <v>0.002541741983380446</v>
+        <v>2.5417419833804458E-3</v>
       </c>
       <c r="GY3">
-        <v>-0.007282731813899882</v>
+        <v>-7.2827318138998821E-3</v>
       </c>
       <c r="GZ3">
         <v>0</v>
       </c>
       <c r="HA3">
-        <v>-0.005160195782977175</v>
+        <v>-5.1601957829771746E-3</v>
       </c>
       <c r="HB3">
-        <v>-0.001223112496315144</v>
+        <v>-1.2231124963151441E-3</v>
       </c>
       <c r="HC3">
         <v>0</v>
       </c>
       <c r="HD3">
-        <v>0.08185324236794628</v>
+        <v>8.1853242367946277E-2</v>
       </c>
       <c r="HE3">
-        <v>0.1484296357806177</v>
+        <v>0.14842963578061771</v>
       </c>
       <c r="HF3">
-        <v>0.002408865056430481</v>
+        <v>2.408865056430481E-3</v>
       </c>
       <c r="HG3">
-        <v>0.2700531117718367</v>
+        <v>0.27005311177183672</v>
       </c>
       <c r="HH3">
-        <v>1.41182612309678</v>
+        <v>1.4118261230967799</v>
       </c>
       <c r="HI3">
-        <v>1.899376079268651</v>
+        <v>1.8993760792686509</v>
       </c>
       <c r="HJ3">
-        <v>0.1921370313432177</v>
+        <v>0.19213703134321769</v>
       </c>
       <c r="HK3">
         <v>1.271152759896474</v>
       </c>
       <c r="HM3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="HN3">
-        <v>-0.0815011152050738</v>
+        <v>-8.1501115205073804E-2</v>
       </c>
       <c r="HO3">
-        <v>0.005515872409543841</v>
+        <v>5.5158724095438413E-3</v>
       </c>
       <c r="HP3">
-        <v>-0.003009381206465377</v>
+        <v>-3.0093812064653771E-3</v>
       </c>
       <c r="HQ3">
-        <v>-0.0121501854372575</v>
+        <v>-1.21501854372575E-2</v>
       </c>
       <c r="HR3">
-        <v>-0.01164592694989159</v>
+        <v>-1.164592694989159E-2</v>
       </c>
       <c r="HS3">
-        <v>0.001752702390329102</v>
+        <v>1.752702390329102E-3</v>
       </c>
       <c r="HT3">
-        <v>0.2203529017211545</v>
+        <v>0.22035290172115449</v>
       </c>
       <c r="HU3">
-        <v>0.04800884351808603</v>
+        <v>4.8008843518086028E-2</v>
       </c>
       <c r="HV3">
-        <v>-0.02163090582230836</v>
+        <v>-2.1630905822308359E-2</v>
       </c>
       <c r="HW3">
-        <v>-0.01253734411730102</v>
+        <v>-1.253734411730102E-2</v>
       </c>
       <c r="HX3">
-        <v>0.004758620422927303</v>
+        <v>4.7586204229273033E-3</v>
       </c>
       <c r="HY3">
-        <v>-0.005464931857337886</v>
+        <v>-5.4649318573378857E-3</v>
       </c>
       <c r="HZ3">
-        <v>0.5178695489900123</v>
+        <v>0.51786954899001225</v>
       </c>
       <c r="IA3">
-        <v>-0.007100444585012001</v>
+        <v>-7.1004445850120007E-3</v>
       </c>
       <c r="IB3">
-        <v>-0.003201526949257055</v>
+        <v>-3.201526949257055E-3</v>
       </c>
       <c r="IC3">
-        <v>-0.0009510219901075575</v>
+        <v>-9.5102199010755749E-4</v>
       </c>
       <c r="ID3">
-        <v>0.06914768239849547</v>
+        <v>6.9147682398495475E-2</v>
       </c>
       <c r="IE3">
-        <v>-0.0008350078130976788</v>
+        <v>-8.3500781309767884E-4</v>
       </c>
       <c r="IF3">
-        <v>-0.003404462043576258</v>
+        <v>-3.4044620435762581E-3</v>
       </c>
       <c r="IG3">
-        <v>0.01025853411450246</v>
+        <v>1.0258534114502459E-2</v>
       </c>
       <c r="IH3">
-        <v>-0.009345946562381543</v>
+        <v>-9.3459465623815432E-3</v>
       </c>
       <c r="II3">
-        <v>-0.0008287603830261956</v>
+        <v>-8.2876038302619561E-4</v>
       </c>
       <c r="IJ3">
-        <v>-0.002156173874053412</v>
+        <v>-2.1561738740534121E-3</v>
       </c>
       <c r="IK3">
-        <v>-0.003588095006964409</v>
+        <v>-3.588095006964409E-3</v>
       </c>
       <c r="IL3">
         <v>0</v>
       </c>
       <c r="IM3">
-        <v>0.07473836901387632</v>
+        <v>7.4738369013876316E-2</v>
       </c>
       <c r="IN3">
-        <v>0.1383701790028279</v>
+        <v>0.13837017900282789</v>
       </c>
       <c r="IO3">
         <v>-0.1219733586102985</v>
       </c>
       <c r="IP3">
-        <v>0.3264353740421075</v>
+        <v>0.32643537404210748</v>
       </c>
       <c r="IQ3">
-        <v>2.350182570526573</v>
+        <v>2.3501825705265729</v>
       </c>
       <c r="IR3">
-        <v>1.901495268395527</v>
+        <v>1.9014952683955271</v>
       </c>
       <c r="IS3">
         <v>0.2178725269469734</v>
       </c>
       <c r="IT3">
-        <v>1.122252639036801</v>
+        <v>1.1222526390368011</v>
       </c>
     </row>
-    <row r="4" spans="1:254">
+    <row r="4" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -2888,10 +3172,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>43695.33472222222</v>
+        <v>43695.334722222222</v>
       </c>
       <c r="E4" s="2">
-        <v>43695.33472222222</v>
+        <v>43695.334722222222</v>
       </c>
       <c r="F4">
         <v>1.5</v>
@@ -2903,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="J4">
-        <v>0.005674044265593481</v>
+        <v>5.6740442655934809E-3</v>
       </c>
       <c r="K4">
-        <v>0.9456740442655934</v>
+        <v>0.94567404426559343</v>
       </c>
       <c r="L4">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="M4">
         <v>7.28</v>
       </c>
       <c r="P4">
-        <v>0.3598187414281901</v>
+        <v>0.35981874142819009</v>
       </c>
       <c r="S4">
         <v>345</v>
@@ -2927,76 +3211,76 @@
         <v>1.77071398708435</v>
       </c>
       <c r="U4">
-        <v>0.3125235331367716</v>
+        <v>0.31252353313677161</v>
       </c>
       <c r="V4">
-        <v>2.749143504461035</v>
+        <v>2.7491435044610348</v>
       </c>
       <c r="W4">
-        <v>3.703455011454034</v>
+        <v>3.7034550114540341</v>
       </c>
       <c r="X4">
         <v>1.636620153790638</v>
       </c>
       <c r="Y4">
-        <v>3.33208589294927</v>
+        <v>3.3320858929492698</v>
       </c>
       <c r="Z4">
         <v>3.82474602984473</v>
       </c>
       <c r="AA4">
-        <v>4.31740616674019</v>
+        <v>4.3174061667401897</v>
       </c>
       <c r="AB4">
-        <v>0.524869532191318</v>
+        <v>0.52486953219131804</v>
       </c>
       <c r="AC4">
-        <v>23.97488057373394</v>
+        <v>23.974880573733941</v>
       </c>
       <c r="AD4">
-        <v>1.594671465883034</v>
+        <v>1.5946714658830341</v>
       </c>
       <c r="AE4">
         <v>1.047754658713991</v>
       </c>
       <c r="AF4">
-        <v>2.478780754725097</v>
+        <v>2.4787807547250971</v>
       </c>
       <c r="AG4">
-        <v>0.8246935829113131</v>
+        <v>0.82469358291131312</v>
       </c>
       <c r="AH4">
-        <v>1.618827798272651</v>
+        <v>1.6188277982726511</v>
       </c>
       <c r="AI4">
-        <v>6.890056079767729</v>
+        <v>6.8900560797677288</v>
       </c>
       <c r="AJ4">
-        <v>3.375327728825247</v>
+        <v>3.3753277288252468</v>
       </c>
       <c r="AK4">
-        <v>2.922703731197649</v>
+        <v>2.9227037311976489</v>
       </c>
       <c r="AL4">
-        <v>0.9589002110805647</v>
+        <v>0.95890021108056467</v>
       </c>
       <c r="AM4">
-        <v>2.560885674</v>
+        <v>2.5608856740000001</v>
       </c>
       <c r="AN4">
-        <v>0.7347058313039472</v>
+        <v>0.73470583130394718</v>
       </c>
       <c r="AO4">
-        <v>2.517391176672706</v>
+        <v>2.5173911766727062</v>
       </c>
       <c r="AP4">
-        <v>4.528929853688768</v>
+        <v>4.5289298536887683</v>
       </c>
       <c r="AQ4">
-        <v>3.285666435232008</v>
+        <v>3.2856664352320082</v>
       </c>
       <c r="AR4">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS4">
         <v>1.491780498628072</v>
@@ -3011,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV4">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW4">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX4">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY4">
         <v>400</v>
@@ -3029,7 +3313,7 @@
         <v>200</v>
       </c>
       <c r="CA4">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -3038,37 +3322,37 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG4">
         <v>16.68548916611951</v>
       </c>
       <c r="CH4">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI4">
         <v>0</v>
       </c>
       <c r="CJ4">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK4">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL4">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM4">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN4">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO4">
         <v>0</v>
@@ -3083,7 +3367,7 @@
         <v>1.60625</v>
       </c>
       <c r="DR4">
-        <v>38.55</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="DS4">
         <v>71.5</v>
@@ -3095,7 +3379,7 @@
         <v>20.27803333333333</v>
       </c>
       <c r="DW4">
-        <v>50.065</v>
+        <v>50.064999999999998</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -3104,148 +3388,148 @@
         <v>0.1282317221066219</v>
       </c>
       <c r="DZ4">
-        <v>-0.01705764257092608</v>
+        <v>-1.7057642570926079E-2</v>
       </c>
       <c r="EA4">
-        <v>-0.002716958792025821</v>
+        <v>-2.716958792025821E-3</v>
       </c>
       <c r="EB4">
-        <v>-0.003489653216569536</v>
+        <v>-3.4896532165695359E-3</v>
       </c>
       <c r="EC4">
-        <v>-0.009211588532546357</v>
+        <v>-9.2115885325463574E-3</v>
       </c>
       <c r="ED4">
-        <v>0.004655346928709953</v>
+        <v>4.655346928709953E-3</v>
       </c>
       <c r="EE4">
-        <v>0.255330607002503</v>
+        <v>0.25533060700250299</v>
       </c>
       <c r="EF4">
-        <v>0.05613494152152104</v>
+        <v>5.6134941521521042E-2</v>
       </c>
       <c r="EG4">
-        <v>-0.01827869114572979</v>
+        <v>-1.8278691145729789E-2</v>
       </c>
       <c r="EH4">
-        <v>-0.01054638510771011</v>
+        <v>-1.054638510771011E-2</v>
       </c>
       <c r="EI4">
-        <v>0.004329192104207166</v>
+        <v>4.3291921042071663E-3</v>
       </c>
       <c r="EJ4">
-        <v>-0.0008960557002332337</v>
+        <v>-8.9605570023323369E-4</v>
       </c>
       <c r="EK4">
-        <v>0.4970351008981387</v>
+        <v>0.49703510089813868</v>
       </c>
       <c r="EL4">
-        <v>0.001459483835962857</v>
+        <v>1.459483835962857E-3</v>
       </c>
       <c r="EM4">
-        <v>-4.063668669832053E-05</v>
+        <v>-4.063668669832053E-5</v>
       </c>
       <c r="EN4">
-        <v>0.001286612578403037</v>
+        <v>1.286612578403037E-3</v>
       </c>
       <c r="EO4">
-        <v>0.0698807375835</v>
+        <v>6.9880737583499997E-2</v>
       </c>
       <c r="EP4">
-        <v>0.0001647281289586928</v>
+        <v>1.6472812895869279E-4</v>
       </c>
       <c r="EQ4">
-        <v>-0.0005254502015698108</v>
+        <v>-5.2545020156981076E-4</v>
       </c>
       <c r="ER4">
-        <v>0.006570661916368748</v>
+        <v>6.5706619163687476E-3</v>
       </c>
       <c r="ES4">
-        <v>-0.009520760374659459</v>
+        <v>-9.5207603746594593E-3</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>-0.0001543510737946007</v>
+        <v>-1.5435107379460069E-4</v>
       </c>
       <c r="EV4">
-        <v>-0.001055660992655135</v>
+        <v>-1.0556609926551351E-3</v>
       </c>
       <c r="EW4">
         <v>0</v>
       </c>
       <c r="EX4">
-        <v>-0.01100609858518676</v>
+        <v>-1.1006098585186761E-2</v>
       </c>
       <c r="EY4">
-        <v>0.04181699642738716</v>
+        <v>4.1816996427387162E-2</v>
       </c>
       <c r="EZ4">
-        <v>0.189548517187222</v>
+        <v>0.18954851718722199</v>
       </c>
       <c r="FA4">
-        <v>0.3125235331367716</v>
+        <v>0.31252353313677161</v>
       </c>
       <c r="FB4">
-        <v>2.749143504461035</v>
+        <v>2.7491435044610348</v>
       </c>
       <c r="FC4">
-        <v>3.703455011454034</v>
+        <v>3.7034550114540341</v>
       </c>
       <c r="FD4">
         <v>1.636620153790638</v>
       </c>
       <c r="FE4">
-        <v>0.524869532191318</v>
+        <v>0.52486953219131804</v>
       </c>
       <c r="FF4">
-        <v>23.97488057373394</v>
+        <v>23.974880573733941</v>
       </c>
       <c r="FG4">
-        <v>1.594671465883034</v>
+        <v>1.5946714658830341</v>
       </c>
       <c r="FH4">
         <v>1.047754658713991</v>
       </c>
       <c r="FI4">
-        <v>2.478780754725097</v>
+        <v>2.4787807547250971</v>
       </c>
       <c r="FJ4">
-        <v>0.8246935829113131</v>
+        <v>0.82469358291131312</v>
       </c>
       <c r="FK4">
-        <v>1.618827798272651</v>
+        <v>1.6188277982726511</v>
       </c>
       <c r="FL4">
-        <v>6.890056079767729</v>
+        <v>6.8900560797677288</v>
       </c>
       <c r="FM4">
-        <v>3.375327728825247</v>
+        <v>3.3753277288252468</v>
       </c>
       <c r="FN4">
-        <v>2.922703731197649</v>
+        <v>2.9227037311976489</v>
       </c>
       <c r="FO4">
-        <v>0.9589002110805648</v>
+        <v>0.95890021108056478</v>
       </c>
       <c r="FP4">
-        <v>2.560885674</v>
+        <v>2.5608856740000001</v>
       </c>
       <c r="FQ4">
-        <v>0.7347058313039472</v>
+        <v>0.73470583130394718</v>
       </c>
       <c r="FR4">
-        <v>2.517391176672706</v>
+        <v>2.5173911766727062</v>
       </c>
       <c r="FS4">
-        <v>4.528929853688768</v>
+        <v>4.5289298536887683</v>
       </c>
       <c r="FT4">
-        <v>3.285666435232008</v>
+        <v>3.2856664352320082</v>
       </c>
       <c r="FU4">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="FV4">
         <v>1.491780498628072</v>
@@ -3260,220 +3544,220 @@
         <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.3598187414281901</v>
+        <v>0.35981874142819009</v>
       </c>
       <c r="GB4">
-        <v>0.03662127346337873</v>
+        <v>3.6621273463378727E-2</v>
       </c>
       <c r="GC4">
-        <v>0.0366396114088007</v>
+        <v>3.6639611408800697E-2</v>
       </c>
       <c r="GD4">
-        <v>1.833794542196907E-05</v>
+        <v>1.8337945421969069E-5</v>
       </c>
       <c r="GE4">
-        <v>0.06320690409370512</v>
+        <v>6.3206904093705121E-2</v>
       </c>
       <c r="GF4">
-        <v>-0.01072596465713468</v>
+        <v>-1.0725964657134679E-2</v>
       </c>
       <c r="GG4">
-        <v>-0.001861377674809137</v>
+        <v>-1.861377674809137E-3</v>
       </c>
       <c r="GH4">
-        <v>-0.0008904055066817698</v>
+        <v>-8.9040550668176982E-4</v>
       </c>
       <c r="GI4">
-        <v>-0.005474010517423744</v>
+        <v>-5.4740105174237441E-3</v>
       </c>
       <c r="GJ4">
-        <v>0.002601709173274114</v>
+        <v>2.601709173274114E-3</v>
       </c>
       <c r="GK4">
-        <v>0.1335725680166698</v>
+        <v>0.13357256801666981</v>
       </c>
       <c r="GL4">
-        <v>0.03477094462211282</v>
+        <v>3.4770944622112818E-2</v>
       </c>
       <c r="GM4">
-        <v>-0.01345553387356275</v>
+        <v>-1.345553387356275E-2</v>
       </c>
       <c r="GN4">
-        <v>-0.008137065389265128</v>
+        <v>-8.1370653892651277E-3</v>
       </c>
       <c r="GO4">
-        <v>0.003659880167133857</v>
+        <v>3.659880167133857E-3</v>
       </c>
       <c r="GP4">
-        <v>-0.0006887403321075696</v>
+        <v>-6.887403321075696E-4</v>
       </c>
       <c r="GQ4">
         <v>0.3643106934673922</v>
       </c>
       <c r="GR4">
-        <v>0.0003639592138630594</v>
+        <v>3.6395921386305939E-4</v>
       </c>
       <c r="GS4">
-        <v>0.001765402442912974</v>
+        <v>1.765402442912974E-3</v>
       </c>
       <c r="GT4">
-        <v>0.0009046924484960191</v>
+        <v>9.046924484960191E-4</v>
       </c>
       <c r="GU4">
-        <v>0.04230055861244021</v>
+        <v>4.2300558612440212E-2</v>
       </c>
       <c r="GV4">
-        <v>0.0007151743638304595</v>
+        <v>7.1517436383045953E-4</v>
       </c>
       <c r="GW4">
-        <v>-0.0003662945954042891</v>
+        <v>-3.662945954042891E-4</v>
       </c>
       <c r="GX4">
-        <v>0.006208844224553158</v>
+        <v>6.208844224553158E-3</v>
       </c>
       <c r="GY4">
-        <v>-0.005814228064714442</v>
+        <v>-5.8142280647144424E-3</v>
       </c>
       <c r="GZ4">
         <v>0</v>
       </c>
       <c r="HA4">
-        <v>0.004363042809817383</v>
+        <v>4.3630428098173834E-3</v>
       </c>
       <c r="HB4">
-        <v>-0.0002772820564137291</v>
+        <v>-2.7728205641372911E-4</v>
       </c>
       <c r="HC4">
         <v>0</v>
       </c>
       <c r="HD4">
-        <v>0.08734487427910115</v>
+        <v>8.7344874279101148E-2</v>
       </c>
       <c r="HE4">
-        <v>0.1403713975486761</v>
+        <v>0.14037139754867611</v>
       </c>
       <c r="HF4">
         <v>0.1100915167990201</v>
       </c>
       <c r="HG4">
-        <v>0.2930543785726383</v>
+        <v>0.29305437857263827</v>
       </c>
       <c r="HH4">
-        <v>2.727436470502884</v>
+        <v>2.7274364705028842</v>
       </c>
       <c r="HI4">
         <v>2.693807169921933</v>
       </c>
       <c r="HJ4">
-        <v>0.2603150118201922</v>
+        <v>0.26031501182019218</v>
       </c>
       <c r="HK4">
-        <v>1.216549020228196</v>
+        <v>1.2165490202281961</v>
       </c>
       <c r="HM4">
-        <v>0.3598187414281901</v>
+        <v>0.35981874142819009</v>
       </c>
       <c r="HN4">
-        <v>0.1600866078923426</v>
+        <v>0.16008660789234261</v>
       </c>
       <c r="HO4">
-        <v>-0.02293708228919545</v>
+        <v>-2.293708228919545E-2</v>
       </c>
       <c r="HP4">
-        <v>0.00195654882956151</v>
+        <v>1.95654882956151E-3</v>
       </c>
       <c r="HQ4">
-        <v>0.01016028693261706</v>
+        <v>1.0160286932617059E-2</v>
       </c>
       <c r="HR4">
-        <v>-0.0004289438399763833</v>
+        <v>-4.2894383997638331E-4</v>
       </c>
       <c r="HS4">
-        <v>0.00335411097753875</v>
+        <v>3.35411097753875E-3</v>
       </c>
       <c r="HT4">
-        <v>0.1682033084562337</v>
+        <v>0.16820330845623371</v>
       </c>
       <c r="HU4">
-        <v>0.0323272270022053</v>
+        <v>3.2327227002205298E-2</v>
       </c>
       <c r="HV4">
-        <v>-0.008788224942734051</v>
+        <v>-8.7882249427340513E-3</v>
       </c>
       <c r="HW4">
-        <v>-0.004249875982562734</v>
+        <v>-4.2498759825627336E-3</v>
       </c>
       <c r="HX4">
-        <v>0.002287395351674798</v>
+        <v>2.287395351674798E-3</v>
       </c>
       <c r="HY4">
-        <v>0.00125671155500227</v>
+        <v>1.25671155500227E-3</v>
       </c>
       <c r="HZ4">
-        <v>0.3678176780192103</v>
+        <v>0.36781767801921028</v>
       </c>
       <c r="IA4">
-        <v>0.004370633819158114</v>
+        <v>4.3706338191581142E-3</v>
       </c>
       <c r="IB4">
-        <v>0.003407712133336722</v>
+        <v>3.4077121333367221E-3</v>
       </c>
       <c r="IC4">
-        <v>0.001646224628872978</v>
+        <v>1.6462246288729779E-3</v>
       </c>
       <c r="ID4">
-        <v>0.04555064881375004</v>
+        <v>4.5550648813750039E-2</v>
       </c>
       <c r="IE4">
-        <v>0.001993999480894507</v>
+        <v>1.9939994808945071E-3</v>
       </c>
       <c r="IF4">
-        <v>0.001721774693462055</v>
+        <v>1.7217746934620551E-3</v>
       </c>
       <c r="IG4">
-        <v>0.0134279124565788</v>
+        <v>1.3427912456578799E-2</v>
       </c>
       <c r="IH4">
-        <v>-0.002063350901414081</v>
+        <v>-2.0633509014140808E-3</v>
       </c>
       <c r="II4">
-        <v>0.0004325894021220696</v>
+        <v>4.3258940212206963E-4</v>
       </c>
       <c r="IJ4">
-        <v>0.0008508439855471513</v>
+        <v>8.5084398554715127E-4</v>
       </c>
       <c r="IK4">
-        <v>0.002403419372554796</v>
+        <v>2.403419372554796E-3</v>
       </c>
       <c r="IL4">
         <v>0</v>
       </c>
       <c r="IM4">
-        <v>0.1450202247391874</v>
+        <v>0.14502022473918741</v>
       </c>
       <c r="IN4">
-        <v>0.2135079558421329</v>
+        <v>0.21350795584213289</v>
       </c>
       <c r="IO4">
-        <v>0.2673294358778326</v>
+        <v>0.26732943587783259</v>
       </c>
       <c r="IP4">
         <v>0.3985507383897765</v>
       </c>
       <c r="IQ4">
-        <v>2.186744609217458</v>
+        <v>2.1867446092174578</v>
       </c>
       <c r="IR4">
         <v>2.139189441222046</v>
       </c>
       <c r="IS4">
-        <v>0.1921913861201892</v>
+        <v>0.19219138612018921</v>
       </c>
       <c r="IT4">
         <v>1.308511819141015</v>
       </c>
     </row>
-    <row r="5" spans="1:254">
+    <row r="5" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>249</v>
       </c>
@@ -3484,10 +3768,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>43695.71111111111</v>
+        <v>43695.711111111108</v>
       </c>
       <c r="E5" s="2">
-        <v>43695.71111111111</v>
+        <v>43695.711111111108</v>
       </c>
       <c r="F5">
         <v>1.5</v>
@@ -3502,7 +3786,7 @@
         <v>1.43</v>
       </c>
       <c r="J5">
-        <v>0.01153225806451608</v>
+        <v>1.153225806451608E-2</v>
       </c>
       <c r="K5">
         <v>1.441532258064516</v>
@@ -3514,16 +3798,16 @@
         <v>7.17</v>
       </c>
       <c r="P5">
-        <v>0.3336307499738386</v>
+        <v>0.33363074997383863</v>
       </c>
       <c r="S5">
         <v>348</v>
       </c>
       <c r="T5">
-        <v>2.715686465897645</v>
+        <v>2.7156864658976452</v>
       </c>
       <c r="U5">
-        <v>0.4284859523436912</v>
+        <v>0.42848595234369119</v>
       </c>
       <c r="V5">
         <v>2.731908387302282</v>
@@ -3535,19 +3819,19 @@
         <v>1.668991192354575</v>
       </c>
       <c r="Y5">
-        <v>3.29565712830135</v>
+        <v>3.2956571283013498</v>
       </c>
       <c r="Z5">
-        <v>3.76279964399811</v>
+        <v>3.7627996439981102</v>
       </c>
       <c r="AA5">
-        <v>4.22994215969487</v>
+        <v>4.2299421596948701</v>
       </c>
       <c r="AB5">
-        <v>0.5038642203501693</v>
+        <v>0.50386422035016931</v>
       </c>
       <c r="AC5">
-        <v>21.46601273849272</v>
+        <v>21.466012738492719</v>
       </c>
       <c r="AD5">
         <v>1.275136758162088</v>
@@ -3559,46 +3843,46 @@
         <v>2.537515317546541</v>
       </c>
       <c r="AG5">
-        <v>0.807907273426146</v>
+        <v>0.80790727342614599</v>
       </c>
       <c r="AH5">
         <v>1.609321914190269</v>
       </c>
       <c r="AI5">
-        <v>8.936311556354363</v>
+        <v>8.9363115563543634</v>
       </c>
       <c r="AJ5">
-        <v>3.350165002554282</v>
+        <v>3.3501650025542822</v>
       </c>
       <c r="AK5">
-        <v>2.929565481224117</v>
+        <v>2.9295654812241172</v>
       </c>
       <c r="AL5">
         <v>0.9631056372784309</v>
       </c>
       <c r="AM5">
-        <v>3.19340625</v>
+        <v>3.1934062499999998</v>
       </c>
       <c r="AN5">
-        <v>0.731026470395704</v>
+        <v>0.73102647039570401</v>
       </c>
       <c r="AO5">
-        <v>2.513686932038069</v>
+        <v>2.5136869320380688</v>
       </c>
       <c r="AP5">
-        <v>4.443186156143841</v>
+        <v>4.4431861561438408</v>
       </c>
       <c r="AQ5">
         <v>3.325389415066704</v>
       </c>
       <c r="AR5">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS5">
-        <v>1.532946930592174</v>
+        <v>1.5329469305921739</v>
       </c>
       <c r="AT5">
-        <v>1.83988750713766</v>
+        <v>1.8398875071376599</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3607,16 +3891,16 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV5">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW5">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX5">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY5">
         <v>400</v>
@@ -3625,7 +3909,7 @@
         <v>200</v>
       </c>
       <c r="CA5">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -3634,37 +3918,37 @@
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE5">
         <v>0</v>
       </c>
       <c r="CF5">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG5">
         <v>16.68548916611951</v>
       </c>
       <c r="CH5">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI5">
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK5">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL5">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM5">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN5">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO5">
         <v>0</v>
@@ -3676,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="DQ5">
-        <v>1.982638888888889</v>
+        <v>1.9826388888888891</v>
       </c>
       <c r="DR5">
-        <v>47.58333333333334</v>
+        <v>47.583333333333343</v>
       </c>
       <c r="DS5">
         <v>70</v>
@@ -3691,97 +3975,97 @@
         <v>30.98253333333334</v>
       </c>
       <c r="DW5">
-        <v>84.36499999999999</v>
+        <v>84.364999999999995</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.1943797956235526</v>
+        <v>0.19437979562355259</v>
       </c>
       <c r="DZ5">
-        <v>-0.02517501191541046</v>
+        <v>-2.517501191541046E-2</v>
       </c>
       <c r="EA5">
-        <v>-0.001510500590913097</v>
+        <v>-1.510500590913097E-3</v>
       </c>
       <c r="EB5">
-        <v>-0.001975050111393898</v>
+        <v>-1.9750501113938979E-3</v>
       </c>
       <c r="EC5">
-        <v>-0.01147756123202201</v>
+        <v>-1.147756123202201E-2</v>
       </c>
       <c r="ED5">
-        <v>0.006125718757590362</v>
+        <v>6.1257187575903616E-3</v>
       </c>
       <c r="EE5">
-        <v>0.4309513554693886</v>
+        <v>0.43095135546938862</v>
       </c>
       <c r="EF5">
-        <v>0.07850237106198724</v>
+        <v>7.8502371061987236E-2</v>
       </c>
       <c r="EG5">
-        <v>-0.02595467248299337</v>
+        <v>-2.5954672482993369E-2</v>
       </c>
       <c r="EH5">
-        <v>-0.01465780450521117</v>
+        <v>-1.465780450521117E-2</v>
       </c>
       <c r="EI5">
-        <v>0.005504233768168866</v>
+        <v>5.5042337681688661E-3</v>
       </c>
       <c r="EJ5">
-        <v>-0.0002306438144665038</v>
+        <v>-2.3064381446650381E-4</v>
       </c>
       <c r="EK5">
         <v>0.6402729842592032</v>
       </c>
       <c r="EL5">
-        <v>0.003220874674930371</v>
+        <v>3.220874674930371E-3</v>
       </c>
       <c r="EM5">
-        <v>-0.0005209591885510747</v>
+        <v>-5.2095918855107469E-4</v>
       </c>
       <c r="EN5">
-        <v>0.0009922327445524102</v>
+        <v>9.9223274455241019E-4</v>
       </c>
       <c r="EO5">
         <v>0.1141571779035</v>
       </c>
       <c r="EP5">
-        <v>0.0004222833925357108</v>
+        <v>4.2228339253571083E-4</v>
       </c>
       <c r="EQ5">
-        <v>-0.0002661530771452475</v>
+        <v>-2.6615307714524748E-4</v>
       </c>
       <c r="ER5">
-        <v>0.01257272074451367</v>
+        <v>1.257272074451367E-2</v>
       </c>
       <c r="ES5">
-        <v>-0.01230136896308818</v>
+        <v>-1.230136896308818E-2</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>-0.003036001311281766</v>
+        <v>-3.036001311281766E-3</v>
       </c>
       <c r="EV5">
-        <v>-0.0004204657735582772</v>
+        <v>-4.2046577355827719E-4</v>
       </c>
       <c r="EW5">
         <v>0</v>
       </c>
       <c r="EX5">
-        <v>-0.01573388944202533</v>
+        <v>-1.573388944202533E-2</v>
       </c>
       <c r="EY5">
-        <v>0.07324827654606418</v>
+        <v>7.3248276546064181E-2</v>
       </c>
       <c r="EZ5">
-        <v>0.2971871104793865</v>
+        <v>0.29718711047938651</v>
       </c>
       <c r="FA5">
-        <v>0.4284859523436912</v>
+        <v>0.42848595234369119</v>
       </c>
       <c r="FB5">
         <v>2.731908387302282</v>
@@ -3793,10 +4077,10 @@
         <v>1.668991192354575</v>
       </c>
       <c r="FE5">
-        <v>0.5038642203501693</v>
+        <v>0.50386422035016931</v>
       </c>
       <c r="FF5">
-        <v>21.46601273849272</v>
+        <v>21.466012738492719</v>
       </c>
       <c r="FG5">
         <v>1.275136758162088</v>
@@ -3808,46 +4092,46 @@
         <v>2.537515317546541</v>
       </c>
       <c r="FJ5">
-        <v>0.807907273426146</v>
+        <v>0.80790727342614599</v>
       </c>
       <c r="FK5">
         <v>1.609321914190269</v>
       </c>
       <c r="FL5">
-        <v>8.936311556354363</v>
+        <v>8.9363115563543634</v>
       </c>
       <c r="FM5">
-        <v>3.350165002554282</v>
+        <v>3.3501650025542822</v>
       </c>
       <c r="FN5">
-        <v>2.929565481224117</v>
+        <v>2.9295654812241172</v>
       </c>
       <c r="FO5">
-        <v>0.9631056372784308</v>
+        <v>0.96310563727843079</v>
       </c>
       <c r="FP5">
-        <v>3.19340625</v>
+        <v>3.1934062499999998</v>
       </c>
       <c r="FQ5">
-        <v>0.731026470395704</v>
+        <v>0.73102647039570401</v>
       </c>
       <c r="FR5">
-        <v>2.513686932038069</v>
+        <v>2.5136869320380688</v>
       </c>
       <c r="FS5">
-        <v>4.443186156143841</v>
+        <v>4.4431861561438408</v>
       </c>
       <c r="FT5">
         <v>3.325389415066704</v>
       </c>
       <c r="FU5">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="FV5">
-        <v>1.532946930592174</v>
+        <v>1.5329469305921739</v>
       </c>
       <c r="FW5">
-        <v>1.83988750713766</v>
+        <v>1.8398875071376599</v>
       </c>
       <c r="FX5">
         <v>0</v>
@@ -3856,190 +4140,190 @@
         <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.3336307499738386</v>
+        <v>0.33363074997383863</v>
       </c>
       <c r="GB5">
-        <v>0.04577514129571673</v>
+        <v>4.5775141295716727E-2</v>
       </c>
       <c r="GC5">
-        <v>0.04632240775364775</v>
+        <v>4.6322407753647751E-2</v>
       </c>
       <c r="GD5">
-        <v>0.0005472664579310191</v>
+        <v>5.4726645793101909E-4</v>
       </c>
       <c r="GE5">
-        <v>0.08827805864947404</v>
+        <v>8.8278058649474037E-2</v>
       </c>
       <c r="GF5">
-        <v>-0.01083305331467323</v>
+        <v>-1.0833053314673231E-2</v>
       </c>
       <c r="GG5">
-        <v>0.001610081475898286</v>
+        <v>1.610081475898286E-3</v>
       </c>
       <c r="GH5">
-        <v>0.002021316943042162</v>
+        <v>2.0213169430421622E-3</v>
       </c>
       <c r="GI5">
-        <v>-0.003024058906435415</v>
+        <v>-3.024058906435415E-3</v>
       </c>
       <c r="GJ5">
-        <v>0.001962287994875865</v>
+        <v>1.9622879948758649E-3</v>
       </c>
       <c r="GK5">
-        <v>0.2343750605111141</v>
+        <v>0.23437506051111409</v>
       </c>
       <c r="GL5">
-        <v>0.02985050284655477</v>
+        <v>2.9850502846554772E-2</v>
       </c>
       <c r="GM5">
-        <v>-0.01024399796782872</v>
+        <v>-1.0243997967828719E-2</v>
       </c>
       <c r="GN5">
-        <v>-0.005486903902232125</v>
+        <v>-5.4869039022321254E-3</v>
       </c>
       <c r="GO5">
-        <v>0.001568154466361543</v>
+        <v>1.5681544663615429E-3</v>
       </c>
       <c r="GP5">
-        <v>0.0008880269122688452</v>
+        <v>8.8802691226884519E-4</v>
       </c>
       <c r="GQ5">
-        <v>0.1911584358528315</v>
+        <v>0.19115843585283149</v>
       </c>
       <c r="GR5">
-        <v>0.002350668062120088</v>
+        <v>2.3506680621200879E-3</v>
       </c>
       <c r="GS5">
-        <v>-0.0006410154632601162</v>
+        <v>-6.4101546326011624E-4</v>
       </c>
       <c r="GT5">
-        <v>-0.0003928652620735297</v>
+        <v>-3.9286526207352971E-4</v>
       </c>
       <c r="GU5">
-        <v>0.05908922191601657</v>
+        <v>5.9089221916016572E-2</v>
       </c>
       <c r="GV5">
-        <v>0.0003437209499036024</v>
+        <v>3.4372094990360239E-4</v>
       </c>
       <c r="GW5">
-        <v>0.0003460455541722281</v>
+        <v>3.4604555417222808E-4</v>
       </c>
       <c r="GX5">
-        <v>0.00801006095986991</v>
+        <v>8.0100609598699104E-3</v>
       </c>
       <c r="GY5">
-        <v>-0.003710867376775747</v>
+        <v>-3.710867376775747E-3</v>
       </c>
       <c r="GZ5">
         <v>0</v>
       </c>
       <c r="HA5">
-        <v>-0.003845712734280194</v>
+        <v>-3.8457127342801942E-3</v>
       </c>
       <c r="HB5">
-        <v>0.0008477011925516736</v>
+        <v>8.4770119255167357E-4</v>
       </c>
       <c r="HC5">
         <v>0</v>
       </c>
       <c r="HD5">
-        <v>0.1099066720328312</v>
+        <v>0.10990667203283121</v>
       </c>
       <c r="HE5">
         <v>0.179828947263521</v>
       </c>
       <c r="HF5">
-        <v>0.07865100421752963</v>
+        <v>7.865100421752963E-2</v>
       </c>
       <c r="HG5">
-        <v>0.2407055006364519</v>
+        <v>0.24070550063645191</v>
       </c>
       <c r="HH5">
-        <v>0.8156091157308383</v>
+        <v>0.81560911573083827</v>
       </c>
       <c r="HI5">
-        <v>1.423490832370443</v>
+        <v>1.4234908323704429</v>
       </c>
       <c r="HJ5">
-        <v>0.1273621125961875</v>
+        <v>0.12736211259618749</v>
       </c>
       <c r="HK5">
         <v>1.979505076338653</v>
       </c>
       <c r="HM5">
-        <v>0.3336307499738386</v>
+        <v>0.33363074997383863</v>
       </c>
       <c r="HN5">
-        <v>0.18815655703203</v>
+        <v>0.18815655703202999</v>
       </c>
       <c r="HO5">
-        <v>-0.0246169298140742</v>
+        <v>-2.46169298140742E-2</v>
       </c>
       <c r="HP5">
-        <v>0.002698430826420127</v>
+        <v>2.6984308264201271E-3</v>
       </c>
       <c r="HQ5">
-        <v>0.01284510163000712</v>
+        <v>1.2845101630007121E-2</v>
       </c>
       <c r="HR5">
-        <v>0.002110240486258131</v>
+        <v>2.1102404862581312E-3</v>
       </c>
       <c r="HS5">
-        <v>0.003107850357080715</v>
+        <v>3.1078503570807149E-3</v>
       </c>
       <c r="HT5">
-        <v>0.133660295665238</v>
+        <v>0.13366029566523799</v>
       </c>
       <c r="HU5">
-        <v>0.02317406851226807</v>
+        <v>2.3174068512268071E-2</v>
       </c>
       <c r="HV5">
-        <v>-0.003770719421183279</v>
+        <v>-3.7707194211832789E-3</v>
       </c>
       <c r="HW5">
-        <v>-0.001675434195711669</v>
+        <v>-1.675434195711669E-3</v>
       </c>
       <c r="HX5">
-        <v>0.001326348438567131</v>
+        <v>1.3263484385671309E-3</v>
       </c>
       <c r="HY5">
-        <v>0.002531240402732515</v>
+        <v>2.531240402732515E-3</v>
       </c>
       <c r="HZ5">
-        <v>0.2368751081177262</v>
+        <v>0.23687510811772619</v>
       </c>
       <c r="IA5">
-        <v>0.006147837966037689</v>
+        <v>6.1478379660376888E-3</v>
       </c>
       <c r="IB5">
-        <v>0.004254653702946818</v>
+        <v>4.2546537029468177E-3</v>
       </c>
       <c r="IC5">
-        <v>0.001926772244773939</v>
+        <v>1.926772244773939E-3</v>
       </c>
       <c r="ID5">
-        <v>0.03219105181434205</v>
+        <v>3.219105181434205E-2</v>
       </c>
       <c r="IE5">
-        <v>0.002270176649086131</v>
+        <v>2.2701766490861308E-3</v>
       </c>
       <c r="IF5">
-        <v>0.002579979198637105</v>
+        <v>2.5799791986371051E-3</v>
       </c>
       <c r="IG5">
-        <v>0.01172128699219843</v>
+        <v>1.172128699219843E-2</v>
       </c>
       <c r="IH5">
-        <v>-5.638123606566241E-05</v>
+        <v>-5.6381236065662407E-5</v>
       </c>
       <c r="II5">
-        <v>0.0006423387746028109</v>
+        <v>6.4233877460281093E-4</v>
       </c>
       <c r="IJ5">
-        <v>0.001351702244069408</v>
+        <v>1.3517022440694079E-3</v>
       </c>
       <c r="IK5">
-        <v>0.003330195214243551</v>
+        <v>3.3301952142435511E-3</v>
       </c>
       <c r="IL5">
         <v>0</v>
@@ -4048,28 +4332,28 @@
         <v>0.1351116239888536</v>
       </c>
       <c r="IN5">
-        <v>0.1919196056172698</v>
+        <v>0.19191960561726981</v>
       </c>
       <c r="IO5">
-        <v>0.3093239607069657</v>
+        <v>0.30932396070696572</v>
       </c>
       <c r="IP5">
-        <v>0.4056047405907908</v>
+        <v>0.40560474059079082</v>
       </c>
       <c r="IQ5">
-        <v>1.772217448261504</v>
+        <v>1.7722174482615041</v>
       </c>
       <c r="IR5">
-        <v>2.496109621135668</v>
+        <v>2.4961096211356679</v>
       </c>
       <c r="IS5">
-        <v>0.17338034752152</v>
+        <v>0.17338034752152001</v>
       </c>
       <c r="IT5">
-        <v>2.54979922428103</v>
+        <v>2.5497992242810299</v>
       </c>
     </row>
-    <row r="6" spans="1:254">
+    <row r="6" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -4080,10 +4364,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>43696.33888888889</v>
+        <v>43696.338888888888</v>
       </c>
       <c r="E6" s="2">
-        <v>43696.33888888889</v>
+        <v>43696.338888888888</v>
       </c>
       <c r="F6">
         <v>1.5</v>
@@ -4098,31 +4382,31 @@
         <v>3.11</v>
       </c>
       <c r="J6">
-        <v>0.07647540983606582</v>
+        <v>7.6475409836065822E-2</v>
       </c>
       <c r="K6">
-        <v>3.186475409836066</v>
+        <v>3.1864754098360661</v>
       </c>
       <c r="L6">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="M6">
         <v>6.88</v>
       </c>
       <c r="P6">
-        <v>0.3284947460515185</v>
+        <v>0.32849474605151852</v>
       </c>
       <c r="S6">
         <v>344</v>
       </c>
       <c r="T6">
-        <v>4.354811693609742</v>
+        <v>4.3548116936097419</v>
       </c>
       <c r="U6">
-        <v>0.7049024414419692</v>
+        <v>0.70490244144196923</v>
       </c>
       <c r="V6">
-        <v>2.698143613783179</v>
+        <v>2.6981436137831789</v>
       </c>
       <c r="W6">
         <v>3.63586441760649</v>
@@ -4131,31 +4415,31 @@
         <v>1.737146476261096</v>
       </c>
       <c r="Y6">
-        <v>3.20262746434336</v>
+        <v>3.2026274643433599</v>
       </c>
       <c r="Z6">
-        <v>3.60607275517142</v>
+        <v>3.6060727551714198</v>
       </c>
       <c r="AA6">
-        <v>4.00951804599949</v>
+        <v>4.0095180459994904</v>
       </c>
       <c r="AB6">
-        <v>0.4727360613358835</v>
+        <v>0.47273606133588347</v>
       </c>
       <c r="AC6">
         <v>17.37694175384356</v>
       </c>
       <c r="AD6">
-        <v>0.7033069188419471</v>
+        <v>0.70330691884194707</v>
       </c>
       <c r="AE6">
-        <v>1.338816732450501</v>
+        <v>1.3388167324505009</v>
       </c>
       <c r="AF6">
         <v>2.633448909004672</v>
       </c>
       <c r="AG6">
-        <v>0.7488431811494409</v>
+        <v>0.74884318114944093</v>
       </c>
       <c r="AH6">
         <v>1.615084805215143</v>
@@ -4164,37 +4448,37 @@
         <v>16.14350176996858</v>
       </c>
       <c r="AJ6">
-        <v>3.295428084932975</v>
+        <v>3.2954280849329751</v>
       </c>
       <c r="AK6">
-        <v>2.900850163454341</v>
+        <v>2.9008501634543409</v>
       </c>
       <c r="AL6">
-        <v>0.9349578616490555</v>
+        <v>0.93495786164905548</v>
       </c>
       <c r="AM6">
-        <v>4.123119173</v>
+        <v>4.1231191730000001</v>
       </c>
       <c r="AN6">
-        <v>0.7073800231692183</v>
+        <v>0.70738002316921833</v>
       </c>
       <c r="AO6">
-        <v>2.512063230245995</v>
+        <v>2.5120632302459951</v>
       </c>
       <c r="AP6">
-        <v>4.2106008756779</v>
+        <v>4.2106008756779003</v>
       </c>
       <c r="AQ6">
-        <v>3.310525922544955</v>
+        <v>3.3105259225449548</v>
       </c>
       <c r="AR6">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS6">
-        <v>1.500045787701909</v>
+        <v>1.5000457877019091</v>
       </c>
       <c r="AT6">
-        <v>1.815851552667273</v>
+        <v>1.8158515526672729</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -4203,16 +4487,16 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV6">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW6">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX6">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY6">
         <v>400</v>
@@ -4221,7 +4505,7 @@
         <v>200</v>
       </c>
       <c r="CA6">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB6">
         <v>0</v>
@@ -4230,37 +4514,37 @@
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE6">
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG6">
         <v>16.68548916611951</v>
       </c>
       <c r="CH6">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI6">
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK6">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL6">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM6">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN6">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO6">
         <v>0</v>
@@ -4272,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="DQ6">
-        <v>2.610416666666667</v>
+        <v>2.6104166666666671</v>
       </c>
       <c r="DR6">
         <v>62.65</v>
@@ -4287,28 +4571,28 @@
         <v>65.18386666666666</v>
       </c>
       <c r="DW6">
-        <v>199.445</v>
+        <v>199.44499999999999</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.3066598737218312</v>
+        <v>0.30665987372183118</v>
       </c>
       <c r="DZ6">
-        <v>-0.0441095414186425</v>
+        <v>-4.4109541418642498E-2</v>
       </c>
       <c r="EA6">
-        <v>0.0008023863951454754</v>
+        <v>8.0238639514547535E-4</v>
       </c>
       <c r="EB6">
-        <v>0.001172758242812477</v>
+        <v>1.172758242812477E-3</v>
       </c>
       <c r="EC6">
-        <v>-0.01614619817961864</v>
+        <v>-1.614619817961864E-2</v>
       </c>
       <c r="ED6">
-        <v>0.008257997650068943</v>
+        <v>8.2579976500689427E-3</v>
       </c>
       <c r="EE6">
         <v>0.7110527179178564</v>
@@ -4317,70 +4601,70 @@
         <v>0.1176727150554169</v>
       </c>
       <c r="EG6">
-        <v>-0.03838092851105063</v>
+        <v>-3.8380928511050627E-2</v>
       </c>
       <c r="EH6">
-        <v>-0.02122925552009318</v>
+        <v>-2.1229255520093179E-2</v>
       </c>
       <c r="EI6">
-        <v>0.009550124089123166</v>
+        <v>9.5501240891231656E-3</v>
       </c>
       <c r="EJ6">
-        <v>-0.0006254018496703396</v>
+        <v>-6.2540184967033955E-4</v>
       </c>
       <c r="EK6">
         <v>1.133965513891777</v>
       </c>
       <c r="EL6">
-        <v>0.0069703535319899</v>
+        <v>6.9703535319899004E-3</v>
       </c>
       <c r="EM6">
-        <v>0.001446040078678607</v>
+        <v>1.446040078678607E-3</v>
       </c>
       <c r="EN6">
-        <v>0.002920355375164618</v>
+        <v>2.920355375164618E-3</v>
       </c>
       <c r="EO6">
-        <v>0.177842513129</v>
+        <v>0.17784251312900001</v>
       </c>
       <c r="EP6">
-        <v>0.002042065027549981</v>
+        <v>2.042065027549981E-3</v>
       </c>
       <c r="EQ6">
-        <v>-0.0001549295043881784</v>
+        <v>-1.5492950438817841E-4</v>
       </c>
       <c r="ER6">
-        <v>0.02850481245643061</v>
+        <v>2.8504812456430609E-2</v>
       </c>
       <c r="ES6">
-        <v>-0.0112832197253484</v>
+        <v>-1.12832197253484E-2</v>
       </c>
       <c r="ET6">
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>-0.0007822730232986291</v>
+        <v>-7.8227302329862908E-4</v>
       </c>
       <c r="EV6">
-        <v>0.001225997107663218</v>
+        <v>1.2259971076632179E-3</v>
       </c>
       <c r="EW6">
         <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.02006826253959311</v>
+        <v>2.006826253959311E-2</v>
       </c>
       <c r="EY6">
         <v>0.1538012342499506</v>
       </c>
       <c r="EZ6">
-        <v>0.656521086960721</v>
+        <v>0.65652108696072098</v>
       </c>
       <c r="FA6">
-        <v>0.7049024414419692</v>
+        <v>0.70490244144196923</v>
       </c>
       <c r="FB6">
-        <v>2.698143613783179</v>
+        <v>2.6981436137831789</v>
       </c>
       <c r="FC6">
         <v>3.63586441760649</v>
@@ -4389,22 +4673,22 @@
         <v>1.737146476261096</v>
       </c>
       <c r="FE6">
-        <v>0.4727360613358835</v>
+        <v>0.47273606133588347</v>
       </c>
       <c r="FF6">
         <v>17.37694175384356</v>
       </c>
       <c r="FG6">
-        <v>0.7033069188419471</v>
+        <v>0.70330691884194707</v>
       </c>
       <c r="FH6">
-        <v>1.338816732450501</v>
+        <v>1.3388167324505009</v>
       </c>
       <c r="FI6">
         <v>2.633448909004672</v>
       </c>
       <c r="FJ6">
-        <v>0.7488431811494409</v>
+        <v>0.74884318114944093</v>
       </c>
       <c r="FK6">
         <v>1.615084805215143</v>
@@ -4413,37 +4697,37 @@
         <v>16.14350176996858</v>
       </c>
       <c r="FM6">
-        <v>3.295428084932975</v>
+        <v>3.2954280849329751</v>
       </c>
       <c r="FN6">
-        <v>2.900850163454341</v>
+        <v>2.9008501634543409</v>
       </c>
       <c r="FO6">
-        <v>0.9349578616490555</v>
+        <v>0.93495786164905548</v>
       </c>
       <c r="FP6">
-        <v>4.123119173</v>
+        <v>4.1231191730000001</v>
       </c>
       <c r="FQ6">
-        <v>0.7073800231692183</v>
+        <v>0.70738002316921833</v>
       </c>
       <c r="FR6">
-        <v>2.512063230245995</v>
+        <v>2.5120632302459951</v>
       </c>
       <c r="FS6">
-        <v>4.2106008756779</v>
+        <v>4.2106008756779003</v>
       </c>
       <c r="FT6">
-        <v>3.310525922544955</v>
+        <v>3.3105259225449548</v>
       </c>
       <c r="FU6">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="FV6">
-        <v>1.500045787701909</v>
+        <v>1.5000457877019091</v>
       </c>
       <c r="FW6">
-        <v>1.815851552667273</v>
+        <v>1.8158515526672729</v>
       </c>
       <c r="FX6">
         <v>0</v>
@@ -4452,94 +4736,94 @@
         <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.3284947460515185</v>
+        <v>0.32849474605151852</v>
       </c>
       <c r="GB6">
-        <v>0.04912089197302251</v>
+        <v>4.912089197302251E-2</v>
       </c>
       <c r="GC6">
-        <v>0.05101974051025936</v>
+        <v>5.1019740510259363E-2</v>
       </c>
       <c r="GD6">
-        <v>0.001898848537236845</v>
+        <v>1.8988485372368449E-3</v>
       </c>
       <c r="GE6">
-        <v>0.04792576978613204</v>
+        <v>4.7925769786132041E-2</v>
       </c>
       <c r="GF6">
-        <v>-0.008082038393189682</v>
+        <v>-8.0820383931896819E-3</v>
       </c>
       <c r="GG6">
-        <v>0.0009872355907889531</v>
+        <v>9.8723559078895307E-4</v>
       </c>
       <c r="GH6">
-        <v>0.001343614477917528</v>
+        <v>1.343614477917528E-3</v>
       </c>
       <c r="GI6">
-        <v>-0.001992766867954078</v>
+        <v>-1.9927668679540779E-3</v>
       </c>
       <c r="GJ6">
-        <v>0.0009101446049165485</v>
+        <v>9.1014460491654848E-4</v>
       </c>
       <c r="GK6">
-        <v>0.1195588179208169</v>
+        <v>0.11955881792081691</v>
       </c>
       <c r="GL6">
-        <v>0.01671951890725921</v>
+        <v>1.6719518907259211E-2</v>
       </c>
       <c r="GM6">
-        <v>-0.005304038755503307</v>
+        <v>-5.3040387555033071E-3</v>
       </c>
       <c r="GN6">
-        <v>-0.002804966418213659</v>
+        <v>-2.8049664182136589E-3</v>
       </c>
       <c r="GO6">
-        <v>0.001726952914409919</v>
+        <v>1.726952914409919E-3</v>
       </c>
       <c r="GP6">
-        <v>-0.0001684990163601862</v>
+        <v>-1.684990163601862E-4</v>
       </c>
       <c r="GQ6">
         <v>0.2107283404237911</v>
       </c>
       <c r="GR6">
-        <v>0.001600432272269317</v>
+        <v>1.6004322722693171E-3</v>
       </c>
       <c r="GS6">
-        <v>0.0008395964417501182</v>
+        <v>8.3959644175011822E-4</v>
       </c>
       <c r="GT6">
-        <v>0.0008230022892687022</v>
+        <v>8.2300228926870218E-4</v>
       </c>
       <c r="GU6">
-        <v>0.02718352860512263</v>
+        <v>2.7183528605122631E-2</v>
       </c>
       <c r="GV6">
-        <v>0.0006913896308083223</v>
+        <v>6.9138963080832229E-4</v>
       </c>
       <c r="GW6">
-        <v>4.74748097171846E-05</v>
+        <v>4.7474809717184598E-5</v>
       </c>
       <c r="GX6">
-        <v>0.006800474069215841</v>
+        <v>6.8004740692158413E-3</v>
       </c>
       <c r="GY6">
-        <v>0.0004345881014896662</v>
+        <v>4.3458810148966619E-4</v>
       </c>
       <c r="GZ6">
         <v>0</v>
       </c>
       <c r="HA6">
-        <v>0.0009619842176795673</v>
+        <v>9.6198421767956733E-4</v>
       </c>
       <c r="HB6">
-        <v>0.0007027782875049744</v>
+        <v>7.027782875049744E-4</v>
       </c>
       <c r="HC6">
         <v>0</v>
       </c>
       <c r="HD6">
-        <v>0.06873874819701112</v>
+        <v>6.8738748197011118E-2</v>
       </c>
       <c r="HE6">
         <v>0.1040043151953234</v>
@@ -4548,13 +4832,13 @@
         <v>0.1048863362117365</v>
       </c>
       <c r="HG6">
-        <v>0.1702446395752268</v>
+        <v>0.17024463957522681</v>
       </c>
       <c r="HH6">
         <v>1.762549547481769</v>
       </c>
       <c r="HI6">
-        <v>2.747557660440224</v>
+        <v>2.7475576604402239</v>
       </c>
       <c r="HJ6">
         <v>0.1398434611350243</v>
@@ -4563,109 +4847,109 @@
         <v>1.625855908648197</v>
       </c>
       <c r="HM6">
-        <v>0.3284947460515185</v>
+        <v>0.32849474605151852</v>
       </c>
       <c r="HN6">
-        <v>0.1473492672808071</v>
+        <v>0.14734926728080711</v>
       </c>
       <c r="HO6">
-        <v>-0.01750520839109124</v>
+        <v>-1.7505208391091241E-2</v>
       </c>
       <c r="HP6">
-        <v>0.002228053140993344</v>
+        <v>2.228053140993344E-3</v>
       </c>
       <c r="HQ6">
-        <v>0.009894282926007664</v>
+        <v>9.8942829260076637E-3</v>
       </c>
       <c r="HR6">
-        <v>0.002649019756800385</v>
+        <v>2.6490197568003848E-3</v>
       </c>
       <c r="HS6">
-        <v>0.002047673692760162</v>
+        <v>2.047673692760162E-3</v>
       </c>
       <c r="HT6">
-        <v>0.08183403739867125</v>
+        <v>8.1834037398671247E-2</v>
       </c>
       <c r="HU6">
-        <v>0.01187072376221425</v>
+        <v>1.187072376221425E-2</v>
       </c>
       <c r="HV6">
-        <v>0.0001712631506558124</v>
+        <v>1.712631506558124E-4</v>
       </c>
       <c r="HW6">
-        <v>4.304799693876283E-05</v>
+        <v>4.3047996938762828E-5</v>
       </c>
       <c r="HX6">
-        <v>0.0004615008959286109</v>
+        <v>4.6150089592861092E-4</v>
       </c>
       <c r="HY6">
-        <v>0.002382190210932549</v>
+        <v>2.3821902109325489E-3</v>
       </c>
       <c r="HZ6">
-        <v>0.08639808584754538</v>
+        <v>8.6398085847545381E-2</v>
       </c>
       <c r="IA6">
-        <v>0.005149771610275534</v>
+        <v>5.1497716102755341E-3</v>
       </c>
       <c r="IB6">
-        <v>0.003363482918248466</v>
+        <v>3.3634829182484661E-3</v>
       </c>
       <c r="IC6">
-        <v>0.001476715161163146</v>
+        <v>1.476715161163146E-3</v>
       </c>
       <c r="ID6">
-        <v>0.01606956710013304</v>
+        <v>1.6069567100133041E-2</v>
       </c>
       <c r="IE6">
-        <v>0.001719676535248446</v>
+        <v>1.7196765352484461E-3</v>
       </c>
       <c r="IF6">
-        <v>0.002235051519553633</v>
+        <v>2.2350515195536328E-3</v>
       </c>
       <c r="IG6">
-        <v>0.007348739128425212</v>
+        <v>7.3487391284252123E-3</v>
       </c>
       <c r="IH6">
-        <v>0.0009409799769649599</v>
+        <v>9.4097997696495988E-4</v>
       </c>
       <c r="II6">
-        <v>0.0005546694244571226</v>
+        <v>5.5466942445712259E-4</v>
       </c>
       <c r="IJ6">
-        <v>0.001169967264639751</v>
+        <v>1.1699672646397509E-3</v>
       </c>
       <c r="IK6">
-        <v>0.002789688499301384</v>
+        <v>2.7896884993013839E-3</v>
       </c>
       <c r="IL6">
         <v>0</v>
       </c>
       <c r="IM6">
-        <v>0.08979650710185863</v>
+        <v>8.979650710185863E-2</v>
       </c>
       <c r="IN6">
         <v>0.1233712825930829</v>
       </c>
       <c r="IO6">
-        <v>0.2382925360210668</v>
+        <v>0.23829253602106679</v>
       </c>
       <c r="IP6">
-        <v>0.2908081611943406</v>
+        <v>0.29080816119434061</v>
       </c>
       <c r="IQ6">
-        <v>1.055772006294147</v>
+        <v>1.0557720062941469</v>
       </c>
       <c r="IR6">
         <v>4.014157879699729</v>
       </c>
       <c r="IS6">
-        <v>0.1450585128090845</v>
+        <v>0.14505851280908449</v>
       </c>
       <c r="IT6">
-        <v>2.289963876646732</v>
+        <v>2.2899638766467318</v>
       </c>
     </row>
-    <row r="7" spans="1:254">
+    <row r="7" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -4676,10 +4960,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>43696.71805555555</v>
+        <v>43696.718055555553</v>
       </c>
       <c r="E7" s="2">
-        <v>43696.71805555555</v>
+        <v>43696.718055555553</v>
       </c>
       <c r="F7">
         <v>1.5</v>
@@ -4691,16 +4975,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.385</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="J7">
-        <v>0.1543374741200836</v>
+        <v>0.15433747412008361</v>
       </c>
       <c r="K7">
-        <v>4.539337474120083</v>
+        <v>4.5393374741200834</v>
       </c>
       <c r="L7">
-        <v>96.59999999999999</v>
+        <v>96.6</v>
       </c>
       <c r="M7">
         <v>6.77</v>
@@ -4712,64 +4996,64 @@
         <v>348</v>
       </c>
       <c r="T7">
-        <v>8.488808330925863</v>
+        <v>8.4888083309258633</v>
       </c>
       <c r="U7">
-        <v>0.961615919530858</v>
+        <v>0.96161591953085801</v>
       </c>
       <c r="V7">
-        <v>2.722934861204349</v>
+        <v>2.7229348612043491</v>
       </c>
       <c r="W7">
-        <v>3.534565454762869</v>
+        <v>3.5345654547628689</v>
       </c>
       <c r="X7">
         <v>1.747510240113628</v>
       </c>
       <c r="Y7">
-        <v>3.03398500772963</v>
+        <v>3.0339850077296302</v>
       </c>
       <c r="Z7">
-        <v>3.35091636326032</v>
+        <v>3.3509163632603198</v>
       </c>
       <c r="AA7">
-        <v>3.667847718791</v>
+        <v>3.6678477187910001</v>
       </c>
       <c r="AB7">
-        <v>0.4595158245044851</v>
+        <v>0.45951582450448508</v>
       </c>
       <c r="AC7">
-        <v>15.01143486672044</v>
+        <v>15.011434866720441</v>
       </c>
       <c r="AD7">
-        <v>0.4081607024375746</v>
+        <v>0.40816070243757457</v>
       </c>
       <c r="AE7">
-        <v>1.42057573188667</v>
+        <v>1.4205757318866701</v>
       </c>
       <c r="AF7">
         <v>2.678230682051689</v>
       </c>
       <c r="AG7">
-        <v>0.7255221871791488</v>
+        <v>0.72552218717914885</v>
       </c>
       <c r="AH7">
         <v>1.620480190002235</v>
       </c>
       <c r="AI7">
-        <v>18.64965286465842</v>
+        <v>18.649652864658421</v>
       </c>
       <c r="AJ7">
         <v>3.280003000216055</v>
       </c>
       <c r="AK7">
-        <v>2.862626847710047</v>
+        <v>2.8626268477100472</v>
       </c>
       <c r="AL7">
         <v>0.9300800688024915</v>
       </c>
       <c r="AM7">
-        <v>4.601187423</v>
+        <v>4.6011874229999998</v>
       </c>
       <c r="AN7">
         <v>0.6848989267871014</v>
@@ -4778,19 +5062,19 @@
         <v>2.512832454126011</v>
       </c>
       <c r="AP7">
-        <v>4.087003592975591</v>
+        <v>4.0870035929755906</v>
       </c>
       <c r="AQ7">
-        <v>3.423420712622199</v>
+        <v>3.4234207126221992</v>
       </c>
       <c r="AR7">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS7">
-        <v>1.498308899424388</v>
+        <v>1.4983088994243881</v>
       </c>
       <c r="AT7">
-        <v>1.786587874319786</v>
+        <v>1.7865878743197861</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -4799,16 +5083,16 @@
         <v>0</v>
       </c>
       <c r="BU7">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV7">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW7">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX7">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY7">
         <v>400</v>
@@ -4817,7 +5101,7 @@
         <v>200</v>
       </c>
       <c r="CA7">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB7">
         <v>0</v>
@@ -4826,37 +5110,37 @@
         <v>0</v>
       </c>
       <c r="CD7">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE7">
         <v>0</v>
       </c>
       <c r="CF7">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG7">
         <v>16.68548916611951</v>
       </c>
       <c r="CH7">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI7">
         <v>0</v>
       </c>
       <c r="CJ7">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK7">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL7">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM7">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN7">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO7">
         <v>0</v>
@@ -4880,136 +5164,136 @@
         <v>65.5</v>
       </c>
       <c r="DV7">
-        <v>99.28611666666666</v>
+        <v>99.286116666666658</v>
       </c>
       <c r="DW7">
-        <v>284.8699999999999</v>
+        <v>284.86999999999989</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
       <c r="DY7">
-        <v>0.5836376484220114</v>
+        <v>0.58363764842201138</v>
       </c>
       <c r="DZ7">
-        <v>-0.06130934445059805</v>
+        <v>-6.1309344450598047E-2</v>
       </c>
       <c r="EA7">
-        <v>-0.0008586271820729228</v>
+        <v>-8.5862718207292276E-4</v>
       </c>
       <c r="EB7">
-        <v>0.007959788753335089</v>
+        <v>7.9597887533350894E-3</v>
       </c>
       <c r="EC7">
-        <v>-0.01684057035773835</v>
+        <v>-1.6840570357738349E-2</v>
       </c>
       <c r="ED7">
-        <v>0.009143753517772637</v>
+        <v>9.1437535177726365E-3</v>
       </c>
       <c r="EE7">
-        <v>0.8695416793551048</v>
+        <v>0.86954167935510485</v>
       </c>
       <c r="EF7">
-        <v>0.1374475115545098</v>
+        <v>0.13744751155450979</v>
       </c>
       <c r="EG7">
-        <v>-0.04385878147327396</v>
+        <v>-4.3858781473273961E-2</v>
       </c>
       <c r="EH7">
-        <v>-0.0242296343142433</v>
+        <v>-2.4229634314243301E-2</v>
       </c>
       <c r="EI7">
-        <v>0.01111263068513274</v>
+        <v>1.1112630685132741E-2</v>
       </c>
       <c r="EJ7">
-        <v>-0.0009868926304054924</v>
+        <v>-9.8689263040549241E-4</v>
       </c>
       <c r="EK7">
-        <v>1.301877637235996</v>
+        <v>1.3018776372359959</v>
       </c>
       <c r="EL7">
-        <v>0.008003834208023562</v>
+        <v>8.0038342080235615E-3</v>
       </c>
       <c r="EM7">
-        <v>0.004007002233546303</v>
+        <v>4.0070022335463029E-3</v>
       </c>
       <c r="EN7">
-        <v>0.003247167495884404</v>
+        <v>3.2471674958844039E-3</v>
       </c>
       <c r="EO7">
         <v>0.209873085879</v>
       </c>
       <c r="EP7">
-        <v>0.003548298485151818</v>
+        <v>3.5482984851518181E-3</v>
       </c>
       <c r="EQ7">
-        <v>-0.0002064675043492343</v>
+        <v>-2.0646750434923431E-4</v>
       </c>
       <c r="ER7">
-        <v>0.03678583039748537</v>
+        <v>3.678583039748537E-2</v>
       </c>
       <c r="ES7">
-        <v>-0.01884717066052377</v>
+        <v>-1.8847170660523771E-2</v>
       </c>
       <c r="ET7">
         <v>0</v>
       </c>
       <c r="EU7">
-        <v>-0.0006659015087046927</v>
+        <v>-6.6590150870469273E-4</v>
       </c>
       <c r="EV7">
-        <v>0.003186663556944865</v>
+        <v>3.186663556944865E-3</v>
       </c>
       <c r="EW7">
         <v>0</v>
       </c>
       <c r="EX7">
-        <v>0.02497344081008744</v>
+        <v>2.4973440810087441E-2</v>
       </c>
       <c r="EY7">
-        <v>0.1735371822384894</v>
+        <v>0.17353718223848941</v>
       </c>
       <c r="EZ7">
-        <v>0.8424666927846401</v>
+        <v>0.84246669278464015</v>
       </c>
       <c r="FA7">
-        <v>0.9381618727130321</v>
+        <v>0.93816187271303209</v>
       </c>
       <c r="FB7">
-        <v>2.898186150393346</v>
+        <v>2.8981861503933461</v>
       </c>
       <c r="FC7">
-        <v>3.773343135535052</v>
+        <v>3.7733431355350522</v>
       </c>
       <c r="FD7">
-        <v>1.778187044101255</v>
+        <v>1.7781870441012551</v>
       </c>
       <c r="FE7">
-        <v>0.587162817387809</v>
+        <v>0.58716281738780896</v>
       </c>
       <c r="FF7">
-        <v>22.45018035777604</v>
+        <v>22.450180357776041</v>
       </c>
       <c r="FG7">
-        <v>4.300644587743975</v>
+        <v>4.3006445877439754</v>
       </c>
       <c r="FH7">
-        <v>1.611425379519683</v>
+        <v>1.6114253795196829</v>
       </c>
       <c r="FI7">
-        <v>2.612907982489452</v>
+        <v>2.6129079824894519</v>
       </c>
       <c r="FJ7">
-        <v>0.7078265240772184</v>
+        <v>0.70782652407721836</v>
       </c>
       <c r="FK7">
-        <v>1.858785343031823</v>
+        <v>1.8587853430318231</v>
       </c>
       <c r="FL7">
         <v>18.19478328259358</v>
       </c>
       <c r="FM7">
-        <v>3.72435954027132</v>
+        <v>3.7243595402713199</v>
       </c>
       <c r="FN7">
         <v>3.118377201007255</v>
@@ -5018,28 +5302,28 @@
         <v>1.012933670733877</v>
       </c>
       <c r="FP7">
-        <v>4.488963339512195</v>
+        <v>4.4889633395121953</v>
       </c>
       <c r="FQ7">
-        <v>0.933120549844854</v>
+        <v>0.93312054984485404</v>
       </c>
       <c r="FR7">
-        <v>2.822329374074862</v>
+        <v>2.8223293740748621</v>
       </c>
       <c r="FS7">
         <v>4.695774780086186</v>
       </c>
       <c r="FT7">
-        <v>3.74310914683954</v>
+        <v>3.7431091468395401</v>
       </c>
       <c r="FU7">
-        <v>0.4644513541522767</v>
+        <v>0.46445135415227667</v>
       </c>
       <c r="FV7">
-        <v>1.461764779926232</v>
+        <v>1.4617647799262321</v>
       </c>
       <c r="FW7">
-        <v>2.21653241041528</v>
+        <v>2.2165324104152799</v>
       </c>
       <c r="FX7">
         <v>0</v>
@@ -5051,100 +5335,100 @@
         <v>0.32</v>
       </c>
       <c r="GB7">
-        <v>0.03738756240424017</v>
+        <v>3.7387562404240168E-2</v>
       </c>
       <c r="GC7">
-        <v>0.03967075674725325</v>
+        <v>3.9670756747253247E-2</v>
       </c>
       <c r="GD7">
-        <v>0.002283194343013079</v>
+        <v>2.283194343013079E-3</v>
       </c>
       <c r="GE7">
         <v>0.1212235743188828</v>
       </c>
       <c r="GF7">
-        <v>-0.007527757789849315</v>
+        <v>-7.5277577898493148E-3</v>
       </c>
       <c r="GG7">
-        <v>-0.0007269680863042796</v>
+        <v>-7.2696808630427962E-4</v>
       </c>
       <c r="GH7">
-        <v>0.002970448074353483</v>
+        <v>2.9704480743534831E-3</v>
       </c>
       <c r="GI7">
-        <v>-0.000303902641395596</v>
+        <v>-3.0390264139559602E-4</v>
       </c>
       <c r="GJ7">
-        <v>0.000387664650613916</v>
+        <v>3.8766465061391601E-4</v>
       </c>
       <c r="GK7">
-        <v>0.06936512655684335</v>
+        <v>6.9365126556843348E-2</v>
       </c>
       <c r="GL7">
-        <v>0.008654743203289293</v>
+        <v>8.6547432032892928E-3</v>
       </c>
       <c r="GM7">
-        <v>-0.002397466426296478</v>
+        <v>-2.3974664262964782E-3</v>
       </c>
       <c r="GN7">
-        <v>-0.001313161830876753</v>
+        <v>-1.313161830876753E-3</v>
       </c>
       <c r="GO7">
-        <v>0.0006838549940338859</v>
+        <v>6.8385499403388593E-4</v>
       </c>
       <c r="GP7">
-        <v>-0.0001582119885664973</v>
+        <v>-1.5821198856649731E-4</v>
       </c>
       <c r="GQ7">
-        <v>0.07348931799778122</v>
+        <v>7.3489317997781217E-2</v>
       </c>
       <c r="GR7">
-        <v>0.0004523186803486666</v>
+        <v>4.5231868034866662E-4</v>
       </c>
       <c r="GS7">
-        <v>0.001120844394264131</v>
+        <v>1.1208443942641311E-3</v>
       </c>
       <c r="GT7">
-        <v>0.0001430343407418564</v>
+        <v>1.4303434074185639E-4</v>
       </c>
       <c r="GU7">
-        <v>0.01401867178851834</v>
+        <v>1.4018671788518341E-2</v>
       </c>
       <c r="GV7">
-        <v>0.0006592261912957934</v>
+        <v>6.5922619129579339E-4</v>
       </c>
       <c r="GW7">
-        <v>-2.255639671915371E-05</v>
+        <v>-2.2556396719153709E-5</v>
       </c>
       <c r="GX7">
-        <v>0.003624314603942842</v>
+        <v>3.6243146039428419E-3</v>
       </c>
       <c r="GY7">
-        <v>-0.003310479222844367</v>
+        <v>-3.3104792228443669E-3</v>
       </c>
       <c r="GZ7">
         <v>0</v>
       </c>
       <c r="HA7">
-        <v>5.093177950198119E-05</v>
+        <v>5.0931779501981189E-5</v>
       </c>
       <c r="HB7">
-        <v>0.0008581157650151312</v>
+        <v>8.5811576501513122E-4</v>
       </c>
       <c r="HC7">
         <v>0</v>
       </c>
       <c r="HD7">
-        <v>0.02979650548412872</v>
+        <v>2.9796505484128721E-2</v>
       </c>
       <c r="HE7">
-        <v>0.05134293506249638</v>
+        <v>5.1342935062496382E-2</v>
       </c>
       <c r="HF7">
-        <v>0.0362154016546533</v>
+        <v>3.6215401654653298E-2</v>
       </c>
       <c r="HG7">
-        <v>0.09329372070721742</v>
+        <v>9.329372070721742E-2</v>
       </c>
       <c r="HH7">
         <v>1.059456266364023</v>
@@ -5162,106 +5446,106 @@
         <v>0.32</v>
       </c>
       <c r="HN7">
-        <v>0.130777181315734</v>
+        <v>0.13077718131573399</v>
       </c>
       <c r="HO7">
-        <v>-0.01472986129847145</v>
+        <v>-1.4729861298471449E-2</v>
       </c>
       <c r="HP7">
-        <v>0.001981143480665364</v>
+        <v>1.9811434806653642E-3</v>
       </c>
       <c r="HQ7">
-        <v>0.008502496051486699</v>
+        <v>8.5024960514866986E-3</v>
       </c>
       <c r="HR7">
-        <v>0.002543503630327903</v>
+        <v>2.5435036303279031E-3</v>
       </c>
       <c r="HS7">
-        <v>0.001705445256928845</v>
+        <v>1.705445256928845E-3</v>
       </c>
       <c r="HT7">
-        <v>0.0685057138986918</v>
+        <v>6.8505713898691797E-2</v>
       </c>
       <c r="HU7">
-        <v>0.008963309188004516</v>
+        <v>8.9633091880045156E-3</v>
       </c>
       <c r="HV7">
-        <v>0.001049021967829037</v>
+        <v>1.049021967829037E-3</v>
       </c>
       <c r="HW7">
-        <v>0.0003540257172408178</v>
+        <v>3.5402571724081779E-4</v>
       </c>
       <c r="HX7">
-        <v>0.0002648903811828604</v>
+        <v>2.6489038118286039E-4</v>
       </c>
       <c r="HY7">
-        <v>0.002192830895345532</v>
+        <v>2.1928308953455319E-3</v>
       </c>
       <c r="HZ7">
-        <v>0.04798870922630327</v>
+        <v>4.7988709226303272E-2</v>
       </c>
       <c r="IA7">
-        <v>0.004611460405880351</v>
+        <v>4.6114604058803514E-3</v>
       </c>
       <c r="IB7">
-        <v>0.002958725220769317</v>
+        <v>2.958725220769317E-3</v>
       </c>
       <c r="IC7">
-        <v>0.00128922636719752</v>
+        <v>1.2892263671975201E-3</v>
       </c>
       <c r="ID7">
-        <v>0.01192696931393598</v>
+        <v>1.192696931393598E-2</v>
       </c>
       <c r="IE7">
-        <v>0.001499153361251232</v>
+        <v>1.4991533612512321E-3</v>
       </c>
       <c r="IF7">
-        <v>0.002027689416650147</v>
+        <v>2.0276894166501472E-3</v>
       </c>
       <c r="IG7">
-        <v>0.006012489238348611</v>
+        <v>6.012489238348611E-3</v>
       </c>
       <c r="IH7">
-        <v>0.001073495170194362</v>
+        <v>1.0734951701943619E-3</v>
       </c>
       <c r="II7">
-        <v>0.0005028683174367547</v>
+        <v>5.0286831743675468E-4</v>
       </c>
       <c r="IJ7">
-        <v>0.001048873250110645</v>
+        <v>1.0488732501106449E-3</v>
       </c>
       <c r="IK7">
-        <v>0.00250647071516136</v>
+        <v>2.50647071516136E-3</v>
       </c>
       <c r="IL7">
         <v>0</v>
       </c>
       <c r="IM7">
-        <v>0.07518196771209874</v>
+        <v>7.5181967712098743E-2</v>
       </c>
       <c r="IN7">
-        <v>0.1018387983245062</v>
+        <v>0.10183879832450619</v>
       </c>
       <c r="IO7">
         <v>0.2094431895529994</v>
       </c>
       <c r="IP7">
-        <v>0.2536327734484137</v>
+        <v>0.25363277344841367</v>
       </c>
       <c r="IQ7">
         <v>0.7005066657252903</v>
       </c>
       <c r="IR7">
-        <v>4.671143205269346</v>
+        <v>4.6711432052693462</v>
       </c>
       <c r="IS7">
-        <v>0.1308403150321112</v>
+        <v>0.13084031503211119</v>
       </c>
       <c r="IT7">
         <v>1.564006272067392</v>
       </c>
     </row>
-    <row r="8" spans="1:254">
+    <row r="8" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -5272,10 +5556,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>43697.70902777778</v>
+        <v>43697.709027777782</v>
       </c>
       <c r="E8" s="2">
-        <v>43697.70902777778</v>
+        <v>43697.709027777782</v>
       </c>
       <c r="F8">
         <v>1.5</v>
@@ -5287,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.539999999999999</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="J8">
-        <v>0.3255635987590484</v>
+        <v>0.32556359875904839</v>
       </c>
       <c r="K8">
-        <v>9.865563598759048</v>
+        <v>9.8655635987590475</v>
       </c>
       <c r="L8">
         <v>96.7</v>
@@ -5308,13 +5592,13 @@
         <v>343</v>
       </c>
       <c r="T8">
-        <v>24.06185414470214</v>
+        <v>24.061854144702139</v>
       </c>
       <c r="U8">
-        <v>2.112881911489749</v>
+        <v>2.1128819114897488</v>
       </c>
       <c r="V8">
-        <v>2.569622113483793</v>
+        <v>2.5696221134837929</v>
       </c>
       <c r="W8">
         <v>2.819506744977851</v>
@@ -5332,7 +5616,7 @@
         <v>1.39633419266327</v>
       </c>
       <c r="AB8">
-        <v>0.3438927172991662</v>
+        <v>0.34389271729916621</v>
       </c>
       <c r="AC8">
         <v>15.54637329135528</v>
@@ -5347,22 +5631,22 @@
         <v>2.539387154712776</v>
       </c>
       <c r="AG8">
-        <v>0.6858315376024179</v>
+        <v>0.68583153760241788</v>
       </c>
       <c r="AH8">
         <v>1.565187893487515</v>
       </c>
       <c r="AI8">
-        <v>19.56329235093528</v>
+        <v>19.563292350935281</v>
       </c>
       <c r="AJ8">
-        <v>3.125673555968769</v>
+        <v>3.1256735559687692</v>
       </c>
       <c r="AK8">
-        <v>2.689305977530928</v>
+        <v>2.6893059775309278</v>
       </c>
       <c r="AL8">
-        <v>0.8300750487716027</v>
+        <v>0.83007504877160265</v>
       </c>
       <c r="AM8">
         <v>6.230516154</v>
@@ -5371,16 +5655,16 @@
         <v>0.7092167717554716</v>
       </c>
       <c r="AO8">
-        <v>2.510676991073472</v>
+        <v>2.5106769910734719</v>
       </c>
       <c r="AP8">
-        <v>3.766000397811959</v>
+        <v>3.7660003978119589</v>
       </c>
       <c r="AQ8">
-        <v>3.539324492055152</v>
+        <v>3.5393244920551519</v>
       </c>
       <c r="AR8">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS8">
         <v>1.31759275541135</v>
@@ -5395,16 +5679,16 @@
         <v>0</v>
       </c>
       <c r="BU8">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV8">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW8">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX8">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY8">
         <v>400</v>
@@ -5413,7 +5697,7 @@
         <v>200</v>
       </c>
       <c r="CA8">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB8">
         <v>0</v>
@@ -5422,37 +5706,37 @@
         <v>0</v>
       </c>
       <c r="CD8">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE8">
         <v>0</v>
       </c>
       <c r="CF8">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG8">
         <v>16.68548916611951</v>
       </c>
       <c r="CH8">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI8">
         <v>0</v>
       </c>
       <c r="CJ8">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK8">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL8">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM8">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN8">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO8">
         <v>0</v>
@@ -5464,43 +5748,43 @@
         <v>0</v>
       </c>
       <c r="DQ8">
-        <v>3.980555555555556</v>
+        <v>3.9805555555555561</v>
       </c>
       <c r="DR8">
-        <v>95.53333333333333</v>
+        <v>95.533333333333331</v>
       </c>
       <c r="DS8">
-        <v>67.1375</v>
+        <v>67.137500000000003</v>
       </c>
       <c r="DT8">
-        <v>65.6375</v>
+        <v>65.637500000000003</v>
       </c>
       <c r="DV8">
-        <v>264.877575</v>
+        <v>264.87757499999998</v>
       </c>
       <c r="DW8">
-        <v>638.1442500000001</v>
+        <v>638.14425000000006</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
       <c r="DY8">
-        <v>1.643073435386308</v>
+        <v>1.6430734353863079</v>
       </c>
       <c r="DZ8">
-        <v>-0.1401771110539698</v>
+        <v>-0.14017711105396979</v>
       </c>
       <c r="EA8">
-        <v>0.02120034084594215</v>
+        <v>2.1200340845942151E-2</v>
       </c>
       <c r="EB8">
-        <v>0.07199797942436915</v>
+        <v>7.1997979424369155E-2</v>
       </c>
       <c r="EC8">
-        <v>0.007678265946249638</v>
+        <v>7.6782659462496378E-3</v>
       </c>
       <c r="ED8">
-        <v>0.02547629986247388</v>
+        <v>2.5476299862473881E-2</v>
       </c>
       <c r="EE8">
         <v>1.333046026276929</v>
@@ -5509,67 +5793,67 @@
         <v>0.2192906813606251</v>
       </c>
       <c r="EG8">
-        <v>-0.03033500541410438</v>
+        <v>-3.0335005414104381E-2</v>
       </c>
       <c r="EH8">
-        <v>-0.01929362973938669</v>
+        <v>-1.929362973938669E-2</v>
       </c>
       <c r="EI8">
-        <v>0.01258931908958465</v>
+        <v>1.258931908958465E-2</v>
       </c>
       <c r="EJ8">
-        <v>0.01872450613837552</v>
+        <v>1.8724506138375521E-2</v>
       </c>
       <c r="EK8">
-        <v>1.393755914811787</v>
+        <v>1.3937559148117871</v>
       </c>
       <c r="EL8">
-        <v>0.04819811447913608</v>
+        <v>4.8198114479136078E-2</v>
       </c>
       <c r="EM8">
-        <v>0.03281377149968821</v>
+        <v>3.2813771499688213E-2</v>
       </c>
       <c r="EN8">
-        <v>0.01552383822787656</v>
+        <v>1.552383822787656E-2</v>
       </c>
       <c r="EO8">
-        <v>0.326796587961675</v>
+        <v>0.32679658796167499</v>
       </c>
       <c r="EP8">
-        <v>0.01858063838662773</v>
+        <v>1.858063838662773E-2</v>
       </c>
       <c r="EQ8">
-        <v>0.02071709435940653</v>
+        <v>2.0717094359406531E-2</v>
       </c>
       <c r="ER8">
-        <v>0.09920855798742127</v>
+        <v>9.9208557987421273E-2</v>
       </c>
       <c r="ES8">
-        <v>-0.005165578399936975</v>
+        <v>-5.1655783999369747E-3</v>
       </c>
       <c r="ET8">
-        <v>0.005177996401861513</v>
+        <v>5.1779964018615126E-3</v>
       </c>
       <c r="EU8">
-        <v>0.00901344778716323</v>
+        <v>9.0134477871632295E-3</v>
       </c>
       <c r="EV8">
-        <v>0.0263214755610803</v>
+        <v>2.6321475561080301E-2</v>
       </c>
       <c r="EW8">
         <v>0</v>
       </c>
       <c r="EX8">
-        <v>0.5742808040548223</v>
+        <v>0.57428080405482229</v>
       </c>
       <c r="EY8">
-        <v>0.7609002809625274</v>
+        <v>0.76090028096252738</v>
       </c>
       <c r="EZ8">
-        <v>3.494521683478346</v>
+        <v>3.4945216834783461</v>
       </c>
       <c r="FA8">
-        <v>2.04143179854082</v>
+        <v>2.0414317985408199</v>
       </c>
       <c r="FB8">
         <v>2.841720799910183</v>
@@ -5581,40 +5865,40 @@
         <v>1.474087891745554</v>
       </c>
       <c r="FE8">
-        <v>0.5385331519576761</v>
+        <v>0.53853315195767615</v>
       </c>
       <c r="FF8">
         <v>26.6148534215993</v>
       </c>
       <c r="FG8">
-        <v>5.946644665578998</v>
+        <v>5.9466446655789982</v>
       </c>
       <c r="FH8">
-        <v>1.697289168629622</v>
+        <v>1.6972891686296221</v>
       </c>
       <c r="FI8">
-        <v>2.453514159142778</v>
+        <v>2.4535141591427778</v>
       </c>
       <c r="FJ8">
-        <v>0.6626391667656211</v>
+        <v>0.66263916676562107</v>
       </c>
       <c r="FK8">
-        <v>1.924975916324242</v>
+        <v>1.9249759163242419</v>
       </c>
       <c r="FL8">
-        <v>18.90173174003409</v>
+        <v>18.901731740034091</v>
       </c>
       <c r="FM8">
-        <v>3.79890999885202</v>
+        <v>3.7989099988520199</v>
       </c>
       <c r="FN8">
         <v>3.082000630448805</v>
       </c>
       <c r="FO8">
-        <v>0.9587830573151694</v>
+        <v>0.95878305731516944</v>
       </c>
       <c r="FP8">
-        <v>6.019822371014492</v>
+        <v>6.0198223710144916</v>
       </c>
       <c r="FQ8">
         <v>1.078783794165491</v>
@@ -5623,19 +5907,19 @@
         <v>2.976579442052711</v>
       </c>
       <c r="FS8">
-        <v>4.691061577517956</v>
+        <v>4.6910615775179556</v>
       </c>
       <c r="FT8">
-        <v>4.018573658345551</v>
+        <v>4.0185736583455514</v>
       </c>
       <c r="FU8">
-        <v>0.5028317917019983</v>
+        <v>0.50283179170199832</v>
       </c>
       <c r="FV8">
         <v>1.273036478658309</v>
       </c>
       <c r="FW8">
-        <v>2.512058605154674</v>
+        <v>2.5120586051546741</v>
       </c>
       <c r="FX8">
         <v>0</v>
@@ -5647,94 +5931,94 @@
         <v>0.152</v>
       </c>
       <c r="GB8">
-        <v>0.03202265740805726</v>
+        <v>3.2022657408057258E-2</v>
       </c>
       <c r="GC8">
-        <v>0.03308759683854077</v>
+        <v>3.3087596838540768E-2</v>
       </c>
       <c r="GD8">
-        <v>0.001064939430483501</v>
+        <v>1.064939430483501E-3</v>
       </c>
       <c r="GE8">
-        <v>0.09603289583600615</v>
+        <v>9.6032895836006146E-2</v>
       </c>
       <c r="GF8">
-        <v>-0.007148993934537812</v>
+        <v>-7.1489939345378119E-3</v>
       </c>
       <c r="GG8">
-        <v>0.00199954221383646</v>
+        <v>1.9995422138364598E-3</v>
       </c>
       <c r="GH8">
-        <v>0.005804762279986079</v>
+        <v>5.8047622799860792E-3</v>
       </c>
       <c r="GI8">
-        <v>0.002222517760654347</v>
+        <v>2.222517760654347E-3</v>
       </c>
       <c r="GJ8">
-        <v>0.00148046888839927</v>
+        <v>1.4804688883992699E-3</v>
       </c>
       <c r="GK8">
-        <v>0.04201449980750901</v>
+        <v>4.2014499807509008E-2</v>
       </c>
       <c r="GL8">
-        <v>0.007418700309718819</v>
+        <v>7.4187003097188186E-3</v>
       </c>
       <c r="GM8">
-        <v>0.001225867007306856</v>
+        <v>1.2258670073068559E-3</v>
       </c>
       <c r="GN8">
-        <v>0.0004474257137768647</v>
+        <v>4.474257137768647E-4</v>
       </c>
       <c r="GO8">
-        <v>0.0001338548928324505</v>
+        <v>1.3385489283245051E-4</v>
       </c>
       <c r="GP8">
-        <v>0.001786746047316712</v>
+        <v>1.786746047316712E-3</v>
       </c>
       <c r="GQ8">
-        <v>0.008328335863856335</v>
+        <v>8.3283358638563346E-3</v>
       </c>
       <c r="GR8">
-        <v>0.003643423393822988</v>
+        <v>3.6434233938229879E-3</v>
       </c>
       <c r="GS8">
-        <v>0.002611198815771643</v>
+        <v>2.6111988157716428E-3</v>
       </c>
       <c r="GT8">
-        <v>0.001112822745960421</v>
+        <v>1.1128227459604209E-3</v>
       </c>
       <c r="GU8">
-        <v>0.01059856825156028</v>
+        <v>1.059856825156028E-2</v>
       </c>
       <c r="GV8">
-        <v>0.001362611259400968</v>
+        <v>1.3626112594009681E-3</v>
       </c>
       <c r="GW8">
-        <v>0.001896622958846683</v>
+        <v>1.896622958846683E-3</v>
       </c>
       <c r="GX8">
-        <v>0.005658328112193292</v>
+        <v>5.6583281121932918E-3</v>
       </c>
       <c r="GY8">
-        <v>0.001240172307371677</v>
+        <v>1.240172307371677E-3</v>
       </c>
       <c r="GZ8">
-        <v>0.0004693611403519062</v>
+        <v>4.6936114035190621E-4</v>
       </c>
       <c r="HA8">
-        <v>0.0008773877134676492</v>
+        <v>8.773877134676492E-4</v>
       </c>
       <c r="HB8">
-        <v>0.002097062435227701</v>
+        <v>2.0970624352277009E-3</v>
       </c>
       <c r="HC8">
         <v>0</v>
       </c>
       <c r="HD8">
-        <v>0.06903944814591609</v>
+        <v>6.9039448145916088E-2</v>
       </c>
       <c r="HE8">
-        <v>0.08678701033201418</v>
+        <v>8.6787010332014178E-2</v>
       </c>
       <c r="HF8">
         <v>0.1942168814669733</v>
@@ -5749,115 +6033,115 @@
         <v>3.617798633719159</v>
       </c>
       <c r="HJ8">
-        <v>0.1765747621346885</v>
+        <v>0.17657476213468851</v>
       </c>
       <c r="HK8">
-        <v>1.428628709758729</v>
+        <v>1.4286287097587289</v>
       </c>
       <c r="HM8">
         <v>0.152</v>
       </c>
       <c r="HN8">
-        <v>0.08561082658840052</v>
+        <v>8.5610826588400524E-2</v>
       </c>
       <c r="HO8">
-        <v>-0.008277910505426523</v>
+        <v>-8.277910505426523E-3</v>
       </c>
       <c r="HP8">
-        <v>0.001257365685521284</v>
+        <v>1.2573656855212839E-3</v>
       </c>
       <c r="HQ8">
-        <v>0.004940709753260378</v>
+        <v>4.9407097532603783E-3</v>
       </c>
       <c r="HR8">
-        <v>0.001731295931456713</v>
+        <v>1.7312959314567131E-3</v>
       </c>
       <c r="HS8">
-        <v>0.0009871176811878811</v>
+        <v>9.8711768118788109E-4</v>
       </c>
       <c r="HT8">
-        <v>0.04284576579380938</v>
+        <v>4.284576579380938E-2</v>
       </c>
       <c r="HU8">
-        <v>0.004416679566462652</v>
+        <v>4.4166795664626517E-3</v>
       </c>
       <c r="HV8">
-        <v>0.001601193564986825</v>
+        <v>1.601193564986825E-3</v>
       </c>
       <c r="HW8">
-        <v>0.0004828017725184044</v>
+        <v>4.8280177251840438E-4</v>
       </c>
       <c r="HX8">
-        <v>3.963928624651433E-05</v>
+        <v>3.963928624651433E-5</v>
       </c>
       <c r="HY8">
-        <v>0.001471009498095984</v>
+        <v>1.4710094980959841E-3</v>
       </c>
       <c r="HZ8">
-        <v>0.005035783007096193</v>
+        <v>5.0357830070961928E-3</v>
       </c>
       <c r="IA8">
-        <v>0.002982757728718751</v>
+        <v>2.9827577287187511E-3</v>
       </c>
       <c r="IB8">
-        <v>0.001853603594140811</v>
+        <v>1.8536035941408111E-3</v>
       </c>
       <c r="IC8">
-        <v>0.0008013761516103465</v>
+        <v>8.0137615161034648E-4</v>
       </c>
       <c r="ID8">
-        <v>0.005574092362969781</v>
+        <v>5.5740923629697811E-3</v>
       </c>
       <c r="IE8">
-        <v>0.0009348927784080689</v>
+        <v>9.348927784080689E-4</v>
       </c>
       <c r="IF8">
-        <v>0.001351321685262404</v>
+        <v>1.3513216852624041E-3</v>
       </c>
       <c r="IG8">
-        <v>0.003377818476965089</v>
+        <v>3.3778184769650888E-3</v>
       </c>
       <c r="IH8">
-        <v>0.0009083038934560943</v>
+        <v>9.0830389345609433E-4</v>
       </c>
       <c r="II8">
-        <v>0.0003349307125566802</v>
+        <v>3.3493071255668021E-4</v>
       </c>
       <c r="IJ8">
-        <v>0.000666496194700108</v>
+        <v>6.6649619470010796E-4</v>
       </c>
       <c r="IK8">
-        <v>0.001643337865963594</v>
+        <v>1.6433378659635939E-3</v>
       </c>
       <c r="IL8">
         <v>0</v>
       </c>
       <c r="IM8">
-        <v>0.04414120222198257</v>
+        <v>4.4141202221982569E-2</v>
       </c>
       <c r="IN8">
-        <v>0.05799320509037888</v>
+        <v>5.7993205090378877E-2</v>
       </c>
       <c r="IO8">
-        <v>0.132957294395442</v>
+        <v>0.13295729439544199</v>
       </c>
       <c r="IP8">
-        <v>0.1577910259117216</v>
+        <v>0.15779102591172159</v>
       </c>
       <c r="IQ8">
         <v>0.1175328043226104</v>
       </c>
       <c r="IR8">
-        <v>3.547608431868941</v>
+        <v>3.5476084318689409</v>
       </c>
       <c r="IS8">
         <v>0.1030832215187247</v>
       </c>
       <c r="IT8">
-        <v>2.399668821808766</v>
+        <v>2.3996688218087661</v>
       </c>
     </row>
-    <row r="9" spans="1:254">
+    <row r="9" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -5868,16 +6152,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>43698.77430555555</v>
+        <v>43698.774305555547</v>
       </c>
       <c r="E9" s="2">
-        <v>43698.77430555555</v>
+        <v>43698.774305555547</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
-        <v>1.738044375</v>
+        <v>1.7380443750000001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5886,43 +6170,43 @@
         <v>16.2</v>
       </c>
       <c r="J9">
-        <v>0.5182662538699674</v>
+        <v>0.51826625386996739</v>
       </c>
       <c r="K9">
         <v>16.71826625386997</v>
       </c>
       <c r="L9">
-        <v>96.90000000000001</v>
+        <v>96.9</v>
       </c>
       <c r="M9">
         <v>6.85</v>
       </c>
       <c r="P9">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="S9">
         <v>338</v>
       </c>
       <c r="T9">
-        <v>56.62080837749716</v>
+        <v>56.620808377497163</v>
       </c>
       <c r="U9">
         <v>4.95162989298451</v>
       </c>
       <c r="V9">
-        <v>2.43770764964602</v>
+        <v>2.4377076496460202</v>
       </c>
       <c r="W9">
-        <v>1.36673781514324</v>
+        <v>1.3667378151432401</v>
       </c>
       <c r="X9">
         <v>0.8326054083690293</v>
       </c>
       <c r="Y9">
-        <v>-0.959840630551606</v>
+        <v>-0.95984063055160596</v>
       </c>
       <c r="Z9">
-        <v>-2.30264495938653</v>
+        <v>-2.3026449593865301</v>
       </c>
       <c r="AA9">
         <v>-3.64544928822145</v>
@@ -5934,37 +6218,37 @@
         <v>13.64101699033955</v>
       </c>
       <c r="AD9">
-        <v>0.06336293529395541</v>
+        <v>6.3362935293955411E-2</v>
       </c>
       <c r="AE9">
-        <v>0.9392316255884058</v>
+        <v>0.93923162558840578</v>
       </c>
       <c r="AF9">
-        <v>2.212290194654243</v>
+        <v>2.2122901946542428</v>
       </c>
       <c r="AG9">
-        <v>0.6784314566647457</v>
+        <v>0.67843145666474569</v>
       </c>
       <c r="AH9">
         <v>1.471370079386388</v>
       </c>
       <c r="AI9">
-        <v>18.51262683014298</v>
+        <v>18.512626830142981</v>
       </c>
       <c r="AJ9">
         <v>2.879609893548301</v>
       </c>
       <c r="AK9">
-        <v>2.437239400977793</v>
+        <v>2.4372394009777931</v>
       </c>
       <c r="AL9">
-        <v>0.6989147783727668</v>
+        <v>0.69891477837276683</v>
       </c>
       <c r="AM9">
-        <v>6.891213474</v>
+        <v>6.8912134739999997</v>
       </c>
       <c r="AN9">
-        <v>0.7681982237998154</v>
+        <v>0.76819822379981539</v>
       </c>
       <c r="AO9">
         <v>2.511498099351777</v>
@@ -5973,10 +6257,10 @@
         <v>3.51625734954757</v>
       </c>
       <c r="AQ9">
-        <v>3.701413970859565</v>
+        <v>3.7014139708595648</v>
       </c>
       <c r="AR9">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS9">
         <v>1.067113932954139</v>
@@ -5991,16 +6275,16 @@
         <v>0</v>
       </c>
       <c r="BU9">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV9">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW9">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX9">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY9">
         <v>400</v>
@@ -6009,7 +6293,7 @@
         <v>200</v>
       </c>
       <c r="CA9">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB9">
         <v>0</v>
@@ -6018,37 +6302,37 @@
         <v>0</v>
       </c>
       <c r="CD9">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE9">
         <v>0</v>
       </c>
       <c r="CF9">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG9">
         <v>16.68548916611951</v>
       </c>
       <c r="CH9">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI9">
         <v>0</v>
       </c>
       <c r="CJ9">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK9">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL9">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM9">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN9">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO9">
         <v>0</v>
@@ -6060,19 +6344,19 @@
         <v>0</v>
       </c>
       <c r="DQ9">
-        <v>5.045833333333333</v>
+        <v>5.0458333333333334</v>
       </c>
       <c r="DR9">
         <v>121.1</v>
       </c>
       <c r="DS9">
-        <v>67.93481250000001</v>
+        <v>67.934812500000007</v>
       </c>
       <c r="DT9">
-        <v>57.93481250000001</v>
+        <v>57.934812500000007</v>
       </c>
       <c r="DV9">
-        <v>593.9205749999999</v>
+        <v>593.92057499999987</v>
       </c>
       <c r="DW9">
         <v>1112.5064625</v>
@@ -6081,76 +6365,76 @@
         <v>0</v>
       </c>
       <c r="DY9">
-        <v>3.91023748468712</v>
+        <v>3.9102374846871202</v>
       </c>
       <c r="DZ9">
-        <v>-0.3378808729378592</v>
+        <v>-0.33788087293785918</v>
       </c>
       <c r="EA9">
-        <v>0.04864689845667237</v>
+        <v>4.8646898456672368E-2</v>
       </c>
       <c r="EB9">
-        <v>0.197011161599164</v>
+        <v>0.19701116159916399</v>
       </c>
       <c r="EC9">
-        <v>0.05125725817646821</v>
+        <v>5.1257258176468208E-2</v>
       </c>
       <c r="ED9">
-        <v>0.04752158835323034</v>
+        <v>4.7521588353230337E-2</v>
       </c>
       <c r="EE9">
-        <v>2.214421171640229</v>
+        <v>2.2144211716402289</v>
       </c>
       <c r="EF9">
-        <v>0.2907828225922151</v>
+        <v>0.29078282259221511</v>
       </c>
       <c r="EG9">
-        <v>0.02116349163661132</v>
+        <v>2.1163491636611319E-2</v>
       </c>
       <c r="EH9">
-        <v>-0.002906124941351378</v>
+        <v>-2.9061249413513779E-3</v>
       </c>
       <c r="EI9">
-        <v>0.01151647283634197</v>
+        <v>1.1516472836341969E-2</v>
       </c>
       <c r="EJ9">
-        <v>0.04954013361965424</v>
+        <v>4.9540133619654238E-2</v>
       </c>
       <c r="EK9">
         <v>1.367322145715506</v>
       </c>
       <c r="EL9">
-        <v>0.1106505947641745</v>
+        <v>0.11065059476417451</v>
       </c>
       <c r="EM9">
-        <v>0.07661550473107093</v>
+        <v>7.6615504731070927E-2</v>
       </c>
       <c r="EN9">
-        <v>0.03317794103252639</v>
+        <v>3.3177941032526387E-2</v>
       </c>
       <c r="EO9">
-        <v>0.3859943791571637</v>
+        <v>0.38599437915716373</v>
       </c>
       <c r="EP9">
-        <v>0.03968021087462543</v>
+        <v>3.9680210874625428E-2</v>
       </c>
       <c r="EQ9">
-        <v>0.05231230817304273</v>
+        <v>5.2312308173042728E-2</v>
       </c>
       <c r="ER9">
-        <v>0.1790186629387966</v>
+        <v>0.17901866293879659</v>
       </c>
       <c r="ES9">
-        <v>0.0163806055019821</v>
+        <v>1.6380605501982101E-2</v>
       </c>
       <c r="ET9">
-        <v>0.01302485355739049</v>
+        <v>1.3024853557390491E-2</v>
       </c>
       <c r="EU9">
-        <v>0.02300275731909866</v>
+        <v>2.3002757319098659E-2</v>
       </c>
       <c r="EV9">
-        <v>0.06159888598765015</v>
+        <v>6.1598885987650148E-2</v>
       </c>
       <c r="EW9">
         <v>0</v>
@@ -6159,79 +6443,79 @@
         <v>1.390050346990114</v>
       </c>
       <c r="EY9">
-        <v>1.438163853209418</v>
+        <v>1.4381638532094181</v>
       </c>
       <c r="EZ9">
-        <v>7.67302696540963</v>
+        <v>7.6730269654096297</v>
       </c>
       <c r="FA9">
-        <v>4.784183471482618</v>
+        <v>4.7841834714826179</v>
       </c>
       <c r="FB9">
-        <v>2.714267211661126</v>
+        <v>2.7142672116611259</v>
       </c>
       <c r="FC9">
         <v>1.803289568970126</v>
       </c>
       <c r="FD9">
-        <v>0.9133358729509815</v>
+        <v>0.91333587295098151</v>
       </c>
       <c r="FE9">
         <v>0.4130586890180013</v>
       </c>
       <c r="FF9">
-        <v>24.77392945926527</v>
+        <v>24.773929459265268</v>
       </c>
       <c r="FG9">
-        <v>5.858321676612517</v>
+        <v>5.8583216766125172</v>
       </c>
       <c r="FH9">
-        <v>1.242448839391222</v>
+        <v>1.2424488393912221</v>
       </c>
       <c r="FI9">
-        <v>2.137478448941297</v>
+        <v>2.1374784489412968</v>
       </c>
       <c r="FJ9">
-        <v>0.6554893301108654</v>
+        <v>0.65548933011086541</v>
       </c>
       <c r="FK9">
-        <v>1.834330685308661</v>
+        <v>1.8343306853086609</v>
       </c>
       <c r="FL9">
-        <v>17.88659597115264</v>
+        <v>17.886595971152641</v>
       </c>
       <c r="FM9">
-        <v>3.561167329846738</v>
+        <v>3.5611673298467381</v>
       </c>
       <c r="FN9">
-        <v>2.838458044407128</v>
+        <v>2.8384580444071279</v>
       </c>
       <c r="FO9">
-        <v>0.8320581583790962</v>
+        <v>0.83205815837909625</v>
       </c>
       <c r="FP9">
-        <v>6.658177269565217</v>
+        <v>6.6581772695652166</v>
       </c>
       <c r="FQ9">
         <v>1.135770704353263</v>
       </c>
       <c r="FR9">
-        <v>2.977372783384406</v>
+        <v>2.9773727833844061</v>
       </c>
       <c r="FS9">
-        <v>4.449763946344632</v>
+        <v>4.4497639463446319</v>
       </c>
       <c r="FT9">
-        <v>4.175181850427109</v>
+        <v>4.1751818504271094</v>
       </c>
       <c r="FU9">
-        <v>0.5028317917019984</v>
+        <v>0.50283179170199843</v>
       </c>
       <c r="FV9">
         <v>1.031027954545062</v>
       </c>
       <c r="FW9">
-        <v>2.628803982313055</v>
+        <v>2.6288039823130549</v>
       </c>
       <c r="FX9">
         <v>0</v>
@@ -6240,220 +6524,220 @@
         <v>0</v>
       </c>
       <c r="GA9">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="GB9">
-        <v>0.02149030683679902</v>
+        <v>2.149030683679902E-2</v>
       </c>
       <c r="GC9">
-        <v>0.02211726943749895</v>
+        <v>2.2117269437498949E-2</v>
       </c>
       <c r="GD9">
-        <v>0.0006269626006999232</v>
+        <v>6.2696260069992319E-4</v>
       </c>
       <c r="GE9">
         <v>0.1027106497628838</v>
       </c>
       <c r="GF9">
-        <v>-0.008956688356946709</v>
+        <v>-8.9566883569467091E-3</v>
       </c>
       <c r="GG9">
-        <v>0.001243427341229195</v>
+        <v>1.2434273412291949E-3</v>
       </c>
       <c r="GH9">
-        <v>0.005663544803499695</v>
+        <v>5.6635448034996951E-3</v>
       </c>
       <c r="GI9">
-        <v>0.001974284397001536</v>
+        <v>1.974284397001536E-3</v>
       </c>
       <c r="GJ9">
-        <v>0.0009987305090666551</v>
+        <v>9.9873050906665512E-4</v>
       </c>
       <c r="GK9">
-        <v>0.03992945013971921</v>
+        <v>3.9929450139719207E-2</v>
       </c>
       <c r="GL9">
-        <v>0.003238849999011335</v>
+        <v>3.2388499990113348E-3</v>
       </c>
       <c r="GM9">
-        <v>0.002333066323772299</v>
+        <v>2.3330663237722989E-3</v>
       </c>
       <c r="GN9">
-        <v>0.0007424126482235234</v>
+        <v>7.4241264822352338E-4</v>
       </c>
       <c r="GO9">
-        <v>-4.860377695218552E-05</v>
+        <v>-4.860377695218552E-5</v>
       </c>
       <c r="GP9">
-        <v>0.001396058270432271</v>
+        <v>1.3960582704322709E-3</v>
       </c>
       <c r="GQ9">
-        <v>-0.001197544394900931</v>
+        <v>-1.197544394900931E-3</v>
       </c>
       <c r="GR9">
-        <v>0.002829320988641391</v>
+        <v>2.8293209886413912E-3</v>
       </c>
       <c r="GS9">
-        <v>0.001984375361951981</v>
+        <v>1.984375361951981E-3</v>
       </c>
       <c r="GT9">
-        <v>0.0007997940733955884</v>
+        <v>7.9979407339558837E-4</v>
       </c>
       <c r="GU9">
-        <v>0.002681871918395714</v>
+        <v>2.6818719183957138E-3</v>
       </c>
       <c r="GV9">
-        <v>0.0009558861876932346</v>
+        <v>9.5588618769323463E-4</v>
       </c>
       <c r="GW9">
-        <v>0.001431376322854369</v>
+        <v>1.4313763228543689E-3</v>
       </c>
       <c r="GX9">
-        <v>0.003615683540733525</v>
+        <v>3.615683540733525E-3</v>
       </c>
       <c r="GY9">
-        <v>0.000976119283983524</v>
+        <v>9.7611928398352399E-4</v>
       </c>
       <c r="GZ9">
-        <v>0.000355490727408751</v>
+        <v>3.5549072740875099E-4</v>
       </c>
       <c r="HA9">
-        <v>0.0006337658151391002</v>
+        <v>6.3376581513910021E-4</v>
       </c>
       <c r="HB9">
-        <v>0.001598193014741195</v>
+        <v>1.5981930147411949E-3</v>
       </c>
       <c r="HC9">
         <v>0</v>
       </c>
       <c r="HD9">
-        <v>0.04096680402752221</v>
+        <v>4.0966804027522209E-2</v>
       </c>
       <c r="HE9">
-        <v>0.05260536430286463</v>
+        <v>5.2605364302864631E-2</v>
       </c>
       <c r="HF9">
         <v>0.1330726865559623</v>
       </c>
       <c r="HG9">
-        <v>0.1602343742885156</v>
+        <v>0.16023437428851561</v>
       </c>
       <c r="HH9">
-        <v>-0.02999150728874405</v>
+        <v>-2.999150728874405E-2</v>
       </c>
       <c r="HI9">
-        <v>3.406007333537411</v>
+        <v>3.4060073335374108</v>
       </c>
       <c r="HJ9">
-        <v>0.08111431506514882</v>
+        <v>8.1114315065148823E-2</v>
       </c>
       <c r="HK9">
-        <v>0.8280321469701779</v>
+        <v>0.82803214697017791</v>
       </c>
       <c r="HM9">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="HN9">
-        <v>0.06297340629286698</v>
+        <v>6.2973406292866976E-2</v>
       </c>
       <c r="HO9">
-        <v>-0.004905277232211127</v>
+        <v>-4.9052772322111266E-3</v>
       </c>
       <c r="HP9">
-        <v>0.0008657048559124613</v>
+        <v>8.6570485591246126E-4</v>
       </c>
       <c r="HQ9">
-        <v>0.003053148777793019</v>
+        <v>3.0531487777930191E-3</v>
       </c>
       <c r="HR9">
-        <v>0.001174585628066886</v>
+        <v>1.174585628066886E-3</v>
       </c>
       <c r="HS9">
-        <v>0.0006465745958050055</v>
+        <v>6.465745958050055E-4</v>
       </c>
       <c r="HT9">
-        <v>0.03142869575870626</v>
+        <v>3.1428695758706257E-2</v>
       </c>
       <c r="HU9">
-        <v>0.002647535408166123</v>
+        <v>2.6475354081661232E-3</v>
       </c>
       <c r="HV9">
-        <v>0.001518115250780155</v>
+        <v>1.5181152507801551E-3</v>
       </c>
       <c r="HW9">
-        <v>0.0004189113508509328</v>
+        <v>4.1891135085093278E-4</v>
       </c>
       <c r="HX9">
-        <v>-2.650148303202433E-05</v>
+        <v>-2.6501483032024331E-5</v>
       </c>
       <c r="HY9">
-        <v>0.001059903272057972</v>
+        <v>1.0599032720579719E-3</v>
       </c>
       <c r="HZ9">
-        <v>-0.002427251369623538</v>
+        <v>-2.427251369623538E-3</v>
       </c>
       <c r="IA9">
-        <v>0.002105601000805018</v>
+        <v>2.1056010008050179E-3</v>
       </c>
       <c r="IB9">
-        <v>0.001270327098068584</v>
+        <v>1.270327098068584E-3</v>
       </c>
       <c r="IC9">
-        <v>0.000549065840613836</v>
+        <v>5.4906584061383597E-4</v>
       </c>
       <c r="ID9">
-        <v>0.003096205439202109</v>
+        <v>3.096205439202109E-3</v>
       </c>
       <c r="IE9">
-        <v>0.0006470136712276649</v>
+        <v>6.4701367122766491E-4</v>
       </c>
       <c r="IF9">
-        <v>0.000987297351647361</v>
+        <v>9.8729735164736101E-4</v>
       </c>
       <c r="IG9">
-        <v>0.002165925684648759</v>
+        <v>2.1659256846487591E-3</v>
       </c>
       <c r="IH9">
-        <v>0.000738971396768048</v>
+        <v>7.3897139676804805E-4</v>
       </c>
       <c r="II9">
-        <v>0.0002447316835355662</v>
+        <v>2.4473168353556619E-4</v>
       </c>
       <c r="IJ9">
-        <v>0.0004522127495663948</v>
+        <v>4.5221274956639481E-4</v>
       </c>
       <c r="IK9">
-        <v>0.001184284976930445</v>
+        <v>1.184284976930445E-3</v>
       </c>
       <c r="IL9">
         <v>0</v>
       </c>
       <c r="IM9">
-        <v>0.02940946020290425</v>
+        <v>2.9409460202904251E-2</v>
       </c>
       <c r="IN9">
-        <v>0.03741094287431749</v>
+        <v>3.7410942874317489E-2</v>
       </c>
       <c r="IO9">
-        <v>0.09331970596920708</v>
+        <v>9.3319705969207078E-2</v>
       </c>
       <c r="IP9">
         <v>0.1081945465640326</v>
       </c>
       <c r="IQ9">
-        <v>-0.07723041987675068</v>
+        <v>-7.7230419876750681E-2</v>
       </c>
       <c r="IR9">
-        <v>4.327255608827669</v>
+        <v>4.3272556088276692</v>
       </c>
       <c r="IS9">
-        <v>0.08423942973938754</v>
+        <v>8.4239429739387542E-2</v>
       </c>
       <c r="IT9">
-        <v>1.012969235510008</v>
+        <v>1.0129692355100079</v>
       </c>
     </row>
-    <row r="10" spans="1:254">
+    <row r="10" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>249</v>
       </c>
@@ -6485,97 +6769,97 @@
         <v>1.178746014877792</v>
       </c>
       <c r="K10">
-        <v>19.97874601487779</v>
+        <v>19.978746014877789</v>
       </c>
       <c r="L10">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="M10">
         <v>7</v>
       </c>
       <c r="P10">
-        <v>0.1351135374091494</v>
+        <v>0.13511353740914939</v>
       </c>
       <c r="S10">
         <v>325</v>
       </c>
       <c r="T10">
-        <v>61.83570112715646</v>
+        <v>61.835701127156462</v>
       </c>
       <c r="U10">
-        <v>8.242568562975096</v>
+        <v>8.2425685629750962</v>
       </c>
       <c r="V10">
         <v>2.307565971105292</v>
       </c>
       <c r="W10">
-        <v>0.03396013978384446</v>
+        <v>3.3960139783844462E-2</v>
       </c>
       <c r="X10">
-        <v>0.1712365786059978</v>
+        <v>0.17123657860599781</v>
       </c>
       <c r="Y10">
-        <v>-3.93306763298963</v>
+        <v>-3.9330676329896299</v>
       </c>
       <c r="Z10">
-        <v>-6.58182781143253</v>
+        <v>-6.5818278114325297</v>
       </c>
       <c r="AA10">
         <v>-9.23058798987533</v>
       </c>
       <c r="AB10">
-        <v>0.06524072250738132</v>
+        <v>6.5240722507381319E-2</v>
       </c>
       <c r="AC10">
-        <v>11.44943099401545</v>
+        <v>11.449430994015451</v>
       </c>
       <c r="AD10">
-        <v>0.05399675750667536</v>
+        <v>5.3996757506675361E-2</v>
       </c>
       <c r="AE10">
-        <v>0.3077964403606692</v>
+        <v>0.30779644036066922</v>
       </c>
       <c r="AF10">
         <v>1.976034995143447</v>
       </c>
       <c r="AG10">
-        <v>0.6822290467666634</v>
+        <v>0.68222904676666341</v>
       </c>
       <c r="AH10">
         <v>1.266713215776375</v>
       </c>
       <c r="AI10">
-        <v>16.76930058375899</v>
+        <v>16.769300583758991</v>
       </c>
       <c r="AJ10">
-        <v>2.55591354153489</v>
+        <v>2.5559135415348901</v>
       </c>
       <c r="AK10">
-        <v>2.321011758763589</v>
+        <v>2.3210117587635888</v>
       </c>
       <c r="AL10">
-        <v>0.587179289736028</v>
+        <v>0.58717928973602795</v>
       </c>
       <c r="AM10">
-        <v>6.821829785</v>
+        <v>6.8218297850000003</v>
       </c>
       <c r="AN10">
-        <v>0.8501659863667071</v>
+        <v>0.85016598636670715</v>
       </c>
       <c r="AO10">
-        <v>2.511979267941711</v>
+        <v>2.5119792679417108</v>
       </c>
       <c r="AP10">
-        <v>3.712916655558559</v>
+        <v>3.7129166555585589</v>
       </c>
       <c r="AQ10">
-        <v>3.631909874669496</v>
+        <v>3.6319098746694962</v>
       </c>
       <c r="AR10">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS10">
-        <v>0.7907662157876962</v>
+        <v>0.79076621578769624</v>
       </c>
       <c r="AT10">
         <v>1.997793127868305</v>
@@ -6587,16 +6871,16 @@
         <v>0</v>
       </c>
       <c r="BU10">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV10">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW10">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX10">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY10">
         <v>400</v>
@@ -6605,7 +6889,7 @@
         <v>200</v>
       </c>
       <c r="CA10">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB10">
         <v>0</v>
@@ -6614,37 +6898,37 @@
         <v>0</v>
       </c>
       <c r="CD10">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE10">
         <v>0</v>
       </c>
       <c r="CF10">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG10">
         <v>16.68548916611951</v>
       </c>
       <c r="CH10">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI10">
         <v>0</v>
       </c>
       <c r="CJ10">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK10">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL10">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM10">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN10">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO10">
         <v>0</v>
@@ -6656,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="DQ10">
-        <v>5.993055555555556</v>
+        <v>5.9930555555555562</v>
       </c>
       <c r="DR10">
-        <v>143.8333333333333</v>
+        <v>143.83333333333329</v>
       </c>
       <c r="DS10">
-        <v>59.96253093750001</v>
+        <v>59.962530937500013</v>
       </c>
       <c r="DT10">
-        <v>58.46253093750001</v>
+        <v>58.462530937500013</v>
       </c>
       <c r="DV10">
-        <v>991.7539083333335</v>
+        <v>991.75390833333347</v>
       </c>
       <c r="DW10">
-        <v>1301.258081625</v>
+        <v>1301.2580816249999</v>
       </c>
       <c r="DX10">
         <v>0</v>
@@ -6683,70 +6967,70 @@
         <v>-0.5452543959802657</v>
       </c>
       <c r="EA10">
-        <v>0.07303373417582119</v>
+        <v>7.3033734175821194E-2</v>
       </c>
       <c r="EB10">
-        <v>0.3031046322353756</v>
+        <v>0.30310463223537559</v>
       </c>
       <c r="EC10">
-        <v>0.09575541007232621</v>
+        <v>9.5755410072326214E-2</v>
       </c>
       <c r="ED10">
-        <v>0.06837763393074173</v>
+        <v>6.8377633930741727E-2</v>
       </c>
       <c r="EE10">
-        <v>3.013391823089443</v>
+        <v>3.0133918230894432</v>
       </c>
       <c r="EF10">
-        <v>0.3491507726254013</v>
+        <v>0.34915077262540128</v>
       </c>
       <c r="EG10">
-        <v>0.07720761502928944</v>
+        <v>7.7207615029289439E-2</v>
       </c>
       <c r="EH10">
-        <v>0.006774433151659083</v>
+        <v>6.7744331516590827E-3</v>
       </c>
       <c r="EI10">
-        <v>0.009913091749108708</v>
+        <v>9.913091749108708E-3</v>
       </c>
       <c r="EJ10">
-        <v>0.08357591369714942</v>
+        <v>8.3575913697149423E-2</v>
       </c>
       <c r="EK10">
         <v>1.300326286482588</v>
       </c>
       <c r="EL10">
-        <v>0.1709281561458628</v>
+        <v>0.17092815614586279</v>
       </c>
       <c r="EM10">
-        <v>0.1076428936424662</v>
+        <v>0.10764289364246619</v>
       </c>
       <c r="EN10">
-        <v>0.04786149776947637</v>
+        <v>4.7861497769476367E-2</v>
       </c>
       <c r="EO10">
-        <v>0.3958073981769215</v>
+        <v>0.39580739817692151</v>
       </c>
       <c r="EP10">
-        <v>0.05680579261279021</v>
+        <v>5.6805792612790208E-2</v>
       </c>
       <c r="EQ10">
-        <v>0.08021848124088723</v>
+        <v>8.0218481240887235E-2</v>
       </c>
       <c r="ER10">
-        <v>0.2232018914087696</v>
+        <v>0.22320189140876959</v>
       </c>
       <c r="ES10">
-        <v>0.04895656815582475</v>
+        <v>4.8956568155824748E-2</v>
       </c>
       <c r="ET10">
-        <v>0.01995086685801673</v>
+        <v>1.9950866858016732E-2</v>
       </c>
       <c r="EU10">
-        <v>0.03740945926243476</v>
+        <v>3.740945926243476E-2</v>
       </c>
       <c r="EV10">
-        <v>0.09943589386919179</v>
+        <v>9.9435893869191785E-2</v>
       </c>
       <c r="EW10">
         <v>0</v>
@@ -6761,52 +7045,52 @@
         <v>11.52778081535787</v>
       </c>
       <c r="FA10">
-        <v>7.963834360362412</v>
+        <v>7.9638343603624122</v>
       </c>
       <c r="FB10">
-        <v>2.588526459447863</v>
+        <v>2.5885264594478632</v>
       </c>
       <c r="FC10">
-        <v>0.5155816700721584</v>
+        <v>0.51558167007215838</v>
       </c>
       <c r="FD10">
-        <v>0.2743321726968448</v>
+        <v>0.27433217269684479</v>
       </c>
       <c r="FE10">
-        <v>0.2693041714825217</v>
+        <v>0.26930417148252173</v>
       </c>
       <c r="FF10">
-        <v>22.65645506668159</v>
+        <v>22.656455066681591</v>
       </c>
       <c r="FG10">
-        <v>5.849272229475049</v>
+        <v>5.8492722294750488</v>
       </c>
       <c r="FH10">
-        <v>0.6323665348233607</v>
+        <v>0.63236653482336069</v>
       </c>
       <c r="FI10">
-        <v>1.909212555694152</v>
+        <v>1.9092125556941519</v>
       </c>
       <c r="FJ10">
-        <v>0.6591584992914623</v>
+        <v>0.65915849929146231</v>
       </c>
       <c r="FK10">
         <v>1.636594585202368</v>
       </c>
       <c r="FL10">
-        <v>16.20222278624058</v>
+        <v>16.202222786240579</v>
       </c>
       <c r="FM10">
-        <v>3.248417231283056</v>
+        <v>3.2484172312830562</v>
       </c>
       <c r="FN10">
         <v>2.726160805552825</v>
       </c>
       <c r="FO10">
-        <v>0.7241011645271748</v>
+        <v>0.72410116452717477</v>
       </c>
       <c r="FP10">
-        <v>6.59113988888889</v>
+        <v>6.5911398888888897</v>
       </c>
       <c r="FQ10">
         <v>1.214966610214993</v>
@@ -6815,19 +7099,19 @@
         <v>2.977837680572748</v>
       </c>
       <c r="FS10">
-        <v>4.639772937659599</v>
+        <v>4.6397729376595986</v>
       </c>
       <c r="FT10">
-        <v>4.108028134301439</v>
+        <v>4.1080281343014393</v>
       </c>
       <c r="FU10">
-        <v>0.5028317917019985</v>
+        <v>0.50283179170199854</v>
       </c>
       <c r="FV10">
-        <v>0.7640253292634747</v>
+        <v>0.76402532926347466</v>
       </c>
       <c r="FW10">
-        <v>2.633652074784657</v>
+        <v>2.6336520747846568</v>
       </c>
       <c r="FX10">
         <v>0</v>
@@ -6836,220 +7120,220 @@
         <v>0</v>
       </c>
       <c r="GA10">
-        <v>0.1351135374091494</v>
+        <v>0.13511353740914939</v>
       </c>
       <c r="GB10">
-        <v>0.008038240113926861</v>
+        <v>8.0382401139268613E-3</v>
       </c>
       <c r="GC10">
-        <v>0.009769584936487391</v>
+        <v>9.7695849364873907E-3</v>
       </c>
       <c r="GD10">
-        <v>0.001731344822560529</v>
+        <v>1.7313448225605289E-3</v>
       </c>
       <c r="GE10">
-        <v>0.01820605204257102</v>
+        <v>1.820605204257102E-2</v>
       </c>
       <c r="GF10">
-        <v>-0.008831278794922022</v>
+        <v>-8.831278794922022E-3</v>
       </c>
       <c r="GG10">
-        <v>0.001038546011091902</v>
+        <v>1.0385460110919019E-3</v>
       </c>
       <c r="GH10">
-        <v>0.004518132323564083</v>
+        <v>4.5181323235640829E-3</v>
       </c>
       <c r="GI10">
-        <v>0.001895013304908502</v>
+        <v>1.895013304908502E-3</v>
       </c>
       <c r="GJ10">
-        <v>0.0008881825912604033</v>
+        <v>8.8818259126040332E-4</v>
       </c>
       <c r="GK10">
-        <v>0.03402523363826724</v>
+        <v>3.402523363826724E-2</v>
       </c>
       <c r="GL10">
-        <v>0.002485677206369961</v>
+        <v>2.485677206369961E-3</v>
       </c>
       <c r="GM10">
-        <v>0.002386713941280438</v>
+        <v>2.3867139412804381E-3</v>
       </c>
       <c r="GN10">
-        <v>0.0004122595119933974</v>
+        <v>4.1225951199339738E-4</v>
       </c>
       <c r="GO10">
-        <v>-6.828212776694044E-05</v>
+        <v>-6.8282127766940441E-5</v>
       </c>
       <c r="GP10">
-        <v>0.00144945920991826</v>
+        <v>1.44945920991826E-3</v>
       </c>
       <c r="GQ10">
-        <v>-0.002853108257558299</v>
+        <v>-2.8531082575582989E-3</v>
       </c>
       <c r="GR10">
-        <v>0.002567000559328188</v>
+        <v>2.5670005593281882E-3</v>
       </c>
       <c r="GS10">
-        <v>0.001321342849052962</v>
+        <v>1.3213428490529619E-3</v>
       </c>
       <c r="GT10">
-        <v>0.0006253188996482603</v>
+        <v>6.2531889964826033E-4</v>
       </c>
       <c r="GU10">
-        <v>0.0004179005376960886</v>
+        <v>4.1790053769608858E-4</v>
       </c>
       <c r="GV10">
-        <v>0.0007293157999926092</v>
+        <v>7.2931579999260918E-4</v>
       </c>
       <c r="GW10">
-        <v>0.001188421698420402</v>
+        <v>1.1884216984204021E-3</v>
       </c>
       <c r="GX10">
-        <v>0.001881601869676851</v>
+        <v>1.881601869676851E-3</v>
       </c>
       <c r="GY10">
-        <v>0.001387290932749511</v>
+        <v>1.3872909327495111E-3</v>
       </c>
       <c r="GZ10">
-        <v>0.0002949535384160901</v>
+        <v>2.9495353841609012E-4</v>
       </c>
       <c r="HA10">
-        <v>0.0006135286680302401</v>
+        <v>6.1352866803024008E-4</v>
       </c>
       <c r="HB10">
-        <v>0.001611339579253928</v>
+        <v>1.6113395792539281E-3</v>
       </c>
       <c r="HC10">
         <v>0</v>
       </c>
       <c r="HD10">
-        <v>0.03011666426669195</v>
+        <v>3.0116664266691951E-2</v>
       </c>
       <c r="HE10">
-        <v>0.03936584359931006</v>
+        <v>3.9365843599310057E-2</v>
       </c>
       <c r="HF10">
         <v>0.1091075000411833</v>
       </c>
       <c r="HG10">
-        <v>0.136011029192551</v>
+        <v>0.13601102919255101</v>
       </c>
       <c r="HH10">
-        <v>-0.08385271613093312</v>
+        <v>-8.3852716130933119E-2</v>
       </c>
       <c r="HI10">
-        <v>3.970980444854049</v>
+        <v>3.9709804448540491</v>
       </c>
       <c r="HJ10">
-        <v>0.07305393499412709</v>
+        <v>7.3053934994127087E-2</v>
       </c>
       <c r="HK10">
-        <v>0.1681234138628898</v>
+        <v>0.16812341386288979</v>
       </c>
       <c r="HM10">
-        <v>0.1351135374091494</v>
+        <v>0.13511353740914939</v>
       </c>
       <c r="HN10">
-        <v>0.07044692202282776</v>
+        <v>7.0446922022827763E-2</v>
       </c>
       <c r="HO10">
-        <v>-0.004130938483998804</v>
+        <v>-4.1309384839988044E-3</v>
       </c>
       <c r="HP10">
-        <v>0.0008899424587591905</v>
+        <v>8.8994245875919048E-4</v>
       </c>
       <c r="HQ10">
-        <v>0.002779601323289915</v>
+        <v>2.7796013232899148E-3</v>
       </c>
       <c r="HR10">
-        <v>0.001117324671045486</v>
+        <v>1.1173246710454859E-3</v>
       </c>
       <c r="HS10">
-        <v>0.0006461955446802153</v>
+        <v>6.4619554468021533E-4</v>
       </c>
       <c r="HT10">
-        <v>0.03465623372255169</v>
+        <v>3.4656233722551687E-2</v>
       </c>
       <c r="HU10">
-        <v>0.002554971430500489</v>
+        <v>2.5549714305004891E-3</v>
       </c>
       <c r="HV10">
-        <v>0.001762788756122517</v>
+        <v>1.762788756122517E-3</v>
       </c>
       <c r="HW10">
-        <v>0.0004755868672381146</v>
+        <v>4.7558686723811461E-4</v>
       </c>
       <c r="HX10">
-        <v>-6.75050361149243E-05</v>
+        <v>-6.7505036114924295E-5</v>
       </c>
       <c r="HY10">
-        <v>0.001137588772422072</v>
+        <v>1.137588772422072E-3</v>
       </c>
       <c r="HZ10">
-        <v>-0.001082516865877786</v>
+        <v>-1.0825168658777861E-3</v>
       </c>
       <c r="IA10">
-        <v>0.00222958267973691</v>
+        <v>2.2295826797369099E-3</v>
       </c>
       <c r="IB10">
-        <v>0.001305374816886387</v>
+        <v>1.3053748168863871E-3</v>
       </c>
       <c r="IC10">
-        <v>0.0005664358891827027</v>
+        <v>5.6643588918270274E-4</v>
       </c>
       <c r="ID10">
-        <v>0.002714037369474412</v>
+        <v>2.7140373694744119E-3</v>
       </c>
       <c r="IE10">
-        <v>0.0006770475794625587</v>
+        <v>6.7704757946255873E-4</v>
       </c>
       <c r="IF10">
-        <v>0.001084991903827433</v>
+        <v>1.084991903827433E-3</v>
       </c>
       <c r="IG10">
-        <v>0.002128773780138301</v>
+        <v>2.1287737801383008E-3</v>
       </c>
       <c r="IH10">
-        <v>0.0008617089446006365</v>
+        <v>8.6170894460063652E-4</v>
       </c>
       <c r="II10">
-        <v>0.0002690620149649248</v>
+        <v>2.6906201496492479E-4</v>
       </c>
       <c r="IJ10">
-        <v>0.0004534425985728623</v>
+        <v>4.5344259857286231E-4</v>
       </c>
       <c r="IK10">
-        <v>0.001285270819766949</v>
+        <v>1.285270819766949E-3</v>
       </c>
       <c r="IL10">
         <v>0</v>
       </c>
       <c r="IM10">
-        <v>0.02991604957528286</v>
+        <v>2.991604957528286E-2</v>
       </c>
       <c r="IN10">
-        <v>0.03676102542875608</v>
+        <v>3.6761025428756082E-2</v>
       </c>
       <c r="IO10">
-        <v>0.09834924845603692</v>
+        <v>9.8349248456036917E-2</v>
       </c>
       <c r="IP10">
         <v>0.1111470941247229</v>
       </c>
       <c r="IQ10">
-        <v>-0.03123584849248534</v>
+        <v>-3.1235848492485341E-2</v>
       </c>
       <c r="IR10">
         <v>3.898679195518802</v>
       </c>
       <c r="IS10">
-        <v>0.07372328600259595</v>
+        <v>7.372328600259595E-2</v>
       </c>
       <c r="IT10">
-        <v>0.1635636832206092</v>
+        <v>0.16356368322060921</v>
       </c>
     </row>
-    <row r="11" spans="1:254">
+    <row r="11" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -7060,16 +7344,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>43700.70347222222</v>
+        <v>43700.703472222223</v>
       </c>
       <c r="E11" s="2">
-        <v>43700.70347222222</v>
+        <v>43700.703472222223</v>
       </c>
       <c r="F11">
         <v>1.5</v>
       </c>
       <c r="G11">
-        <v>1.770261585609375</v>
+        <v>1.7702615856093751</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7078,46 +7362,46 @@
         <v>20.3</v>
       </c>
       <c r="J11">
-        <v>1.434475374732333</v>
+        <v>1.4344753747323331</v>
       </c>
       <c r="K11">
         <v>21.73447537473233</v>
       </c>
       <c r="L11">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="M11">
         <v>6.73</v>
       </c>
       <c r="P11">
-        <v>0.11048</v>
+        <v>0.11047999999999999</v>
       </c>
       <c r="S11">
         <v>332</v>
       </c>
       <c r="T11">
-        <v>113.1853275741802</v>
+        <v>113.18532757418021</v>
       </c>
       <c r="U11">
-        <v>8.677972625381807</v>
+        <v>8.6779726253818072</v>
       </c>
       <c r="V11">
-        <v>2.246108103878605</v>
+        <v>2.2461081038786048</v>
       </c>
       <c r="W11">
-        <v>0.04453828953962024</v>
+        <v>4.4538289539620239E-2</v>
       </c>
       <c r="X11">
-        <v>0.06132873675109148</v>
+        <v>6.1328736751091482E-2</v>
       </c>
       <c r="Y11">
-        <v>-4.25538843117005</v>
+        <v>-4.2553884311700498</v>
       </c>
       <c r="Z11">
-        <v>-7.06053857919315</v>
+        <v>-7.0605385791931496</v>
       </c>
       <c r="AA11">
-        <v>-9.86568872721625</v>
+        <v>-9.8656887272162503</v>
       </c>
       <c r="AB11">
         <v>0.1069505768522218</v>
@@ -7135,19 +7419,19 @@
         <v>1.629685358714118</v>
       </c>
       <c r="AG11">
-        <v>0.7366993214538803</v>
+        <v>0.73669932145388028</v>
       </c>
       <c r="AH11">
-        <v>1.110016042227021</v>
+        <v>1.1100160422270211</v>
       </c>
       <c r="AI11">
-        <v>18.2004122673085</v>
+        <v>18.200412267308501</v>
       </c>
       <c r="AJ11">
-        <v>2.142791206605552</v>
+        <v>2.1427912066055521</v>
       </c>
       <c r="AK11">
-        <v>2.167332274355845</v>
+        <v>2.1673322743558452</v>
       </c>
       <c r="AL11">
         <v>0.4825661137147883</v>
@@ -7156,25 +7440,25 @@
         <v>7.698033294</v>
       </c>
       <c r="AN11">
-        <v>0.9584401999171402</v>
+        <v>0.95844019991714025</v>
       </c>
       <c r="AO11">
         <v>2.511898104380903</v>
       </c>
       <c r="AP11">
-        <v>3.943180342114501</v>
+        <v>3.9431803421145011</v>
       </c>
       <c r="AQ11">
         <v>3.842231114779727</v>
       </c>
       <c r="AR11">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS11">
-        <v>0.5932840401119757</v>
+        <v>0.59328404011197566</v>
       </c>
       <c r="AT11">
-        <v>2.124902781409548</v>
+        <v>2.1249027814095478</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -7183,16 +7467,16 @@
         <v>0</v>
       </c>
       <c r="BU11">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV11">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW11">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX11">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY11">
         <v>400</v>
@@ -7201,7 +7485,7 @@
         <v>200</v>
       </c>
       <c r="CA11">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB11">
         <v>0</v>
@@ -7210,37 +7494,37 @@
         <v>0</v>
       </c>
       <c r="CD11">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE11">
         <v>0</v>
       </c>
       <c r="CF11">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG11">
         <v>16.68548916611951</v>
       </c>
       <c r="CH11">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI11">
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK11">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL11">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM11">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN11">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -7252,58 +7536,58 @@
         <v>0</v>
       </c>
       <c r="DQ11">
-        <v>6.975000000000001</v>
+        <v>6.9750000000000014</v>
       </c>
       <c r="DR11">
         <v>167.4</v>
       </c>
       <c r="DS11">
-        <v>60.5087195203125</v>
+        <v>60.508719520312503</v>
       </c>
       <c r="DT11">
-        <v>59.0087195203125</v>
+        <v>59.008719520312503</v>
       </c>
       <c r="DV11">
-        <v>1452.482241666667</v>
+        <v>1452.4822416666671</v>
       </c>
       <c r="DW11">
-        <v>1430.489506262344</v>
+        <v>1430.4895062623441</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11">
-        <v>7.571374359429887</v>
+        <v>7.5713743594298872</v>
       </c>
       <c r="DZ11">
-        <v>-0.5884659879570469</v>
+        <v>-0.58846598795704685</v>
       </c>
       <c r="EA11">
-        <v>0.09375303041156803</v>
+        <v>9.3753030411568031E-2</v>
       </c>
       <c r="EB11">
-        <v>0.3316068640299188</v>
+        <v>0.33160686402991879</v>
       </c>
       <c r="EC11">
         <v>0.1086439752348307</v>
       </c>
       <c r="ED11">
-        <v>0.07820144205134105</v>
+        <v>7.8201442051341052E-2</v>
       </c>
       <c r="EE11">
         <v>3.950864872363729</v>
       </c>
       <c r="EF11">
-        <v>0.41077009066916</v>
+        <v>0.41077009066915998</v>
       </c>
       <c r="EG11">
         <v>0.1154713043189481</v>
       </c>
       <c r="EH11">
-        <v>0.02368826591202312</v>
+        <v>2.368826591202312E-2</v>
       </c>
       <c r="EI11">
-        <v>0.005221195889508528</v>
+        <v>5.2211958895085281E-3</v>
       </c>
       <c r="EJ11">
         <v>0.1154385070594595</v>
@@ -7312,100 +7596,100 @@
         <v>1.421234173340967</v>
       </c>
       <c r="EL11">
-        <v>0.237828171167432</v>
+        <v>0.23782817116743199</v>
       </c>
       <c r="EM11">
-        <v>0.1414568924966124</v>
+        <v>0.14145689249661239</v>
       </c>
       <c r="EN11">
-        <v>0.06247647441340749</v>
+        <v>6.2476474413407493E-2</v>
       </c>
       <c r="EO11">
-        <v>0.4627841007656733</v>
+        <v>0.46278410076567328</v>
       </c>
       <c r="EP11">
-        <v>0.07232787722305561</v>
+        <v>7.2327877223055614E-2</v>
       </c>
       <c r="EQ11">
         <v>0.1084118883700929</v>
       </c>
       <c r="ER11">
-        <v>0.2653518173925344</v>
+        <v>0.26535181739253438</v>
       </c>
       <c r="ES11">
-        <v>0.0650396054593991</v>
+        <v>6.5039605459399102E-2</v>
       </c>
       <c r="ET11">
-        <v>0.02693996804586295</v>
+        <v>2.693996804586295E-2</v>
       </c>
       <c r="EU11">
-        <v>0.04774079603823939</v>
+        <v>4.7740796038239393E-2</v>
       </c>
       <c r="EV11">
-        <v>0.1302196621681835</v>
+        <v>0.13021966216818351</v>
       </c>
       <c r="EW11">
         <v>0</v>
       </c>
       <c r="EX11">
-        <v>2.670014479935474</v>
+        <v>2.6700144799354741</v>
       </c>
       <c r="EY11">
-        <v>2.544332592744101</v>
+        <v>2.5443325927441012</v>
       </c>
       <c r="EZ11">
         <v>14.17509196878002</v>
       </c>
       <c r="FA11">
-        <v>8.384514613895467</v>
+        <v>8.3845146138954671</v>
       </c>
       <c r="FB11">
-        <v>2.52914687758633</v>
+        <v>2.5291468775863302</v>
       </c>
       <c r="FC11">
-        <v>0.5258021046188016</v>
+        <v>0.52580210461880161</v>
       </c>
       <c r="FD11">
         <v>0.1681410211462108</v>
       </c>
       <c r="FE11">
-        <v>0.3096035476611115</v>
+        <v>0.30960354766111148</v>
       </c>
       <c r="FF11">
-        <v>18.51523256979683</v>
+        <v>18.515232569796829</v>
       </c>
       <c r="FG11">
-        <v>5.797101449275362</v>
+        <v>5.7971014492753623</v>
       </c>
       <c r="FH11">
         <v>0.3349786697405886</v>
       </c>
       <c r="FI11">
-        <v>1.574575225810742</v>
+        <v>1.5745752258107419</v>
       </c>
       <c r="FJ11">
-        <v>0.7117867840134109</v>
+        <v>0.71178678401341089</v>
       </c>
       <c r="FK11">
-        <v>1.485196349888983</v>
+        <v>1.4851963498889831</v>
       </c>
       <c r="FL11">
-        <v>17.58493938870387</v>
+        <v>17.584939388703869</v>
       </c>
       <c r="FM11">
-        <v>2.849265216858574</v>
+        <v>2.8492652168585741</v>
       </c>
       <c r="FN11">
-        <v>2.577678211922155</v>
+        <v>2.5776782119221551</v>
       </c>
       <c r="FO11">
-        <v>0.6230256321395036</v>
+        <v>0.62302563213950357</v>
       </c>
       <c r="FP11">
-        <v>7.437713327536232</v>
+        <v>7.4377133275362324</v>
       </c>
       <c r="FQ11">
-        <v>1.319579376930388</v>
+        <v>1.3195793769303881</v>
       </c>
       <c r="FR11">
         <v>2.977759261673417</v>
@@ -7414,16 +7698,16 @@
         <v>4.862249929501087</v>
       </c>
       <c r="FT11">
-        <v>4.311237061944174</v>
+        <v>4.3112370619441744</v>
       </c>
       <c r="FU11">
-        <v>0.5028317917019984</v>
+        <v>0.50283179170199843</v>
       </c>
       <c r="FV11">
-        <v>0.5732212947941794</v>
+        <v>0.57322129479417938</v>
       </c>
       <c r="FW11">
-        <v>2.756463334244795</v>
+        <v>2.7564633342447951</v>
       </c>
       <c r="FX11">
         <v>0</v>
@@ -7432,220 +7716,220 @@
         <v>0</v>
       </c>
       <c r="GA11">
-        <v>0.11048</v>
+        <v>0.11047999999999999</v>
       </c>
       <c r="GB11">
-        <v>0.004712210945180238</v>
+        <v>4.7122109451802384E-3</v>
       </c>
       <c r="GC11">
-        <v>0.005364386904537707</v>
+        <v>5.3643869045377074E-3</v>
       </c>
       <c r="GD11">
-        <v>0.0006521759593574693</v>
+        <v>6.5217595935746929E-4</v>
       </c>
       <c r="GE11">
         <v>0.1179089037116451</v>
       </c>
       <c r="GF11">
-        <v>-0.001575639495138786</v>
+        <v>-1.5756394951387861E-3</v>
       </c>
       <c r="GG11">
-        <v>0.000755494994909348</v>
+        <v>7.5549499490934805E-4</v>
       </c>
       <c r="GH11">
-        <v>0.001039286914937403</v>
+        <v>1.0392869149374029E-3</v>
       </c>
       <c r="GI11">
-        <v>0.0004699602902069378</v>
+        <v>4.6996029020693781E-4</v>
       </c>
       <c r="GJ11">
-        <v>0.0003582089749389153</v>
+        <v>3.5820897493891529E-4</v>
       </c>
       <c r="GK11">
-        <v>0.03418340992524539</v>
+        <v>3.4183409925245392E-2</v>
       </c>
       <c r="GL11">
-        <v>0.002246846892968754</v>
+        <v>2.2468468929687539E-3</v>
       </c>
       <c r="GM11">
-        <v>0.001395222377062632</v>
+        <v>1.395222377062632E-3</v>
       </c>
       <c r="GN11">
-        <v>0.0006167350401189043</v>
+        <v>6.1673504011890428E-4</v>
       </c>
       <c r="GO11">
-        <v>-0.0001710822509718347</v>
+        <v>-1.710822509718347E-4</v>
       </c>
       <c r="GP11">
-        <v>0.001161816962128559</v>
+        <v>1.1618169621285591E-3</v>
       </c>
       <c r="GQ11">
-        <v>0.004408706856025985</v>
+        <v>4.4087068560259854E-3</v>
       </c>
       <c r="GR11">
-        <v>0.002439398806459215</v>
+        <v>2.4393988064592151E-3</v>
       </c>
       <c r="GS11">
-        <v>0.001232971747761543</v>
+        <v>1.232971747761543E-3</v>
       </c>
       <c r="GT11">
-        <v>0.0005329110400070975</v>
+        <v>5.3291104000709752E-4</v>
       </c>
       <c r="GU11">
-        <v>0.002442195092226792</v>
+        <v>2.442195092226792E-3</v>
       </c>
       <c r="GV11">
-        <v>0.0005659872372200885</v>
+        <v>5.6598723722008852E-4</v>
       </c>
       <c r="GW11">
-        <v>0.001028026132413113</v>
+        <v>1.0280261324131131E-3</v>
       </c>
       <c r="GX11">
-        <v>0.001536927594171538</v>
+        <v>1.5369275941715379E-3</v>
       </c>
       <c r="GY11">
-        <v>0.0005864414528147597</v>
+        <v>5.8644145281475969E-4</v>
       </c>
       <c r="GZ11">
-        <v>0.0002548460578126615</v>
+        <v>2.5484605781266148E-4</v>
       </c>
       <c r="HA11">
-        <v>0.0003767151710190282</v>
+        <v>3.7671517101902822E-4</v>
       </c>
       <c r="HB11">
-        <v>0.001122479383938349</v>
+        <v>1.122479383938349E-3</v>
       </c>
       <c r="HC11">
         <v>0</v>
       </c>
       <c r="HD11">
-        <v>0.02485917645545709</v>
+        <v>2.4859176455457089E-2</v>
       </c>
       <c r="HE11">
-        <v>0.02887701104282267</v>
+        <v>2.887701104282267E-2</v>
       </c>
       <c r="HF11">
-        <v>0.08529207945787935</v>
+        <v>8.5292079457879352E-2</v>
       </c>
       <c r="HG11">
-        <v>0.09104549144912673</v>
+        <v>9.1045491449126728E-2</v>
       </c>
       <c r="HH11">
-        <v>0.128972120267324</v>
+        <v>0.12897212026732399</v>
       </c>
       <c r="HI11">
-        <v>3.231977156217159</v>
+        <v>3.2319771562171589</v>
       </c>
       <c r="HJ11">
-        <v>0.06572916212520377</v>
+        <v>6.5729162125203772E-2</v>
       </c>
       <c r="HK11">
         <v>1.086943262520182</v>
       </c>
       <c r="HM11">
-        <v>0.11048</v>
+        <v>0.11047999999999999</v>
       </c>
       <c r="HN11">
-        <v>0.07095277885269446</v>
+        <v>7.0952778852694465E-2</v>
       </c>
       <c r="HO11">
-        <v>-0.002495734620777307</v>
+        <v>-2.495734620777307E-3</v>
       </c>
       <c r="HP11">
-        <v>0.000794145659654718</v>
+        <v>7.9414565965471801E-4</v>
       </c>
       <c r="HQ11">
-        <v>0.002077954202890892</v>
+        <v>2.0779542028908919E-3</v>
       </c>
       <c r="HR11">
-        <v>0.0008237456149813719</v>
+        <v>8.2374561498137189E-4</v>
       </c>
       <c r="HS11">
-        <v>0.0005638542340763857</v>
+        <v>5.6385423407638569E-4</v>
       </c>
       <c r="HT11">
-        <v>0.03306038026866033</v>
+        <v>3.306038026866033E-2</v>
       </c>
       <c r="HU11">
-        <v>0.002228351876399082</v>
+        <v>2.2283518763990822E-3</v>
       </c>
       <c r="HV11">
-        <v>0.001557615000498006</v>
+        <v>1.557615000498006E-3</v>
       </c>
       <c r="HW11">
-        <v>0.0004514036189805764</v>
+        <v>4.5140361898057639E-4</v>
       </c>
       <c r="HX11">
-        <v>-0.0001002857570807487</v>
+        <v>-1.002857570807487E-4</v>
       </c>
       <c r="HY11">
-        <v>0.001074295224667315</v>
+        <v>1.074295224667315E-3</v>
       </c>
       <c r="HZ11">
-        <v>0.003274625307051188</v>
+        <v>3.2746253070511881E-3</v>
       </c>
       <c r="IA11">
-        <v>0.002077643545732495</v>
+        <v>2.0776435457324949E-3</v>
       </c>
       <c r="IB11">
-        <v>0.001167822938251485</v>
+        <v>1.167822938251485E-3</v>
       </c>
       <c r="IC11">
-        <v>0.0005110337009246873</v>
+        <v>5.1103370092468725E-4</v>
       </c>
       <c r="ID11">
-        <v>0.002032594058628584</v>
+        <v>2.0325940586285842E-3</v>
       </c>
       <c r="IE11">
-        <v>0.0006244493566719167</v>
+        <v>6.2444935667191673E-4</v>
       </c>
       <c r="IF11">
-        <v>0.001062434209401265</v>
+        <v>1.0624342094012649E-3</v>
       </c>
       <c r="IG11">
-        <v>0.001821802666854952</v>
+        <v>1.8218026668549521E-3</v>
       </c>
       <c r="IH11">
-        <v>0.0008856791322384717</v>
+        <v>8.8567913223847169E-4</v>
       </c>
       <c r="II11">
-        <v>0.0002636566890305446</v>
+        <v>2.6365668903054461E-4</v>
       </c>
       <c r="IJ11">
-        <v>0.0003875081504038726</v>
+        <v>3.8750815040387257E-4</v>
       </c>
       <c r="IK11">
-        <v>0.001239675861217681</v>
+        <v>1.2396758612176809E-3</v>
       </c>
       <c r="IL11">
         <v>0</v>
       </c>
       <c r="IM11">
-        <v>0.02670563984599036</v>
+        <v>2.6705639845990361E-2</v>
       </c>
       <c r="IN11">
-        <v>0.03123396852539625</v>
+        <v>3.1233968525396252E-2</v>
       </c>
       <c r="IO11">
-        <v>0.09065317981045481</v>
+        <v>9.0653179810454815E-2</v>
       </c>
       <c r="IP11">
-        <v>0.09874209821527123</v>
+        <v>9.8742098215271232E-2</v>
       </c>
       <c r="IQ11">
-        <v>0.09904983791597151</v>
+        <v>9.9049837915971509E-2</v>
       </c>
       <c r="IR11">
-        <v>3.341764344578026</v>
+        <v>3.3417643445780261</v>
       </c>
       <c r="IS11">
-        <v>0.06740248775999269</v>
+        <v>6.7402487759992691E-2</v>
       </c>
       <c r="IT11">
         <v>1.095964743312116</v>
       </c>
     </row>
-    <row r="12" spans="1:254">
+    <row r="12" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>249</v>
       </c>
@@ -7656,16 +7940,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>43701.72847222222</v>
+        <v>43701.728472222218</v>
       </c>
       <c r="E12" s="2">
-        <v>43701.72847222222</v>
+        <v>43701.728472222218</v>
       </c>
       <c r="F12">
         <v>1.5</v>
       </c>
       <c r="G12">
-        <v>1.787220741105703</v>
+        <v>1.7872207411057031</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7674,52 +7958,52 @@
         <v>18.7</v>
       </c>
       <c r="J12">
-        <v>3.456398104265404</v>
+        <v>3.4563981042654039</v>
       </c>
       <c r="K12">
-        <v>22.1563981042654</v>
+        <v>22.156398104265399</v>
       </c>
       <c r="L12">
-        <v>84.40000000000001</v>
+        <v>84.4</v>
       </c>
       <c r="M12">
         <v>6.42</v>
       </c>
       <c r="P12">
-        <v>0.0774138493232938</v>
+        <v>7.7413849323293801E-2</v>
       </c>
       <c r="S12">
         <v>327</v>
       </c>
       <c r="T12">
-        <v>140.0205198135203</v>
+        <v>140.02051981352031</v>
       </c>
       <c r="U12">
-        <v>7.801286216089521</v>
+        <v>7.8012862160895207</v>
       </c>
       <c r="V12">
-        <v>2.231238164860391</v>
+        <v>2.2312381648603909</v>
       </c>
       <c r="W12">
-        <v>0.05238070789030247</v>
+        <v>5.2380707890302469E-2</v>
       </c>
       <c r="X12">
-        <v>0.0592848082964307</v>
+        <v>5.9284808296430701E-2</v>
       </c>
       <c r="Y12">
         <v>-3.81516794580314</v>
       </c>
       <c r="Z12">
-        <v>-6.35565411383814</v>
+        <v>-6.3556541138381402</v>
       </c>
       <c r="AA12">
-        <v>-8.89614028187304</v>
+        <v>-8.8961402818730395</v>
       </c>
       <c r="AB12">
-        <v>0.09889755121244879</v>
+        <v>9.8897551212448795E-2</v>
       </c>
       <c r="AC12">
-        <v>1.664064602466567</v>
+        <v>1.6640646024665671</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -7731,46 +8015,46 @@
         <v>1.387106373028969</v>
       </c>
       <c r="AG12">
-        <v>0.7503461443193769</v>
+        <v>0.75034614431937685</v>
       </c>
       <c r="AH12">
         <v>1.022991107054819</v>
       </c>
       <c r="AI12">
-        <v>20.63945753687023</v>
+        <v>20.639457536870228</v>
       </c>
       <c r="AJ12">
-        <v>1.957977990579172</v>
+        <v>1.9579779905791721</v>
       </c>
       <c r="AK12">
-        <v>2.134395276341786</v>
+        <v>2.1343952763417859</v>
       </c>
       <c r="AL12">
         <v>0.4097923743292084</v>
       </c>
       <c r="AM12">
-        <v>10.07958559</v>
+        <v>10.079585590000001</v>
       </c>
       <c r="AN12">
         <v>1.053262337353301</v>
       </c>
       <c r="AO12">
-        <v>2.512446012238346</v>
+        <v>2.5124460122383461</v>
       </c>
       <c r="AP12">
-        <v>4.292497387468283</v>
+        <v>4.2924973874682832</v>
       </c>
       <c r="AQ12">
-        <v>3.917604773314327</v>
+        <v>3.9176047733143271</v>
       </c>
       <c r="AR12">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS12">
-        <v>0.4565680205538071</v>
+        <v>0.45656802055380707</v>
       </c>
       <c r="AT12">
-        <v>2.203369281784534</v>
+        <v>2.2033692817845338</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -7779,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="BU12">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV12">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW12">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX12">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY12">
         <v>400</v>
@@ -7797,7 +8081,7 @@
         <v>200</v>
       </c>
       <c r="CA12">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB12">
         <v>0</v>
@@ -7806,37 +8090,37 @@
         <v>0</v>
       </c>
       <c r="CD12">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE12">
         <v>0</v>
       </c>
       <c r="CF12">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG12">
         <v>16.68548916611951</v>
       </c>
       <c r="CH12">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI12">
         <v>0</v>
       </c>
       <c r="CJ12">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK12">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL12">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM12">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN12">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -7854,133 +8138,133 @@
         <v>192</v>
       </c>
       <c r="DS12">
-        <v>61.07402470352344</v>
+        <v>61.074024703523442</v>
       </c>
       <c r="DT12">
-        <v>59.57402470352344</v>
+        <v>59.574024703523442</v>
       </c>
       <c r="DV12">
-        <v>1932.182241666667</v>
+        <v>1932.1822416666671</v>
       </c>
       <c r="DW12">
-        <v>1374.696761955889</v>
+        <v>1374.6967619558891</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DY12">
-        <v>9.444069796881532</v>
+        <v>9.4440697968815321</v>
       </c>
       <c r="DZ12">
-        <v>-0.5528458823816501</v>
+        <v>-0.55284588238165011</v>
       </c>
       <c r="EA12">
-        <v>0.1119475144919869</v>
+        <v>0.11194751449198689</v>
       </c>
       <c r="EB12">
-        <v>0.3605206141088917</v>
+        <v>0.36052061410889169</v>
       </c>
       <c r="EC12">
         <v>0.1152922622675501</v>
       </c>
       <c r="ED12">
-        <v>0.0910701052836272</v>
+        <v>9.1070105283627203E-2</v>
       </c>
       <c r="EE12">
-        <v>4.980033521083681</v>
+        <v>4.9800335210836808</v>
       </c>
       <c r="EF12">
-        <v>0.4697788101894725</v>
+        <v>0.46977881018947248</v>
       </c>
       <c r="EG12">
-        <v>0.1359297998698382</v>
+        <v>0.13592979986983819</v>
       </c>
       <c r="EH12">
-        <v>0.03513774325795826</v>
+        <v>3.5137743257958258E-2</v>
       </c>
       <c r="EI12">
-        <v>0.002866220565629901</v>
+        <v>2.866220565629901E-3</v>
       </c>
       <c r="EJ12">
-        <v>0.1436672414784113</v>
+        <v>0.14366724147841131</v>
       </c>
       <c r="EK12">
         <v>1.60778589017944</v>
       </c>
       <c r="EL12">
-        <v>0.2922626692431551</v>
+        <v>0.29226266924315508</v>
       </c>
       <c r="EM12">
-        <v>0.1685299654548983</v>
+        <v>0.16852996545489829</v>
       </c>
       <c r="EN12">
-        <v>0.07549948766852624</v>
+        <v>7.5499487668526238E-2</v>
       </c>
       <c r="EO12">
-        <v>0.6241338725869389</v>
+        <v>0.62413387258693886</v>
       </c>
       <c r="EP12">
-        <v>0.08859293067715585</v>
+        <v>8.8592930677155846E-2</v>
       </c>
       <c r="EQ12">
-        <v>0.1368304412609672</v>
+        <v>0.13683044126096719</v>
       </c>
       <c r="ER12">
-        <v>0.3001488982195412</v>
+        <v>0.30014889821954122</v>
       </c>
       <c r="ES12">
-        <v>0.08908031357928287</v>
+        <v>8.9080313579282866E-2</v>
       </c>
       <c r="ET12">
-        <v>0.03399436519698185</v>
+        <v>3.3994365196981853E-2</v>
       </c>
       <c r="EU12">
-        <v>0.05486528099094278</v>
+        <v>5.4865280990942782E-2</v>
       </c>
       <c r="EV12">
-        <v>0.1639993419915133</v>
+        <v>0.16399934199151331</v>
       </c>
       <c r="EW12">
         <v>0</v>
       </c>
       <c r="EX12">
-        <v>3.158503095668833</v>
+        <v>3.1585030956688329</v>
       </c>
       <c r="EY12">
-        <v>3.229791085874122</v>
+        <v>3.2297910858741221</v>
       </c>
       <c r="EZ12">
-        <v>16.32614621432992</v>
+        <v>16.326146214329921</v>
       </c>
       <c r="FA12">
-        <v>7.537474604917411</v>
+        <v>7.5374746049174108</v>
       </c>
       <c r="FB12">
         <v>2.514779786747475</v>
       </c>
       <c r="FC12">
-        <v>0.5333793204165622</v>
+        <v>0.53337932041656222</v>
       </c>
       <c r="FD12">
-        <v>0.1661662110450892</v>
+        <v>0.16616621104508919</v>
       </c>
       <c r="FE12">
-        <v>0.3018228465598815</v>
+        <v>0.30182284655988151</v>
       </c>
       <c r="FF12">
         <v>13.20199478499185</v>
       </c>
       <c r="FG12">
-        <v>5.797101449275362</v>
+        <v>5.7971014492753623</v>
       </c>
       <c r="FH12">
-        <v>0.3349786697405885</v>
+        <v>0.33497866974058849</v>
       </c>
       <c r="FI12">
-        <v>1.340199394230888</v>
+        <v>1.3401993942308881</v>
       </c>
       <c r="FJ12">
-        <v>0.7249721201153398</v>
+        <v>0.72497212011533985</v>
       </c>
       <c r="FK12">
         <v>1.401114286920671</v>
@@ -7989,34 +8273,34 @@
         <v>19.94150486654128</v>
       </c>
       <c r="FM12">
-        <v>2.67070172311328</v>
+        <v>2.6707017231132801</v>
       </c>
       <c r="FN12">
-        <v>2.545855025435141</v>
+        <v>2.5458550254351411</v>
       </c>
       <c r="FO12">
-        <v>0.5527128404626147</v>
+        <v>0.55271284046261471</v>
       </c>
       <c r="FP12">
-        <v>9.738730038647343</v>
+        <v>9.7387300386473434</v>
       </c>
       <c r="FQ12">
-        <v>1.411194968656147</v>
+        <v>1.4111949686561469</v>
       </c>
       <c r="FR12">
-        <v>2.978288641245825</v>
+        <v>2.9782886412458249</v>
       </c>
       <c r="FS12">
-        <v>5.199754321147253</v>
+        <v>5.1997543211472532</v>
       </c>
       <c r="FT12">
         <v>4.38406185279886</v>
       </c>
       <c r="FU12">
-        <v>0.5028317917019984</v>
+        <v>0.50283179170199843</v>
       </c>
       <c r="FV12">
-        <v>0.4411285222742098</v>
+        <v>0.44112852227420979</v>
       </c>
       <c r="FW12">
         <v>2.832276378085361</v>
@@ -8028,205 +8312,205 @@
         <v>0</v>
       </c>
       <c r="GA12">
-        <v>0.0774138493232938</v>
+        <v>7.7413849323293801E-2</v>
       </c>
       <c r="GB12">
-        <v>-0.001938491689447275</v>
+        <v>-1.938491689447275E-3</v>
       </c>
       <c r="GC12">
-        <v>0.002454937578583716</v>
+        <v>2.454937578583716E-3</v>
       </c>
       <c r="GD12">
-        <v>0.004393429268030991</v>
+        <v>4.3934292680309914E-3</v>
       </c>
       <c r="GE12">
-        <v>0.06506588961507336</v>
+        <v>6.5065889615073355E-2</v>
       </c>
       <c r="GF12">
-        <v>0.001237603195423958</v>
+        <v>1.2376031954239579E-3</v>
       </c>
       <c r="GG12">
-        <v>0.000632158475481047</v>
+        <v>6.3215847548104697E-4</v>
       </c>
       <c r="GH12">
-        <v>0.001004594144553658</v>
+        <v>1.004594144553658E-3</v>
       </c>
       <c r="GI12">
-        <v>0.0002309914904202986</v>
+        <v>2.3099149042029861E-4</v>
       </c>
       <c r="GJ12">
-        <v>0.000447115427645241</v>
+        <v>4.4711542764524099E-4</v>
       </c>
       <c r="GK12">
-        <v>0.03575796274915401</v>
+        <v>3.5757962749154007E-2</v>
       </c>
       <c r="GL12">
-        <v>0.002050229179743285</v>
+        <v>2.0502291797432851E-3</v>
       </c>
       <c r="GM12">
-        <v>0.0007108204498090244</v>
+        <v>7.1082044980902437E-4</v>
       </c>
       <c r="GN12">
-        <v>0.0003978065061955038</v>
+        <v>3.9780650619550381E-4</v>
       </c>
       <c r="GO12">
-        <v>-8.18224690493298E-05</v>
+        <v>-8.1822469049329803E-5</v>
       </c>
       <c r="GP12">
-        <v>0.0009807936095450455</v>
+        <v>9.807936095450455E-4</v>
       </c>
       <c r="GQ12">
-        <v>0.006481648415736007</v>
+        <v>6.4816484157360068E-3</v>
       </c>
       <c r="GR12">
-        <v>0.001891300086610252</v>
+        <v>1.891300086610252E-3</v>
       </c>
       <c r="GS12">
-        <v>0.0009406407157384549</v>
+        <v>9.4064071573845491E-4</v>
       </c>
       <c r="GT12">
-        <v>0.0004524782439082934</v>
+        <v>4.5247824390829338E-4</v>
       </c>
       <c r="GU12">
-        <v>0.005606019127715644</v>
+        <v>5.6060191277156439E-3</v>
       </c>
       <c r="GV12">
-        <v>0.0005651213493999234</v>
+        <v>5.6512134939992341E-4</v>
       </c>
       <c r="GW12">
-        <v>0.0009873887597729033</v>
+        <v>9.873887597729033E-4</v>
       </c>
       <c r="GX12">
-        <v>0.001209007601950366</v>
+        <v>1.2090076019503661E-3</v>
       </c>
       <c r="GY12">
-        <v>0.0008352826783863754</v>
+        <v>8.3528267838637541E-4</v>
       </c>
       <c r="GZ12">
-        <v>0.0002451015884142892</v>
+        <v>2.451015884142892E-4</v>
       </c>
       <c r="HA12">
-        <v>0.0002475367548968144</v>
+        <v>2.4753675489681441E-4</v>
       </c>
       <c r="HB12">
-        <v>0.001173658500288866</v>
+        <v>1.1736585002888661E-3</v>
       </c>
       <c r="HC12">
         <v>0</v>
       </c>
       <c r="HD12">
-        <v>0.02749211994522979</v>
+        <v>2.7492119945229789E-2</v>
       </c>
       <c r="HE12">
-        <v>0.03186053587752148</v>
+        <v>3.1860535877521481E-2</v>
       </c>
       <c r="HF12">
-        <v>0.08044723869371923</v>
+        <v>8.0447238693719225E-2</v>
       </c>
       <c r="HG12">
-        <v>0.0809381735080152</v>
+        <v>8.0938173508015201E-2</v>
       </c>
       <c r="HH12">
-        <v>0.1812644769839231</v>
+        <v>0.18126447698392309</v>
       </c>
       <c r="HI12">
-        <v>2.164940152389563</v>
+        <v>2.1649401523895628</v>
       </c>
       <c r="HJ12">
-        <v>0.05733629720814535</v>
+        <v>5.733629720814535E-2</v>
       </c>
       <c r="HK12">
-        <v>2.73433779165</v>
+        <v>2.7343377916499998</v>
       </c>
       <c r="HM12">
-        <v>0.0774138493232938</v>
+        <v>7.7413849323293801E-2</v>
       </c>
       <c r="HN12">
-        <v>0.08077714022408375</v>
+        <v>8.0777140224083749E-2</v>
       </c>
       <c r="HO12">
-        <v>-0.000447948136498919</v>
+        <v>-4.4794813649891898E-4</v>
       </c>
       <c r="HP12">
-        <v>0.0007525919623667598</v>
+        <v>7.5259196236675979E-4</v>
       </c>
       <c r="HQ12">
-        <v>0.001423697657151154</v>
+        <v>1.423697657151154E-3</v>
       </c>
       <c r="HR12">
-        <v>0.0004397027800406867</v>
+        <v>4.3970278004068671E-4</v>
       </c>
       <c r="HS12">
-        <v>0.0005229397429424687</v>
+        <v>5.2293974294246866E-4</v>
       </c>
       <c r="HT12">
-        <v>0.03285374058248602</v>
+        <v>3.2853740582486017E-2</v>
       </c>
       <c r="HU12">
-        <v>0.002162876976374109</v>
+        <v>2.1628769763741089E-3</v>
       </c>
       <c r="HV12">
-        <v>0.001088244576613127</v>
+        <v>1.088244576613127E-3</v>
       </c>
       <c r="HW12">
-        <v>0.0004456775863462513</v>
+        <v>4.4567758634625129E-4</v>
       </c>
       <c r="HX12">
-        <v>-0.0001494043126772747</v>
+        <v>-1.4940431267727471E-4</v>
       </c>
       <c r="HY12">
-        <v>0.001110496565746321</v>
+        <v>1.110496565746321E-3</v>
       </c>
       <c r="HZ12">
-        <v>0.004828587063821518</v>
+        <v>4.828587063821518E-3</v>
       </c>
       <c r="IA12">
-        <v>0.00211328013222086</v>
+        <v>2.1132801322208601E-3</v>
       </c>
       <c r="IB12">
-        <v>0.001114430917943447</v>
+        <v>1.114430917943447E-3</v>
       </c>
       <c r="IC12">
-        <v>0.0004956593956883346</v>
+        <v>4.956593956883346E-4</v>
       </c>
       <c r="ID12">
-        <v>0.001479510311157497</v>
+        <v>1.479510311157497E-3</v>
       </c>
       <c r="IE12">
-        <v>0.0006282477015857207</v>
+        <v>6.2824770158572069E-4</v>
       </c>
       <c r="IF12">
-        <v>0.00116082138847883</v>
+        <v>1.1608213884788301E-3</v>
       </c>
       <c r="IG12">
-        <v>0.001641464485313617</v>
+        <v>1.641464485313617E-3</v>
       </c>
       <c r="IH12">
-        <v>0.001013949528177514</v>
+        <v>1.013949528177514E-3</v>
       </c>
       <c r="II12">
-        <v>0.0002883893303707125</v>
+        <v>2.8838933037071251E-4</v>
       </c>
       <c r="IJ12">
-        <v>0.0003378804866616514</v>
+        <v>3.3788048666165139E-4</v>
       </c>
       <c r="IK12">
-        <v>0.001327559991412332</v>
+        <v>1.3275599914123321E-3</v>
       </c>
       <c r="IL12">
         <v>0</v>
       </c>
       <c r="IM12">
-        <v>0.02561004188062964</v>
+        <v>2.5610041880629639E-2</v>
       </c>
       <c r="IN12">
-        <v>0.02753750032828605</v>
+        <v>2.7537500328286051E-2</v>
       </c>
       <c r="IO12">
-        <v>0.08979183679041237</v>
+        <v>8.9791836790412374E-2</v>
       </c>
       <c r="IP12">
-        <v>0.09203210707597279</v>
+        <v>9.2032107075972786E-2</v>
       </c>
       <c r="IQ12">
         <v>0.1469722161985898</v>
@@ -8235,13 +8519,13 @@
         <v>2.356317665835661</v>
       </c>
       <c r="IS12">
-        <v>0.06583350747972715</v>
+        <v>6.5833507479727146E-2</v>
       </c>
       <c r="IT12">
         <v>2.591926951441172</v>
       </c>
     </row>
-    <row r="13" spans="1:254">
+    <row r="13" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -8252,28 +8536,28 @@
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>43702.71388888889</v>
+        <v>43702.713888888888</v>
       </c>
       <c r="E13" s="2">
-        <v>43702.71388888889</v>
+        <v>43702.713888888888</v>
       </c>
       <c r="F13">
         <v>1.5</v>
       </c>
       <c r="G13">
-        <v>1.804773467044403</v>
+        <v>1.8047734670444029</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J13">
-        <v>6.857952973720607</v>
+        <v>6.8579529737206073</v>
       </c>
       <c r="K13">
-        <v>24.75795297372061</v>
+        <v>24.757952973720609</v>
       </c>
       <c r="L13">
         <v>72.3</v>
@@ -8288,82 +8572,82 @@
         <v>317</v>
       </c>
       <c r="T13">
-        <v>170.9082652909796</v>
+        <v>170.90826529097961</v>
       </c>
       <c r="U13">
-        <v>7.145878644917961</v>
+        <v>7.1458786449179614</v>
       </c>
       <c r="V13">
-        <v>2.235558100650737</v>
+        <v>2.2355581006507368</v>
       </c>
       <c r="W13">
-        <v>0.05675234557902654</v>
+        <v>5.6752345579026538E-2</v>
       </c>
       <c r="X13">
-        <v>0.07246867505554562</v>
+        <v>7.246867505554562E-2</v>
       </c>
       <c r="Y13">
-        <v>0.07890735959815463</v>
+        <v>7.8907359598154633E-2</v>
       </c>
       <c r="Z13">
-        <v>0.7838736906531334</v>
+        <v>0.78387369065313339</v>
       </c>
       <c r="AA13">
-        <v>0.04065303035497909</v>
+        <v>4.0653030354979088E-2</v>
       </c>
       <c r="AB13">
-        <v>0.07890735959815463</v>
+        <v>7.8907359598154633E-2</v>
       </c>
       <c r="AC13">
-        <v>0.7838736906531334</v>
+        <v>0.78387369065313339</v>
       </c>
       <c r="AD13">
-        <v>0.04065303035497909</v>
+        <v>4.0653030354979088E-2</v>
       </c>
       <c r="AE13">
-        <v>0.05183468681547505</v>
+        <v>5.1834686815475053E-2</v>
       </c>
       <c r="AF13">
         <v>1.157300899783295</v>
       </c>
       <c r="AG13">
-        <v>0.7684477337622939</v>
+        <v>0.76844773376229392</v>
       </c>
       <c r="AH13">
-        <v>0.999228287313047</v>
+        <v>0.99922828731304703</v>
       </c>
       <c r="AI13">
-        <v>16.66150771242806</v>
+        <v>16.661507712428062</v>
       </c>
       <c r="AJ13">
         <v>1.91774818111901</v>
       </c>
       <c r="AK13">
-        <v>2.158792056170131</v>
+        <v>2.1587920561701308</v>
       </c>
       <c r="AL13">
-        <v>0.3692888693721695</v>
+        <v>0.36928886937216948</v>
       </c>
       <c r="AM13">
-        <v>9.864514184000001</v>
+        <v>9.8645141840000008</v>
       </c>
       <c r="AN13">
         <v>1.165321392421883</v>
       </c>
       <c r="AO13">
-        <v>2.519424356164134</v>
+        <v>2.5194243561641341</v>
       </c>
       <c r="AP13">
-        <v>4.500214693668721</v>
+        <v>4.5002146936687213</v>
       </c>
       <c r="AQ13">
-        <v>4.028489334860868</v>
+        <v>4.0284893348608684</v>
       </c>
       <c r="AR13">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS13">
-        <v>0.2937177568117728</v>
+        <v>0.29371775681177281</v>
       </c>
       <c r="AT13">
         <v>2.319827140455585</v>
@@ -8375,16 +8659,16 @@
         <v>0</v>
       </c>
       <c r="BU13">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV13">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW13">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX13">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY13">
         <v>400</v>
@@ -8393,7 +8677,7 @@
         <v>200</v>
       </c>
       <c r="CA13">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB13">
         <v>0</v>
@@ -8402,37 +8686,37 @@
         <v>0</v>
       </c>
       <c r="CD13">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE13">
         <v>0</v>
       </c>
       <c r="CF13">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG13">
         <v>16.68548916611951</v>
       </c>
       <c r="CH13">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI13">
         <v>0</v>
       </c>
       <c r="CJ13">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK13">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL13">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM13">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN13">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO13">
         <v>0</v>
@@ -8444,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="DQ13">
-        <v>8.985416666666667</v>
+        <v>8.9854166666666675</v>
       </c>
       <c r="DR13">
         <v>215.65</v>
@@ -8468,13 +8752,13 @@
         <v>11.64053637163868</v>
       </c>
       <c r="DZ13">
-        <v>-0.5287004218280247</v>
+        <v>-0.52870042182802468</v>
       </c>
       <c r="EA13">
         <v>0.1291640767041585</v>
       </c>
       <c r="EB13">
-        <v>0.3899090118332955</v>
+        <v>0.38990901183329552</v>
       </c>
       <c r="EC13">
         <v>0.12106956946758</v>
@@ -8483,100 +8767,100 @@
         <v>0.10481487705613</v>
       </c>
       <c r="EE13">
-        <v>5.745723884778753</v>
+        <v>5.7457238847787533</v>
       </c>
       <c r="EF13">
-        <v>0.526846204996143</v>
+        <v>0.52684620499614299</v>
       </c>
       <c r="EG13">
-        <v>0.1533882074354432</v>
+        <v>0.15338820743544321</v>
       </c>
       <c r="EH13">
-        <v>0.04641510266434247</v>
+        <v>4.641510266434247E-2</v>
       </c>
       <c r="EI13">
-        <v>0.0001855526793762643</v>
+        <v>1.855526793762643E-4</v>
       </c>
       <c r="EJ13">
-        <v>0.168447176773438</v>
+        <v>0.16844717677343801</v>
       </c>
       <c r="EK13">
         <v>1.40554416659078</v>
       </c>
       <c r="EL13">
-        <v>0.3386891187064252</v>
+        <v>0.33868911870642521</v>
       </c>
       <c r="EM13">
-        <v>0.1923959258089595</v>
+        <v>0.19239592580895951</v>
       </c>
       <c r="EN13">
-        <v>0.08680924749996041</v>
+        <v>8.6809247499960412E-2</v>
       </c>
       <c r="EO13">
-        <v>0.631889611741879</v>
+        <v>0.63188961174187896</v>
       </c>
       <c r="EP13">
         <v>0.1037532779293379</v>
       </c>
       <c r="EQ13">
-        <v>0.1651236072449143</v>
+        <v>0.16512360724491429</v>
       </c>
       <c r="ER13">
-        <v>0.3432818929547383</v>
+        <v>0.34328189295473832</v>
       </c>
       <c r="ES13">
         <v>0.1110046005556785</v>
       </c>
       <c r="ET13">
-        <v>0.04111634367008796</v>
+        <v>4.1116343670087957E-2</v>
       </c>
       <c r="EU13">
-        <v>0.06395449841458016</v>
+        <v>6.395449841458016E-2</v>
       </c>
       <c r="EV13">
-        <v>0.1955965087573363</v>
+        <v>0.19559650875733631</v>
       </c>
       <c r="EW13">
         <v>0</v>
       </c>
       <c r="EX13">
-        <v>3.764320466417866</v>
+        <v>3.7643204664178662</v>
       </c>
       <c r="EY13">
-        <v>3.867509656331721</v>
+        <v>3.8675096563317211</v>
       </c>
       <c r="EZ13">
-        <v>18.39935889060933</v>
+        <v>18.399358890609331</v>
       </c>
       <c r="FA13">
-        <v>6.904230574799962</v>
+        <v>6.9042305747999624</v>
       </c>
       <c r="FB13">
-        <v>2.51895363775264</v>
+        <v>2.5189536377526398</v>
       </c>
       <c r="FC13">
-        <v>0.5376031249467305</v>
+        <v>0.53760312494673046</v>
       </c>
       <c r="FD13">
-        <v>0.1789042465611423</v>
+        <v>0.17890424656114229</v>
       </c>
       <c r="FE13">
-        <v>0.2825086517634621</v>
+        <v>0.28250865176346213</v>
       </c>
       <c r="FF13">
         <v>12.35156878323974</v>
       </c>
       <c r="FG13">
-        <v>5.83637973947341</v>
+        <v>5.8363797394734096</v>
       </c>
       <c r="FH13">
-        <v>0.3850604927507094</v>
+        <v>0.38506049275070942</v>
       </c>
       <c r="FI13">
-        <v>1.11816512056357</v>
+        <v>1.1181651205635701</v>
       </c>
       <c r="FJ13">
-        <v>0.7424615785142936</v>
+        <v>0.74246157851429362</v>
       </c>
       <c r="FK13">
         <v>1.378155040793356</v>
@@ -8585,22 +8869,22 @@
         <v>16.09807508447156</v>
       </c>
       <c r="FM13">
-        <v>2.631832341992351</v>
+        <v>2.6318323419923511</v>
       </c>
       <c r="FN13">
-        <v>2.569426793385233</v>
+        <v>2.5694267933852331</v>
       </c>
       <c r="FO13">
-        <v>0.5135790192480845</v>
+        <v>0.51357901924808447</v>
       </c>
       <c r="FP13">
-        <v>9.530931578743962</v>
+        <v>9.5309315787439619</v>
       </c>
       <c r="FQ13">
-        <v>1.519464587079897</v>
+        <v>1.5194645870798971</v>
       </c>
       <c r="FR13">
-        <v>2.98503100252678</v>
+        <v>2.9850310025267799</v>
       </c>
       <c r="FS13">
         <v>5.400447370616277</v>
@@ -8609,10 +8893,10 @@
         <v>4.491196694872813</v>
       </c>
       <c r="FU13">
-        <v>0.5028317917019985</v>
+        <v>0.50283179170199854</v>
       </c>
       <c r="FV13">
-        <v>0.2837852722819061</v>
+        <v>0.28378527228190609</v>
       </c>
       <c r="FW13">
         <v>2.944796048298937</v>
@@ -8627,109 +8911,109 @@
         <v>0.1041736431311865</v>
       </c>
       <c r="GB13">
-        <v>-0.0003941360170777934</v>
+        <v>-3.941360170777934E-4</v>
       </c>
       <c r="GC13">
-        <v>0.007878366043910947</v>
+        <v>7.8783660439109473E-3</v>
       </c>
       <c r="GD13">
-        <v>0.008272502060988741</v>
+        <v>8.2725020609887411E-3</v>
       </c>
       <c r="GE13">
-        <v>0.08375568635653843</v>
+        <v>8.3755686356538434E-2</v>
       </c>
       <c r="GF13">
-        <v>0.000920714953874143</v>
+        <v>9.2071495387414297E-4</v>
       </c>
       <c r="GG13">
-        <v>0.0006565021299902582</v>
+        <v>6.5650212999025825E-4</v>
       </c>
       <c r="GH13">
-        <v>0.00112063868879886</v>
+        <v>1.1206386887988599E-3</v>
       </c>
       <c r="GI13">
-        <v>0.0002203003384581772</v>
+        <v>2.2030033845817719E-4</v>
       </c>
       <c r="GJ13">
-        <v>0.0005241157807043949</v>
+        <v>5.2411578070439492E-4</v>
       </c>
       <c r="GK13">
-        <v>0.02919731294110817</v>
+        <v>2.919731294110817E-2</v>
       </c>
       <c r="GL13">
-        <v>0.002176094494468104</v>
+        <v>2.176094494468104E-3</v>
       </c>
       <c r="GM13">
-        <v>0.0006657241795318923</v>
+        <v>6.6572417953189231E-4</v>
       </c>
       <c r="GN13">
-        <v>0.0004300283866033828</v>
+        <v>4.3002838660338282E-4</v>
       </c>
       <c r="GO13">
-        <v>-0.0001022192558208762</v>
+        <v>-1.0221925582087621E-4</v>
       </c>
       <c r="GP13">
-        <v>0.0009449087513362446</v>
+        <v>9.4490875133624458E-4</v>
       </c>
       <c r="GQ13">
-        <v>-0.007711883514990603</v>
+        <v>-7.7118835149906032E-3</v>
       </c>
       <c r="GR13">
-        <v>0.001770333855557655</v>
+        <v>1.7703338555576549E-3</v>
       </c>
       <c r="GS13">
-        <v>0.0009100570493467892</v>
+        <v>9.1005704934678916E-4</v>
       </c>
       <c r="GT13">
-        <v>0.0004312638799496013</v>
+        <v>4.3126387994960128E-4</v>
       </c>
       <c r="GU13">
-        <v>0.0002957419264147508</v>
+        <v>2.9574192641475082E-4</v>
       </c>
       <c r="GV13">
-        <v>0.0005780945196720612</v>
+        <v>5.7809451967206116E-4</v>
       </c>
       <c r="GW13">
-        <v>0.001078875300639147</v>
+        <v>1.078875300639147E-3</v>
       </c>
       <c r="GX13">
-        <v>0.001644747805487926</v>
+        <v>1.6447478054879259E-3</v>
       </c>
       <c r="GY13">
-        <v>0.0008360171398414118</v>
+        <v>8.3601713984141177E-4</v>
       </c>
       <c r="GZ13">
-        <v>0.0002715753574795226</v>
+        <v>2.7157535747952257E-4</v>
       </c>
       <c r="HA13">
-        <v>0.0003465901336762785</v>
+        <v>3.4659013367627852E-4</v>
       </c>
       <c r="HB13">
-        <v>0.001204863492942578</v>
+        <v>1.2048634929425781E-3</v>
       </c>
       <c r="HC13">
         <v>0</v>
       </c>
       <c r="HD13">
-        <v>0.02289682701989508</v>
+        <v>2.289682701989508E-2</v>
       </c>
       <c r="HE13">
-        <v>0.02227185399243568</v>
+        <v>2.227185399243568E-2</v>
       </c>
       <c r="HF13">
-        <v>0.08267902963408333</v>
+        <v>8.2679029634083329E-2</v>
       </c>
       <c r="HG13">
-        <v>0.08329234516900857</v>
+        <v>8.3292345169008575E-2</v>
       </c>
       <c r="HH13">
-        <v>-0.2641299057398089</v>
+        <v>-0.26412990573980888</v>
       </c>
       <c r="HI13">
-        <v>3.567918847234598</v>
+        <v>3.5679188472345982</v>
       </c>
       <c r="HJ13">
-        <v>0.07453064255801041</v>
+        <v>7.453064255801041E-2</v>
       </c>
       <c r="HK13">
         <v>0.1359049099965845</v>
@@ -8738,106 +9022,106 @@
         <v>0.1041736431311865</v>
       </c>
       <c r="HN13">
-        <v>0.08543228808104869</v>
+        <v>8.5432288081048691E-2</v>
       </c>
       <c r="HO13">
-        <v>0.002540334236315118</v>
+        <v>2.5403342363151181E-3</v>
       </c>
       <c r="HP13">
-        <v>0.0006018815691442636</v>
+        <v>6.0188156914426358E-4</v>
       </c>
       <c r="HQ13">
-        <v>0.0004364419435911538</v>
+        <v>4.3644194359115381E-4</v>
       </c>
       <c r="HR13">
-        <v>-0.0002251032167270832</v>
+        <v>-2.2510321672708321E-4</v>
       </c>
       <c r="HS13">
-        <v>0.0004075211313330128</v>
+        <v>4.0752113133301281E-4</v>
       </c>
       <c r="HT13">
-        <v>0.02603676213600246</v>
+        <v>2.6036762136002461E-2</v>
       </c>
       <c r="HU13">
-        <v>0.001902934913437677</v>
+        <v>1.9029349134376771E-3</v>
       </c>
       <c r="HV13">
-        <v>-0.0001140140861498828</v>
+        <v>-1.140140861498828E-4</v>
       </c>
       <c r="HW13">
-        <v>0.000365187554288784</v>
+        <v>3.6518755428878398E-4</v>
       </c>
       <c r="HX13">
-        <v>-0.0001944461885170159</v>
+        <v>-1.9444618851701591E-4</v>
       </c>
       <c r="HY13">
-        <v>0.001025791714639262</v>
+        <v>1.0257917146392619E-3</v>
       </c>
       <c r="HZ13">
-        <v>-0.008543121719421495</v>
+        <v>-8.5431217194214953E-3</v>
       </c>
       <c r="IA13">
-        <v>0.001910137596451464</v>
+        <v>1.9101375964514641E-3</v>
       </c>
       <c r="IB13">
-        <v>0.0009050255654931353</v>
+        <v>9.0502556549313534E-4</v>
       </c>
       <c r="IC13">
-        <v>0.0004152949731999478</v>
+        <v>4.1529497319994779E-4</v>
       </c>
       <c r="ID13">
-        <v>0.000636568852550476</v>
+        <v>6.3656885255047597E-4</v>
       </c>
       <c r="IE13">
-        <v>0.0005603037368103704</v>
+        <v>5.6030373681037037E-4</v>
       </c>
       <c r="IF13">
-        <v>0.001162749988801189</v>
+        <v>1.162749988801189E-3</v>
       </c>
       <c r="IG13">
-        <v>0.001213025567366085</v>
+        <v>1.2130255673660851E-3</v>
       </c>
       <c r="IH13">
-        <v>0.001065349688674787</v>
+        <v>1.0653496886747871E-3</v>
       </c>
       <c r="II13">
-        <v>0.0002893115998942125</v>
+        <v>2.8931159989421248E-4</v>
       </c>
       <c r="IJ13">
-        <v>0.0002245741399774752</v>
+        <v>2.245741399774752E-4</v>
       </c>
       <c r="IK13">
-        <v>0.001295063547745117</v>
+        <v>1.295063547745117E-3</v>
       </c>
       <c r="IL13">
         <v>0</v>
       </c>
       <c r="IM13">
-        <v>0.02108508958124027</v>
+        <v>2.1085089581240269E-2</v>
       </c>
       <c r="IN13">
-        <v>0.01918132419747563</v>
+        <v>1.9181324197475629E-2</v>
       </c>
       <c r="IO13">
-        <v>0.07656397048887903</v>
+        <v>7.656397048887903E-2</v>
       </c>
       <c r="IP13">
-        <v>0.07920113091763888</v>
+        <v>7.9201130917638876E-2</v>
       </c>
       <c r="IQ13">
-        <v>-0.3281176697316158</v>
+        <v>-0.32811766973161582</v>
       </c>
       <c r="IR13">
-        <v>4.001021424516524</v>
+        <v>4.0010214245165239</v>
       </c>
       <c r="IS13">
-        <v>0.07308646534072621</v>
+        <v>7.3086465340726214E-2</v>
       </c>
       <c r="IT13">
-        <v>0.1554135794799671</v>
+        <v>0.15541357947996709</v>
       </c>
     </row>
-    <row r="14" spans="1:254">
+    <row r="14" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -8848,10 +9132,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>43703.45625</v>
+        <v>43703.456250000003</v>
       </c>
       <c r="E14" s="2">
-        <v>43703.45625</v>
+        <v>43703.456250000003</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -8869,7 +9153,7 @@
         <v>7.250151057401812</v>
       </c>
       <c r="K14">
-        <v>21.45015105740181</v>
+        <v>21.450151057401811</v>
       </c>
       <c r="L14">
         <v>66.2</v>
@@ -8878,52 +9162,52 @@
         <v>6.86</v>
       </c>
       <c r="P14">
-        <v>0.1321619395374312</v>
+        <v>0.13216193953743119</v>
       </c>
       <c r="S14">
         <v>321</v>
       </c>
       <c r="T14">
-        <v>187.9238886363626</v>
+        <v>187.92388863636259</v>
       </c>
       <c r="U14">
-        <v>7.001926418553349</v>
+        <v>7.0019264185533494</v>
       </c>
       <c r="V14">
-        <v>2.247965516724722</v>
+        <v>2.2479655167247219</v>
       </c>
       <c r="W14">
-        <v>0.04049945048077829</v>
+        <v>4.0499450480778292E-2</v>
       </c>
       <c r="X14">
-        <v>0.1326241014229189</v>
+        <v>0.13262410142291889</v>
       </c>
       <c r="Y14">
-        <v>0.0952725737715439</v>
+        <v>9.5272573771543898E-2</v>
       </c>
       <c r="Z14">
-        <v>5.7681166823105</v>
+        <v>5.7681166823104997</v>
       </c>
       <c r="AA14">
-        <v>0.231380861861078</v>
+        <v>0.23138086186107801</v>
       </c>
       <c r="AB14">
-        <v>0.0952725737715439</v>
+        <v>9.5272573771543898E-2</v>
       </c>
       <c r="AC14">
-        <v>5.7681166823105</v>
+        <v>5.7681166823104997</v>
       </c>
       <c r="AD14">
-        <v>0.231380861861078</v>
+        <v>0.23138086186107801</v>
       </c>
       <c r="AE14">
-        <v>0.3629055308259805</v>
+        <v>0.36290553082598048</v>
       </c>
       <c r="AF14">
         <v>1.087344610069559</v>
       </c>
       <c r="AG14">
-        <v>0.8251945230958174</v>
+        <v>0.82519452309581742</v>
       </c>
       <c r="AH14">
         <v>1.023623404309596</v>
@@ -8935,34 +9219,34 @@
         <v>1.992700873607687</v>
       </c>
       <c r="AK14">
-        <v>2.147135451543411</v>
+        <v>2.1471354515434111</v>
       </c>
       <c r="AL14">
-        <v>0.3616977981435909</v>
+        <v>0.36169779814359088</v>
       </c>
       <c r="AM14">
-        <v>8.469779874</v>
+        <v>8.4697798740000003</v>
       </c>
       <c r="AN14">
         <v>1.282778682569969</v>
       </c>
       <c r="AO14">
-        <v>2.512257204697687</v>
+        <v>2.5122572046976872</v>
       </c>
       <c r="AP14">
-        <v>4.637566646265565</v>
+        <v>4.6375666462655651</v>
       </c>
       <c r="AQ14">
         <v>3.962627284824221</v>
       </c>
       <c r="AR14">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="AS14">
-        <v>0.2093949849314621</v>
+        <v>0.20939498493146211</v>
       </c>
       <c r="AT14">
-        <v>2.424017717484017</v>
+        <v>2.4240177174840172</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -8971,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="BU14">
-        <v>12.38529714744153</v>
+        <v>12.385297147441531</v>
       </c>
       <c r="BV14">
-        <v>16.65556295802798</v>
+        <v>16.655562958027978</v>
       </c>
       <c r="BW14">
-        <v>3.756574004507889</v>
+        <v>3.7565740045078888</v>
       </c>
       <c r="BX14">
-        <v>7.116303165900953</v>
+        <v>7.1163031659009528</v>
       </c>
       <c r="BY14">
         <v>400</v>
@@ -8989,7 +9273,7 @@
         <v>200</v>
       </c>
       <c r="CA14">
-        <v>11.55676410605031</v>
+        <v>11.556764106050309</v>
       </c>
       <c r="CB14">
         <v>0</v>
@@ -8998,37 +9282,37 @@
         <v>0</v>
       </c>
       <c r="CD14">
-        <v>14.2387393302692</v>
+        <v>14.238739330269199</v>
       </c>
       <c r="CE14">
         <v>0</v>
       </c>
       <c r="CF14">
-        <v>26.87327642810243</v>
+        <v>26.873276428102429</v>
       </c>
       <c r="CG14">
         <v>16.68548916611951</v>
       </c>
       <c r="CH14">
-        <v>5.408847184986596</v>
+        <v>5.4088471849865956</v>
       </c>
       <c r="CI14">
         <v>0</v>
       </c>
       <c r="CJ14">
-        <v>13.57748184019371</v>
+        <v>13.577481840193711</v>
       </c>
       <c r="CK14">
-        <v>19.00275771503611</v>
+        <v>19.002757715036111</v>
       </c>
       <c r="CL14">
-        <v>36.30827783063749</v>
+        <v>36.308277830637493</v>
       </c>
       <c r="CM14">
-        <v>20.66330814441646</v>
+        <v>20.663308144416462</v>
       </c>
       <c r="CN14">
-        <v>4.436826640548482</v>
+        <v>4.4368266405484817</v>
       </c>
       <c r="CO14">
         <v>0</v>
@@ -9040,16 +9324,16 @@
         <v>0</v>
       </c>
       <c r="DQ14">
-        <v>9.727777777777778</v>
+        <v>9.7277777777777779</v>
       </c>
       <c r="DR14">
         <v>233.4666666666667</v>
       </c>
       <c r="DS14">
-        <v>62.2646846130319</v>
+        <v>62.264684613031903</v>
       </c>
       <c r="DT14">
-        <v>60.2646846130319</v>
+        <v>60.264684613031903</v>
       </c>
       <c r="DV14">
         <v>2650.934741666666</v>
@@ -9064,10 +9348,10 @@
         <v>13.0598679456448</v>
       </c>
       <c r="DZ14">
-        <v>-0.5347834227273334</v>
+        <v>-0.53478342272733337</v>
       </c>
       <c r="EA14">
-        <v>0.1460370665938399</v>
+        <v>0.14603706659383989</v>
       </c>
       <c r="EB14">
         <v>0.4208610153438973</v>
@@ -9079,43 +9363,43 @@
         <v>0.1164730724004779</v>
       </c>
       <c r="EE14">
-        <v>6.155640453508115</v>
+        <v>6.1556404535081146</v>
       </c>
       <c r="EF14">
-        <v>0.5750441145263389</v>
+        <v>0.57504411452633886</v>
       </c>
       <c r="EG14">
-        <v>0.1547676791523002</v>
+        <v>0.15476767915230019</v>
       </c>
       <c r="EH14">
-        <v>0.04833413202986468</v>
+        <v>4.8334132029864682E-2</v>
       </c>
       <c r="EI14">
-        <v>-0.004965788022099758</v>
+        <v>-4.9657880220997583E-3</v>
       </c>
       <c r="EJ14">
-        <v>0.1905219773044413</v>
+        <v>0.19052197730444129</v>
       </c>
       <c r="EK14">
-        <v>1.142232534978593</v>
+        <v>1.1422325349785929</v>
       </c>
       <c r="EL14">
-        <v>0.3784844380116603</v>
+        <v>0.37848443801166032</v>
       </c>
       <c r="EM14">
-        <v>0.2186897630235546</v>
+        <v>0.21868976302355461</v>
       </c>
       <c r="EN14">
-        <v>0.09626608383067387</v>
+        <v>9.6266083830673865E-2</v>
       </c>
       <c r="EO14">
-        <v>0.5658173355194152</v>
+        <v>0.56581733551941515</v>
       </c>
       <c r="EP14">
-        <v>0.1184904511259987</v>
+        <v>0.11849045112599869</v>
       </c>
       <c r="EQ14">
-        <v>0.1945607186600481</v>
+        <v>0.19456071866004809</v>
       </c>
       <c r="ER14">
         <v>0.3907824206537967</v>
@@ -9124,10 +9408,10 @@
         <v>0.1439158081684504</v>
       </c>
       <c r="ET14">
-        <v>0.04830826881145086</v>
+        <v>4.8308268811450859E-2</v>
       </c>
       <c r="EU14">
-        <v>0.06858638619472837</v>
+        <v>6.8586386194728372E-2</v>
       </c>
       <c r="EV14">
         <v>0.2280226072788285</v>
@@ -9136,43 +9420,43 @@
         <v>0</v>
       </c>
       <c r="EX14">
-        <v>4.364086502792999</v>
+        <v>4.3640865027929987</v>
       </c>
       <c r="EY14">
-        <v>4.39512041558508</v>
+        <v>4.3951204155850796</v>
       </c>
       <c r="EZ14">
-        <v>20.35810952661103</v>
+        <v>20.358109526611031</v>
       </c>
       <c r="FA14">
-        <v>7.001926418553349</v>
+        <v>7.0019264185533494</v>
       </c>
       <c r="FB14">
-        <v>2.247965516724722</v>
+        <v>2.2479655167247219</v>
       </c>
       <c r="FC14">
-        <v>0.04049945048077829</v>
+        <v>4.0499450480778292E-2</v>
       </c>
       <c r="FD14">
-        <v>0.1326241014229189</v>
+        <v>0.13262410142291889</v>
       </c>
       <c r="FE14">
-        <v>0.0952725737715439</v>
+        <v>9.5272573771543898E-2</v>
       </c>
       <c r="FF14">
-        <v>5.7681166823105</v>
+        <v>5.7681166823104997</v>
       </c>
       <c r="FG14">
-        <v>0.231380861861078</v>
+        <v>0.23138086186107801</v>
       </c>
       <c r="FH14">
-        <v>0.3629055308259805</v>
+        <v>0.36290553082598048</v>
       </c>
       <c r="FI14">
         <v>1.087344610069559</v>
       </c>
       <c r="FJ14">
-        <v>0.8251945230958174</v>
+        <v>0.82519452309581742</v>
       </c>
       <c r="FK14">
         <v>1.023623404309596</v>
@@ -9184,34 +9468,34 @@
         <v>1.992700873607687</v>
       </c>
       <c r="FN14">
-        <v>2.147135451543411</v>
+        <v>2.1471354515434111</v>
       </c>
       <c r="FO14">
-        <v>0.3616977981435909</v>
+        <v>0.36169779814359088</v>
       </c>
       <c r="FP14">
-        <v>8.469779874</v>
+        <v>8.4697798740000003</v>
       </c>
       <c r="FQ14">
         <v>1.282778682569969</v>
       </c>
       <c r="FR14">
-        <v>2.512257204697687</v>
+        <v>2.5122572046976872</v>
       </c>
       <c r="FS14">
-        <v>4.637566646265564</v>
+        <v>4.6375666462655643</v>
       </c>
       <c r="FT14">
         <v>3.962627284824221</v>
       </c>
       <c r="FU14">
-        <v>0.387326105195114</v>
+        <v>0.38732610519511401</v>
       </c>
       <c r="FV14">
-        <v>0.2093949849314621</v>
+        <v>0.20939498493146211</v>
       </c>
       <c r="FW14">
-        <v>2.424017717484017</v>
+        <v>2.4240177174840172</v>
       </c>
       <c r="FX14">
         <v>0</v>
@@ -9220,97 +9504,97 @@
         <v>0</v>
       </c>
       <c r="GA14">
-        <v>0.1321619395374312</v>
+        <v>0.13216193953743119</v>
       </c>
       <c r="GB14">
-        <v>-0.01103018628175535</v>
+        <v>-1.1030186281755351E-2</v>
       </c>
       <c r="GC14">
-        <v>-0.008805713597384003</v>
+        <v>-8.8057135973840031E-3</v>
       </c>
       <c r="GD14">
-        <v>0.00222447268437135</v>
+        <v>2.2244726843713499E-3</v>
       </c>
       <c r="GE14">
-        <v>0.08124718627709729</v>
+        <v>8.1247186277097289E-2</v>
       </c>
       <c r="GF14">
-        <v>-0.000348210887604585</v>
+        <v>-3.4821088760458499E-4</v>
       </c>
       <c r="GG14">
-        <v>0.0009658651845172141</v>
+        <v>9.6586518451721411E-4</v>
       </c>
       <c r="GH14">
-        <v>0.001771794019756226</v>
+        <v>1.7717940197562261E-3</v>
       </c>
       <c r="GI14">
-        <v>0.0001649532856047534</v>
+        <v>1.6495328560475341E-4</v>
       </c>
       <c r="GJ14">
-        <v>0.0006673532711764592</v>
+        <v>6.673532711764592E-4</v>
       </c>
       <c r="GK14">
-        <v>0.02346496648673821</v>
+        <v>2.3464966486738209E-2</v>
       </c>
       <c r="GL14">
-        <v>0.002759006144500541</v>
+        <v>2.7590061445005409E-3</v>
       </c>
       <c r="GM14">
-        <v>7.896547755019744E-05</v>
+        <v>7.8965477550197439E-5</v>
       </c>
       <c r="GN14">
-        <v>0.000109851523905527</v>
+        <v>1.09851523905527E-4</v>
       </c>
       <c r="GO14">
-        <v>-0.0002948796075664636</v>
+        <v>-2.9487960756646362E-4</v>
       </c>
       <c r="GP14">
-        <v>0.001263633856682219</v>
+        <v>1.263633856682219E-3</v>
       </c>
       <c r="GQ14">
-        <v>-0.01507281989235135</v>
+        <v>-1.507281989235135E-2</v>
       </c>
       <c r="GR14">
-        <v>0.002278014369414049</v>
+        <v>2.2780143694140489E-3</v>
       </c>
       <c r="GS14">
-        <v>0.001505145329842898</v>
+        <v>1.5051453298428981E-3</v>
       </c>
       <c r="GT14">
-        <v>0.0005413402738479379</v>
+        <v>5.4134027384793789E-4</v>
       </c>
       <c r="GU14">
-        <v>-0.003782193415768542</v>
+        <v>-3.7821934157685421E-3</v>
       </c>
       <c r="GV14">
-        <v>0.0008436040442103117</v>
+        <v>8.436040442103117E-4</v>
       </c>
       <c r="GW14">
-        <v>0.001685076636359484</v>
+        <v>1.685076636359484E-3</v>
       </c>
       <c r="GX14">
-        <v>0.002719085725214183</v>
+        <v>2.719085725214183E-3</v>
       </c>
       <c r="GY14">
-        <v>0.0018839452771221</v>
+        <v>1.8839452771220999E-3</v>
       </c>
       <c r="GZ14">
-        <v>0.0004116893419075953</v>
+        <v>4.116893419075953E-4</v>
       </c>
       <c r="HA14">
-        <v>0.0002651444216280713</v>
+        <v>2.651444216280713E-4</v>
       </c>
       <c r="HB14">
-        <v>0.001856176044459523</v>
+        <v>1.856176044459523E-3</v>
       </c>
       <c r="HC14">
         <v>0</v>
       </c>
       <c r="HD14">
-        <v>0.02568914214927808</v>
+        <v>2.5689142149278081E-2</v>
       </c>
       <c r="HE14">
-        <v>0.02225515962111413</v>
+        <v>2.2255159621114129E-2</v>
       </c>
       <c r="HF14">
         <v>0.1071542087587347</v>
@@ -9319,115 +9603,115 @@
         <v>0.1099681190669472</v>
       </c>
       <c r="HH14">
-        <v>-0.6423542049748981</v>
+        <v>-0.64235420497489815</v>
       </c>
       <c r="HI14">
-        <v>5.632308898123751</v>
+        <v>5.6323088981237506</v>
       </c>
       <c r="HJ14">
         <v>0.1175798033233868</v>
       </c>
       <c r="HK14">
-        <v>-1.370853567436772</v>
+        <v>-1.3708535674367719</v>
       </c>
       <c r="HM14">
-        <v>0.1321619395374312</v>
+        <v>0.13216193953743119</v>
       </c>
       <c r="HN14">
         <v>0.1062818364879812</v>
       </c>
       <c r="HO14">
-        <v>0.006625706269312082</v>
+        <v>6.6257062693120816E-3</v>
       </c>
       <c r="HP14">
-        <v>0.000523653807397742</v>
+        <v>5.2365380739774199E-4</v>
       </c>
       <c r="HQ14">
-        <v>-0.0005792110171617614</v>
+        <v>-5.7921101716176143E-4</v>
       </c>
       <c r="HR14">
-        <v>-0.001124143980024046</v>
+        <v>-1.124143980024046E-3</v>
       </c>
       <c r="HS14">
-        <v>0.0003422150199804086</v>
+        <v>3.4221501998040859E-4</v>
       </c>
       <c r="HT14">
-        <v>0.01988482147311166</v>
+        <v>1.9884821473111661E-2</v>
       </c>
       <c r="HU14">
-        <v>0.001977301680894118</v>
+        <v>1.9773016808941179E-3</v>
       </c>
       <c r="HV14">
-        <v>-0.001941827615287275</v>
+        <v>-1.941827615287275E-3</v>
       </c>
       <c r="HW14">
-        <v>0.0003200257132490098</v>
+        <v>3.2002571324900981E-4</v>
       </c>
       <c r="HX14">
-        <v>-0.0002789990397847794</v>
+        <v>-2.7899903978477941E-4</v>
       </c>
       <c r="HY14">
-        <v>0.001100966741159181</v>
+        <v>1.100966741159181E-3</v>
       </c>
       <c r="HZ14">
-        <v>-0.04684442661924931</v>
+        <v>-4.6844426619249313E-2</v>
       </c>
       <c r="IA14">
-        <v>0.001998184290098038</v>
+        <v>1.9981842900980381E-3</v>
       </c>
       <c r="IB14">
-        <v>0.0008096352613531434</v>
+        <v>8.096352613531434E-4</v>
       </c>
       <c r="IC14">
-        <v>0.0003911326036375364</v>
+        <v>3.9113260363753642E-4</v>
       </c>
       <c r="ID14">
-        <v>-0.0002012258645559194</v>
+        <v>-2.0122586455591939E-4</v>
       </c>
       <c r="IE14">
-        <v>0.0005772734419267623</v>
+        <v>5.7727344192676233E-4</v>
       </c>
       <c r="IF14">
-        <v>0.001369641115675484</v>
+        <v>1.3696411156754839E-3</v>
       </c>
       <c r="IG14">
-        <v>0.0009208293999987088</v>
+        <v>9.2082939999870881E-4</v>
       </c>
       <c r="IH14">
-        <v>0.001308736398640784</v>
+        <v>1.308736398640784E-3</v>
       </c>
       <c r="II14">
-        <v>0.0003413450514955865</v>
+        <v>3.413450514955865E-4</v>
       </c>
       <c r="IJ14">
-        <v>0.0001250885303520624</v>
+        <v>1.250885303520624E-4</v>
       </c>
       <c r="IK14">
-        <v>0.001483678059619376</v>
+        <v>1.4836780596193761E-3</v>
       </c>
       <c r="IL14">
         <v>0</v>
       </c>
       <c r="IM14">
-        <v>0.01931069513568541</v>
+        <v>1.931069513568541E-2</v>
       </c>
       <c r="IN14">
-        <v>0.01248376300181741</v>
+        <v>1.2483763001817409E-2</v>
       </c>
       <c r="IO14">
-        <v>0.07276138770066067</v>
+        <v>7.2761387700660665E-2</v>
       </c>
       <c r="IP14">
-        <v>0.09095794000454895</v>
+        <v>9.0957940004548946E-2</v>
       </c>
       <c r="IQ14">
-        <v>-2.35578814135156</v>
+        <v>-2.3557881413515598</v>
       </c>
       <c r="IR14">
-        <v>6.646372949143203</v>
+        <v>6.6463729491432026</v>
       </c>
       <c r="IS14">
-        <v>0.09943773865748975</v>
+        <v>9.9437738657489755E-2</v>
       </c>
       <c r="IT14">
         <v>-1.912805442039714</v>
@@ -9435,5 +9719,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>